--- a/bots/crawl_ch/output/vegi_coop_2022-12-02.xlsx
+++ b/bots/crawl_ch/output/vegi_coop_2022-12-02.xlsx
@@ -575,7 +575,7 @@
       <c r="N2" t="inlineStr"/>
       <c r="O2" t="inlineStr">
         <is>
-          <t>2022-12-02 14:40:59</t>
+          <t>2022-12-02 20:49:28</t>
         </is>
       </c>
     </row>
@@ -644,7 +644,7 @@
       <c r="N3" t="inlineStr"/>
       <c r="O3" t="inlineStr">
         <is>
-          <t>2022-12-02 14:40:59</t>
+          <t>2022-12-02 20:49:28</t>
         </is>
       </c>
     </row>
@@ -713,7 +713,7 @@
       <c r="N4" t="inlineStr"/>
       <c r="O4" t="inlineStr">
         <is>
-          <t>2022-12-02 14:40:59</t>
+          <t>2022-12-02 20:49:28</t>
         </is>
       </c>
     </row>
@@ -778,7 +778,7 @@
       <c r="N5" t="inlineStr"/>
       <c r="O5" t="inlineStr">
         <is>
-          <t>2022-12-02 14:40:59</t>
+          <t>2022-12-02 20:49:28</t>
         </is>
       </c>
     </row>
@@ -847,7 +847,7 @@
       <c r="N6" t="inlineStr"/>
       <c r="O6" t="inlineStr">
         <is>
-          <t>2022-12-02 14:40:59</t>
+          <t>2022-12-02 20:49:28</t>
         </is>
       </c>
     </row>
@@ -912,7 +912,7 @@
       <c r="N7" t="inlineStr"/>
       <c r="O7" t="inlineStr">
         <is>
-          <t>2022-12-02 14:40:59</t>
+          <t>2022-12-02 20:49:28</t>
         </is>
       </c>
     </row>
@@ -977,7 +977,7 @@
       <c r="N8" t="inlineStr"/>
       <c r="O8" t="inlineStr">
         <is>
-          <t>2022-12-02 14:40:59</t>
+          <t>2022-12-02 20:49:28</t>
         </is>
       </c>
     </row>
@@ -1046,7 +1046,7 @@
       <c r="N9" t="inlineStr"/>
       <c r="O9" t="inlineStr">
         <is>
-          <t>2022-12-02 14:40:59</t>
+          <t>2022-12-02 20:49:28</t>
         </is>
       </c>
     </row>
@@ -1111,7 +1111,7 @@
       <c r="N10" t="inlineStr"/>
       <c r="O10" t="inlineStr">
         <is>
-          <t>2022-12-02 14:40:59</t>
+          <t>2022-12-02 20:49:28</t>
         </is>
       </c>
     </row>
@@ -1176,7 +1176,7 @@
       <c r="N11" t="inlineStr"/>
       <c r="O11" t="inlineStr">
         <is>
-          <t>2022-12-02 14:40:59</t>
+          <t>2022-12-02 20:49:28</t>
         </is>
       </c>
     </row>
@@ -1245,7 +1245,7 @@
       <c r="N12" t="inlineStr"/>
       <c r="O12" t="inlineStr">
         <is>
-          <t>2022-12-02 14:40:59</t>
+          <t>2022-12-02 20:49:28</t>
         </is>
       </c>
     </row>
@@ -1310,7 +1310,7 @@
       <c r="N13" t="inlineStr"/>
       <c r="O13" t="inlineStr">
         <is>
-          <t>2022-12-02 14:40:59</t>
+          <t>2022-12-02 20:49:28</t>
         </is>
       </c>
     </row>
@@ -1379,7 +1379,7 @@
       <c r="N14" t="inlineStr"/>
       <c r="O14" t="inlineStr">
         <is>
-          <t>2022-12-02 14:40:59</t>
+          <t>2022-12-02 20:49:28</t>
         </is>
       </c>
     </row>
@@ -1444,7 +1444,7 @@
       <c r="N15" t="inlineStr"/>
       <c r="O15" t="inlineStr">
         <is>
-          <t>2022-12-02 14:40:59</t>
+          <t>2022-12-02 20:49:28</t>
         </is>
       </c>
     </row>
@@ -1513,7 +1513,7 @@
       <c r="N16" t="inlineStr"/>
       <c r="O16" t="inlineStr">
         <is>
-          <t>2022-12-02 14:40:59</t>
+          <t>2022-12-02 20:49:28</t>
         </is>
       </c>
     </row>
@@ -1582,7 +1582,7 @@
       <c r="N17" t="inlineStr"/>
       <c r="O17" t="inlineStr">
         <is>
-          <t>2022-12-02 14:40:59</t>
+          <t>2022-12-02 20:49:28</t>
         </is>
       </c>
     </row>
@@ -1651,7 +1651,7 @@
       <c r="N18" t="inlineStr"/>
       <c r="O18" t="inlineStr">
         <is>
-          <t>2022-12-02 14:40:59</t>
+          <t>2022-12-02 20:49:28</t>
         </is>
       </c>
     </row>
@@ -1720,7 +1720,7 @@
       <c r="N19" t="inlineStr"/>
       <c r="O19" t="inlineStr">
         <is>
-          <t>2022-12-02 14:40:59</t>
+          <t>2022-12-02 20:49:28</t>
         </is>
       </c>
     </row>
@@ -1789,7 +1789,7 @@
       <c r="N20" t="inlineStr"/>
       <c r="O20" t="inlineStr">
         <is>
-          <t>2022-12-02 14:40:59</t>
+          <t>2022-12-02 20:49:28</t>
         </is>
       </c>
     </row>
@@ -1854,7 +1854,7 @@
       <c r="N21" t="inlineStr"/>
       <c r="O21" t="inlineStr">
         <is>
-          <t>2022-12-02 14:40:59</t>
+          <t>2022-12-02 20:49:28</t>
         </is>
       </c>
     </row>
@@ -1923,7 +1923,7 @@
       <c r="N22" t="inlineStr"/>
       <c r="O22" t="inlineStr">
         <is>
-          <t>2022-12-02 14:40:59</t>
+          <t>2022-12-02 20:49:28</t>
         </is>
       </c>
     </row>
@@ -1992,7 +1992,7 @@
       <c r="N23" t="inlineStr"/>
       <c r="O23" t="inlineStr">
         <is>
-          <t>2022-12-02 14:40:59</t>
+          <t>2022-12-02 20:49:28</t>
         </is>
       </c>
     </row>
@@ -2057,7 +2057,7 @@
       <c r="N24" t="inlineStr"/>
       <c r="O24" t="inlineStr">
         <is>
-          <t>2022-12-02 14:40:59</t>
+          <t>2022-12-02 20:49:28</t>
         </is>
       </c>
     </row>
@@ -2126,7 +2126,7 @@
       <c r="N25" t="inlineStr"/>
       <c r="O25" t="inlineStr">
         <is>
-          <t>2022-12-02 14:40:59</t>
+          <t>2022-12-02 20:49:28</t>
         </is>
       </c>
     </row>
@@ -2195,7 +2195,7 @@
       <c r="N26" t="inlineStr"/>
       <c r="O26" t="inlineStr">
         <is>
-          <t>2022-12-02 14:40:59</t>
+          <t>2022-12-02 20:49:28</t>
         </is>
       </c>
     </row>
@@ -2260,7 +2260,7 @@
       <c r="N27" t="inlineStr"/>
       <c r="O27" t="inlineStr">
         <is>
-          <t>2022-12-02 14:40:59</t>
+          <t>2022-12-02 20:49:28</t>
         </is>
       </c>
     </row>
@@ -2325,7 +2325,7 @@
       <c r="N28" t="inlineStr"/>
       <c r="O28" t="inlineStr">
         <is>
-          <t>2022-12-02 14:40:59</t>
+          <t>2022-12-02 20:49:28</t>
         </is>
       </c>
     </row>
@@ -2394,7 +2394,7 @@
       <c r="N29" t="inlineStr"/>
       <c r="O29" t="inlineStr">
         <is>
-          <t>2022-12-02 14:40:59</t>
+          <t>2022-12-02 20:49:28</t>
         </is>
       </c>
     </row>
@@ -2459,7 +2459,7 @@
       <c r="N30" t="inlineStr"/>
       <c r="O30" t="inlineStr">
         <is>
-          <t>2022-12-02 14:40:59</t>
+          <t>2022-12-02 20:49:28</t>
         </is>
       </c>
     </row>
@@ -2528,7 +2528,7 @@
       <c r="N31" t="inlineStr"/>
       <c r="O31" t="inlineStr">
         <is>
-          <t>2022-12-02 14:40:59</t>
+          <t>2022-12-02 20:49:28</t>
         </is>
       </c>
     </row>
@@ -2601,7 +2601,7 @@
       </c>
       <c r="O32" t="inlineStr">
         <is>
-          <t>2022-12-02 14:40:59</t>
+          <t>2022-12-02 20:49:28</t>
         </is>
       </c>
     </row>
@@ -2670,7 +2670,7 @@
       <c r="N33" t="inlineStr"/>
       <c r="O33" t="inlineStr">
         <is>
-          <t>2022-12-02 14:40:59</t>
+          <t>2022-12-02 20:49:28</t>
         </is>
       </c>
     </row>
@@ -2739,7 +2739,7 @@
       <c r="N34" t="inlineStr"/>
       <c r="O34" t="inlineStr">
         <is>
-          <t>2022-12-02 14:40:59</t>
+          <t>2022-12-02 20:49:28</t>
         </is>
       </c>
     </row>
@@ -2808,7 +2808,7 @@
       <c r="N35" t="inlineStr"/>
       <c r="O35" t="inlineStr">
         <is>
-          <t>2022-12-02 14:40:59</t>
+          <t>2022-12-02 20:49:28</t>
         </is>
       </c>
     </row>
@@ -2877,7 +2877,7 @@
       <c r="N36" t="inlineStr"/>
       <c r="O36" t="inlineStr">
         <is>
-          <t>2022-12-02 14:40:59</t>
+          <t>2022-12-02 20:49:28</t>
         </is>
       </c>
     </row>
@@ -2946,7 +2946,7 @@
       <c r="N37" t="inlineStr"/>
       <c r="O37" t="inlineStr">
         <is>
-          <t>2022-12-02 14:40:59</t>
+          <t>2022-12-02 20:49:28</t>
         </is>
       </c>
     </row>
@@ -3011,7 +3011,7 @@
       <c r="N38" t="inlineStr"/>
       <c r="O38" t="inlineStr">
         <is>
-          <t>2022-12-02 14:40:59</t>
+          <t>2022-12-02 20:49:28</t>
         </is>
       </c>
     </row>
@@ -3080,7 +3080,7 @@
       <c r="N39" t="inlineStr"/>
       <c r="O39" t="inlineStr">
         <is>
-          <t>2022-12-02 14:40:59</t>
+          <t>2022-12-02 20:49:28</t>
         </is>
       </c>
     </row>
@@ -3149,7 +3149,7 @@
       <c r="N40" t="inlineStr"/>
       <c r="O40" t="inlineStr">
         <is>
-          <t>2022-12-02 14:40:59</t>
+          <t>2022-12-02 20:49:28</t>
         </is>
       </c>
     </row>
@@ -3218,7 +3218,7 @@
       <c r="N41" t="inlineStr"/>
       <c r="O41" t="inlineStr">
         <is>
-          <t>2022-12-02 14:40:59</t>
+          <t>2022-12-02 20:49:28</t>
         </is>
       </c>
     </row>
@@ -3287,7 +3287,7 @@
       <c r="N42" t="inlineStr"/>
       <c r="O42" t="inlineStr">
         <is>
-          <t>2022-12-02 14:40:59</t>
+          <t>2022-12-02 20:49:28</t>
         </is>
       </c>
     </row>
@@ -3352,7 +3352,7 @@
       <c r="N43" t="inlineStr"/>
       <c r="O43" t="inlineStr">
         <is>
-          <t>2022-12-02 14:40:59</t>
+          <t>2022-12-02 20:49:28</t>
         </is>
       </c>
     </row>
@@ -3425,7 +3425,7 @@
       </c>
       <c r="O44" t="inlineStr">
         <is>
-          <t>2022-12-02 14:40:59</t>
+          <t>2022-12-02 20:49:28</t>
         </is>
       </c>
     </row>
@@ -3490,7 +3490,7 @@
       <c r="N45" t="inlineStr"/>
       <c r="O45" t="inlineStr">
         <is>
-          <t>2022-12-02 14:40:59</t>
+          <t>2022-12-02 20:49:28</t>
         </is>
       </c>
     </row>
@@ -3559,7 +3559,7 @@
       <c r="N46" t="inlineStr"/>
       <c r="O46" t="inlineStr">
         <is>
-          <t>2022-12-02 14:40:59</t>
+          <t>2022-12-02 20:49:28</t>
         </is>
       </c>
     </row>
@@ -3632,7 +3632,7 @@
       </c>
       <c r="O47" t="inlineStr">
         <is>
-          <t>2022-12-02 14:40:59</t>
+          <t>2022-12-02 20:49:28</t>
         </is>
       </c>
     </row>
@@ -3701,7 +3701,7 @@
       <c r="N48" t="inlineStr"/>
       <c r="O48" t="inlineStr">
         <is>
-          <t>2022-12-02 14:40:59</t>
+          <t>2022-12-02 20:49:28</t>
         </is>
       </c>
     </row>
@@ -3770,7 +3770,7 @@
       <c r="N49" t="inlineStr"/>
       <c r="O49" t="inlineStr">
         <is>
-          <t>2022-12-02 14:40:59</t>
+          <t>2022-12-02 20:49:28</t>
         </is>
       </c>
     </row>
@@ -3839,7 +3839,7 @@
       <c r="N50" t="inlineStr"/>
       <c r="O50" t="inlineStr">
         <is>
-          <t>2022-12-02 14:40:59</t>
+          <t>2022-12-02 20:49:28</t>
         </is>
       </c>
     </row>
@@ -3904,7 +3904,7 @@
       <c r="N51" t="inlineStr"/>
       <c r="O51" t="inlineStr">
         <is>
-          <t>2022-12-02 14:40:59</t>
+          <t>2022-12-02 20:49:28</t>
         </is>
       </c>
     </row>
@@ -3973,7 +3973,7 @@
       <c r="N52" t="inlineStr"/>
       <c r="O52" t="inlineStr">
         <is>
-          <t>2022-12-02 14:40:59</t>
+          <t>2022-12-02 20:49:28</t>
         </is>
       </c>
     </row>
@@ -4042,7 +4042,7 @@
       <c r="N53" t="inlineStr"/>
       <c r="O53" t="inlineStr">
         <is>
-          <t>2022-12-02 14:40:59</t>
+          <t>2022-12-02 20:49:28</t>
         </is>
       </c>
     </row>
@@ -4107,7 +4107,7 @@
       <c r="N54" t="inlineStr"/>
       <c r="O54" t="inlineStr">
         <is>
-          <t>2022-12-02 14:40:59</t>
+          <t>2022-12-02 20:49:28</t>
         </is>
       </c>
     </row>
@@ -4172,7 +4172,7 @@
       <c r="N55" t="inlineStr"/>
       <c r="O55" t="inlineStr">
         <is>
-          <t>2022-12-02 14:40:59</t>
+          <t>2022-12-02 20:49:28</t>
         </is>
       </c>
     </row>
@@ -4237,7 +4237,7 @@
       <c r="N56" t="inlineStr"/>
       <c r="O56" t="inlineStr">
         <is>
-          <t>2022-12-02 14:40:59</t>
+          <t>2022-12-02 20:49:28</t>
         </is>
       </c>
     </row>
@@ -4302,7 +4302,7 @@
       <c r="N57" t="inlineStr"/>
       <c r="O57" t="inlineStr">
         <is>
-          <t>2022-12-02 14:40:59</t>
+          <t>2022-12-02 20:49:28</t>
         </is>
       </c>
     </row>
@@ -4371,7 +4371,7 @@
       <c r="N58" t="inlineStr"/>
       <c r="O58" t="inlineStr">
         <is>
-          <t>2022-12-02 14:40:59</t>
+          <t>2022-12-02 20:49:28</t>
         </is>
       </c>
     </row>
@@ -4440,7 +4440,7 @@
       <c r="N59" t="inlineStr"/>
       <c r="O59" t="inlineStr">
         <is>
-          <t>2022-12-02 14:40:59</t>
+          <t>2022-12-02 20:49:28</t>
         </is>
       </c>
     </row>
@@ -4513,7 +4513,7 @@
       </c>
       <c r="O60" t="inlineStr">
         <is>
-          <t>2022-12-02 14:40:59</t>
+          <t>2022-12-02 20:49:28</t>
         </is>
       </c>
     </row>
@@ -4578,7 +4578,7 @@
       <c r="N61" t="inlineStr"/>
       <c r="O61" t="inlineStr">
         <is>
-          <t>2022-12-02 14:40:59</t>
+          <t>2022-12-02 20:49:28</t>
         </is>
       </c>
     </row>
@@ -4647,7 +4647,7 @@
       <c r="N62" t="inlineStr"/>
       <c r="O62" t="inlineStr">
         <is>
-          <t>2022-12-02 14:40:59</t>
+          <t>2022-12-02 20:49:28</t>
         </is>
       </c>
     </row>
@@ -4716,7 +4716,7 @@
       <c r="N63" t="inlineStr"/>
       <c r="O63" t="inlineStr">
         <is>
-          <t>2022-12-02 14:40:59</t>
+          <t>2022-12-02 20:49:28</t>
         </is>
       </c>
     </row>
@@ -4785,7 +4785,7 @@
       <c r="N64" t="inlineStr"/>
       <c r="O64" t="inlineStr">
         <is>
-          <t>2022-12-02 14:40:59</t>
+          <t>2022-12-02 20:49:28</t>
         </is>
       </c>
     </row>
@@ -4854,7 +4854,7 @@
       <c r="N65" t="inlineStr"/>
       <c r="O65" t="inlineStr">
         <is>
-          <t>2022-12-02 14:40:59</t>
+          <t>2022-12-02 20:49:28</t>
         </is>
       </c>
     </row>
@@ -4919,7 +4919,7 @@
       <c r="N66" t="inlineStr"/>
       <c r="O66" t="inlineStr">
         <is>
-          <t>2022-12-02 14:40:59</t>
+          <t>2022-12-02 20:49:28</t>
         </is>
       </c>
     </row>
@@ -4988,7 +4988,7 @@
       <c r="N67" t="inlineStr"/>
       <c r="O67" t="inlineStr">
         <is>
-          <t>2022-12-02 14:40:59</t>
+          <t>2022-12-02 20:49:28</t>
         </is>
       </c>
     </row>
@@ -5053,7 +5053,7 @@
       <c r="N68" t="inlineStr"/>
       <c r="O68" t="inlineStr">
         <is>
-          <t>2022-12-02 14:40:59</t>
+          <t>2022-12-02 20:49:28</t>
         </is>
       </c>
     </row>
@@ -5122,7 +5122,7 @@
       <c r="N69" t="inlineStr"/>
       <c r="O69" t="inlineStr">
         <is>
-          <t>2022-12-02 14:40:59</t>
+          <t>2022-12-02 20:49:28</t>
         </is>
       </c>
     </row>
@@ -5191,7 +5191,7 @@
       <c r="N70" t="inlineStr"/>
       <c r="O70" t="inlineStr">
         <is>
-          <t>2022-12-02 14:40:59</t>
+          <t>2022-12-02 20:49:28</t>
         </is>
       </c>
     </row>
@@ -5256,7 +5256,7 @@
       <c r="N71" t="inlineStr"/>
       <c r="O71" t="inlineStr">
         <is>
-          <t>2022-12-02 14:40:59</t>
+          <t>2022-12-02 20:49:28</t>
         </is>
       </c>
     </row>
@@ -5325,7 +5325,7 @@
       <c r="N72" t="inlineStr"/>
       <c r="O72" t="inlineStr">
         <is>
-          <t>2022-12-02 14:40:59</t>
+          <t>2022-12-02 20:49:28</t>
         </is>
       </c>
     </row>
@@ -5394,7 +5394,7 @@
       <c r="N73" t="inlineStr"/>
       <c r="O73" t="inlineStr">
         <is>
-          <t>2022-12-02 14:40:59</t>
+          <t>2022-12-02 20:49:28</t>
         </is>
       </c>
     </row>
@@ -5467,7 +5467,7 @@
       </c>
       <c r="O74" t="inlineStr">
         <is>
-          <t>2022-12-02 14:40:59</t>
+          <t>2022-12-02 20:49:28</t>
         </is>
       </c>
     </row>
@@ -5532,7 +5532,7 @@
       <c r="N75" t="inlineStr"/>
       <c r="O75" t="inlineStr">
         <is>
-          <t>2022-12-02 14:40:59</t>
+          <t>2022-12-02 20:49:28</t>
         </is>
       </c>
     </row>
@@ -5597,7 +5597,7 @@
       <c r="N76" t="inlineStr"/>
       <c r="O76" t="inlineStr">
         <is>
-          <t>2022-12-02 14:40:59</t>
+          <t>2022-12-02 20:49:28</t>
         </is>
       </c>
     </row>
@@ -5650,7 +5650,7 @@
       <c r="N77" t="inlineStr"/>
       <c r="O77" t="inlineStr">
         <is>
-          <t>2022-12-02 14:40:59</t>
+          <t>2022-12-02 20:49:28</t>
         </is>
       </c>
     </row>
@@ -5719,7 +5719,7 @@
       <c r="N78" t="inlineStr"/>
       <c r="O78" t="inlineStr">
         <is>
-          <t>2022-12-02 14:40:59</t>
+          <t>2022-12-02 20:49:28</t>
         </is>
       </c>
     </row>
@@ -5784,7 +5784,7 @@
       <c r="N79" t="inlineStr"/>
       <c r="O79" t="inlineStr">
         <is>
-          <t>2022-12-02 14:40:59</t>
+          <t>2022-12-02 20:49:28</t>
         </is>
       </c>
     </row>
@@ -5849,7 +5849,7 @@
       <c r="N80" t="inlineStr"/>
       <c r="O80" t="inlineStr">
         <is>
-          <t>2022-12-02 14:40:59</t>
+          <t>2022-12-02 20:49:28</t>
         </is>
       </c>
     </row>
@@ -5918,7 +5918,7 @@
       <c r="N81" t="inlineStr"/>
       <c r="O81" t="inlineStr">
         <is>
-          <t>2022-12-02 14:40:59</t>
+          <t>2022-12-02 20:49:28</t>
         </is>
       </c>
     </row>
@@ -5971,7 +5971,7 @@
       <c r="N82" t="inlineStr"/>
       <c r="O82" t="inlineStr">
         <is>
-          <t>2022-12-02 14:40:59</t>
+          <t>2022-12-02 20:49:28</t>
         </is>
       </c>
     </row>
@@ -6040,7 +6040,7 @@
       <c r="N83" t="inlineStr"/>
       <c r="O83" t="inlineStr">
         <is>
-          <t>2022-12-02 14:40:59</t>
+          <t>2022-12-02 20:49:28</t>
         </is>
       </c>
     </row>
@@ -6103,7 +6103,7 @@
       <c r="N84" t="inlineStr"/>
       <c r="O84" t="inlineStr">
         <is>
-          <t>2022-12-02 14:40:59</t>
+          <t>2022-12-02 20:49:28</t>
         </is>
       </c>
     </row>
@@ -6172,7 +6172,7 @@
       <c r="N85" t="inlineStr"/>
       <c r="O85" t="inlineStr">
         <is>
-          <t>2022-12-02 14:40:59</t>
+          <t>2022-12-02 20:49:28</t>
         </is>
       </c>
     </row>
@@ -6237,7 +6237,7 @@
       <c r="N86" t="inlineStr"/>
       <c r="O86" t="inlineStr">
         <is>
-          <t>2022-12-02 14:40:59</t>
+          <t>2022-12-02 20:49:28</t>
         </is>
       </c>
     </row>
@@ -6302,7 +6302,7 @@
       <c r="N87" t="inlineStr"/>
       <c r="O87" t="inlineStr">
         <is>
-          <t>2022-12-02 14:40:59</t>
+          <t>2022-12-02 20:49:28</t>
         </is>
       </c>
     </row>
@@ -6371,7 +6371,7 @@
       <c r="N88" t="inlineStr"/>
       <c r="O88" t="inlineStr">
         <is>
-          <t>2022-12-02 14:40:59</t>
+          <t>2022-12-02 20:49:28</t>
         </is>
       </c>
     </row>
@@ -6436,7 +6436,7 @@
       <c r="N89" t="inlineStr"/>
       <c r="O89" t="inlineStr">
         <is>
-          <t>2022-12-02 14:40:59</t>
+          <t>2022-12-02 20:49:28</t>
         </is>
       </c>
     </row>
@@ -6505,7 +6505,7 @@
       <c r="N90" t="inlineStr"/>
       <c r="O90" t="inlineStr">
         <is>
-          <t>2022-12-02 14:40:59</t>
+          <t>2022-12-02 20:49:28</t>
         </is>
       </c>
     </row>
@@ -6570,7 +6570,7 @@
       <c r="N91" t="inlineStr"/>
       <c r="O91" t="inlineStr">
         <is>
-          <t>2022-12-02 14:40:59</t>
+          <t>2022-12-02 20:49:28</t>
         </is>
       </c>
     </row>
@@ -6639,7 +6639,7 @@
       <c r="N92" t="inlineStr"/>
       <c r="O92" t="inlineStr">
         <is>
-          <t>2022-12-02 14:40:59</t>
+          <t>2022-12-02 20:49:28</t>
         </is>
       </c>
     </row>
@@ -6708,7 +6708,7 @@
       <c r="N93" t="inlineStr"/>
       <c r="O93" t="inlineStr">
         <is>
-          <t>2022-12-02 14:40:59</t>
+          <t>2022-12-02 20:49:28</t>
         </is>
       </c>
     </row>
@@ -6777,7 +6777,7 @@
       <c r="N94" t="inlineStr"/>
       <c r="O94" t="inlineStr">
         <is>
-          <t>2022-12-02 14:40:59</t>
+          <t>2022-12-02 20:49:28</t>
         </is>
       </c>
     </row>
@@ -6842,7 +6842,7 @@
       <c r="N95" t="inlineStr"/>
       <c r="O95" t="inlineStr">
         <is>
-          <t>2022-12-02 14:40:59</t>
+          <t>2022-12-02 20:49:28</t>
         </is>
       </c>
     </row>
@@ -6907,7 +6907,7 @@
       <c r="N96" t="inlineStr"/>
       <c r="O96" t="inlineStr">
         <is>
-          <t>2022-12-02 14:40:59</t>
+          <t>2022-12-02 20:49:28</t>
         </is>
       </c>
     </row>
@@ -6972,7 +6972,7 @@
       <c r="N97" t="inlineStr"/>
       <c r="O97" t="inlineStr">
         <is>
-          <t>2022-12-02 14:40:59</t>
+          <t>2022-12-02 20:49:28</t>
         </is>
       </c>
     </row>
@@ -7037,7 +7037,7 @@
       <c r="N98" t="inlineStr"/>
       <c r="O98" t="inlineStr">
         <is>
-          <t>2022-12-02 14:40:59</t>
+          <t>2022-12-02 20:49:28</t>
         </is>
       </c>
     </row>
@@ -7106,7 +7106,7 @@
       <c r="N99" t="inlineStr"/>
       <c r="O99" t="inlineStr">
         <is>
-          <t>2022-12-02 14:40:59</t>
+          <t>2022-12-02 20:49:28</t>
         </is>
       </c>
     </row>
@@ -7118,12 +7118,12 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>Fairtrade Ananas extrasüss 1 Stück</t>
+          <t>Fairtrade Ananas extrasüss</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/fruechte-gemuese/fruechte/ananas-mangos/fairtrade-ananas-extrasuess-1-stueck/p/6869246</t>
+          <t>/de/lebensmittel/fruechte-gemuese/fruechte/ananas-mangos/fairtrade-ananas-extrasuess/p/6869246</t>
         </is>
       </c>
       <c r="D100" t="n">
@@ -7169,13 +7169,13 @@
       </c>
       <c r="M100" t="inlineStr">
         <is>
-          <t>Fairtrade Ananas extrasüss 1 Stück 2.30 Schweizer Franken</t>
+          <t>Fairtrade Ananas extrasüss 2.30 Schweizer Franken</t>
         </is>
       </c>
       <c r="N100" t="inlineStr"/>
       <c r="O100" t="inlineStr">
         <is>
-          <t>2022-12-02 14:40:59</t>
+          <t>2022-12-02 20:49:28</t>
         </is>
       </c>
     </row>
@@ -7244,7 +7244,7 @@
       <c r="N101" t="inlineStr"/>
       <c r="O101" t="inlineStr">
         <is>
-          <t>2022-12-02 14:40:59</t>
+          <t>2022-12-02 20:49:28</t>
         </is>
       </c>
     </row>
@@ -7313,7 +7313,7 @@
       <c r="N102" t="inlineStr"/>
       <c r="O102" t="inlineStr">
         <is>
-          <t>2022-12-02 14:40:59</t>
+          <t>2022-12-02 20:49:28</t>
         </is>
       </c>
     </row>
@@ -7386,7 +7386,7 @@
       </c>
       <c r="O103" t="inlineStr">
         <is>
-          <t>2022-12-02 14:40:59</t>
+          <t>2022-12-02 20:49:28</t>
         </is>
       </c>
     </row>
@@ -7451,7 +7451,7 @@
       <c r="N104" t="inlineStr"/>
       <c r="O104" t="inlineStr">
         <is>
-          <t>2022-12-02 14:40:59</t>
+          <t>2022-12-02 20:49:28</t>
         </is>
       </c>
     </row>
@@ -7500,7 +7500,7 @@
       <c r="N105" t="inlineStr"/>
       <c r="O105" t="inlineStr">
         <is>
-          <t>2022-12-02 14:40:59</t>
+          <t>2022-12-02 20:49:28</t>
         </is>
       </c>
     </row>
@@ -7569,7 +7569,7 @@
       <c r="N106" t="inlineStr"/>
       <c r="O106" t="inlineStr">
         <is>
-          <t>2022-12-02 14:40:59</t>
+          <t>2022-12-02 20:49:28</t>
         </is>
       </c>
     </row>
@@ -7634,7 +7634,7 @@
       <c r="N107" t="inlineStr"/>
       <c r="O107" t="inlineStr">
         <is>
-          <t>2022-12-02 14:40:59</t>
+          <t>2022-12-02 20:49:28</t>
         </is>
       </c>
     </row>
@@ -7699,7 +7699,7 @@
       <c r="N108" t="inlineStr"/>
       <c r="O108" t="inlineStr">
         <is>
-          <t>2022-12-02 14:40:59</t>
+          <t>2022-12-02 20:49:28</t>
         </is>
       </c>
     </row>
@@ -7768,7 +7768,7 @@
       <c r="N109" t="inlineStr"/>
       <c r="O109" t="inlineStr">
         <is>
-          <t>2022-12-02 14:40:59</t>
+          <t>2022-12-02 20:49:28</t>
         </is>
       </c>
     </row>
@@ -7837,7 +7837,7 @@
       <c r="N110" t="inlineStr"/>
       <c r="O110" t="inlineStr">
         <is>
-          <t>2022-12-02 14:40:59</t>
+          <t>2022-12-02 20:49:28</t>
         </is>
       </c>
     </row>
@@ -7906,7 +7906,7 @@
       <c r="N111" t="inlineStr"/>
       <c r="O111" t="inlineStr">
         <is>
-          <t>2022-12-02 14:40:59</t>
+          <t>2022-12-02 20:49:28</t>
         </is>
       </c>
     </row>
@@ -7975,7 +7975,7 @@
       <c r="N112" t="inlineStr"/>
       <c r="O112" t="inlineStr">
         <is>
-          <t>2022-12-02 14:40:59</t>
+          <t>2022-12-02 20:49:28</t>
         </is>
       </c>
     </row>
@@ -8044,7 +8044,7 @@
       <c r="N113" t="inlineStr"/>
       <c r="O113" t="inlineStr">
         <is>
-          <t>2022-12-02 14:40:59</t>
+          <t>2022-12-02 20:49:28</t>
         </is>
       </c>
     </row>
@@ -8109,7 +8109,7 @@
       <c r="N114" t="inlineStr"/>
       <c r="O114" t="inlineStr">
         <is>
-          <t>2022-12-02 14:40:59</t>
+          <t>2022-12-02 20:49:28</t>
         </is>
       </c>
     </row>
@@ -8121,12 +8121,12 @@
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>Äpfel Greenstar I IP-Suisse ca. 1kg</t>
+          <t>Äpfel Greenstar I IP-Suisse 1kg</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/fruechte-gemuese/fruechte/aepfel-birnen/aepfel-greenstar-i-ip-suisse-ca/p/7056148</t>
+          <t>/de/lebensmittel/fruechte-gemuese/fruechte/aepfel-birnen/aepfel-greenstar-i-ip-suisse/p/7056148</t>
         </is>
       </c>
       <c r="D115" t="inlineStr"/>
@@ -8166,13 +8166,13 @@
       </c>
       <c r="M115" t="inlineStr">
         <is>
-          <t>Äpfel Greenstar I IP-Suisse ca. 1kg 4.95 Schweizer Franken</t>
+          <t>Äpfel Greenstar I IP-Suisse 1kg 4.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="N115" t="inlineStr"/>
       <c r="O115" t="inlineStr">
         <is>
-          <t>2022-12-02 14:40:59</t>
+          <t>2022-12-02 20:49:28</t>
         </is>
       </c>
     </row>
@@ -8245,7 +8245,7 @@
       </c>
       <c r="O116" t="inlineStr">
         <is>
-          <t>2022-12-02 14:40:59</t>
+          <t>2022-12-02 20:49:28</t>
         </is>
       </c>
     </row>
@@ -8314,7 +8314,7 @@
       <c r="N117" t="inlineStr"/>
       <c r="O117" t="inlineStr">
         <is>
-          <t>2022-12-02 14:40:59</t>
+          <t>2022-12-02 20:49:28</t>
         </is>
       </c>
     </row>
@@ -8379,7 +8379,7 @@
       <c r="N118" t="inlineStr"/>
       <c r="O118" t="inlineStr">
         <is>
-          <t>2022-12-02 14:40:59</t>
+          <t>2022-12-02 20:49:28</t>
         </is>
       </c>
     </row>
@@ -8448,7 +8448,7 @@
       <c r="N119" t="inlineStr"/>
       <c r="O119" t="inlineStr">
         <is>
-          <t>2022-12-02 14:40:59</t>
+          <t>2022-12-02 20:49:28</t>
         </is>
       </c>
     </row>
@@ -8517,7 +8517,7 @@
       <c r="N120" t="inlineStr"/>
       <c r="O120" t="inlineStr">
         <is>
-          <t>2022-12-02 14:40:59</t>
+          <t>2022-12-02 20:49:28</t>
         </is>
       </c>
     </row>
@@ -8582,7 +8582,7 @@
       <c r="N121" t="inlineStr"/>
       <c r="O121" t="inlineStr">
         <is>
-          <t>2022-12-02 14:40:59</t>
+          <t>2022-12-02 20:49:28</t>
         </is>
       </c>
     </row>
@@ -8651,7 +8651,7 @@
       <c r="N122" t="inlineStr"/>
       <c r="O122" t="inlineStr">
         <is>
-          <t>2022-12-02 14:40:59</t>
+          <t>2022-12-02 20:49:28</t>
         </is>
       </c>
     </row>
@@ -8716,7 +8716,7 @@
       <c r="N123" t="inlineStr"/>
       <c r="O123" t="inlineStr">
         <is>
-          <t>2022-12-02 14:40:59</t>
+          <t>2022-12-02 20:49:28</t>
         </is>
       </c>
     </row>
@@ -8789,7 +8789,7 @@
       </c>
       <c r="O124" t="inlineStr">
         <is>
-          <t>2022-12-02 14:40:59</t>
+          <t>2022-12-02 20:49:28</t>
         </is>
       </c>
     </row>
@@ -8858,7 +8858,7 @@
       <c r="N125" t="inlineStr"/>
       <c r="O125" t="inlineStr">
         <is>
-          <t>2022-12-02 14:40:59</t>
+          <t>2022-12-02 20:49:28</t>
         </is>
       </c>
     </row>
@@ -8927,7 +8927,7 @@
       <c r="N126" t="inlineStr"/>
       <c r="O126" t="inlineStr">
         <is>
-          <t>2022-12-02 14:40:59</t>
+          <t>2022-12-02 20:49:28</t>
         </is>
       </c>
     </row>
@@ -9000,7 +9000,7 @@
       </c>
       <c r="O127" t="inlineStr">
         <is>
-          <t>2022-12-02 14:40:59</t>
+          <t>2022-12-02 20:49:28</t>
         </is>
       </c>
     </row>
@@ -9069,7 +9069,7 @@
       <c r="N128" t="inlineStr"/>
       <c r="O128" t="inlineStr">
         <is>
-          <t>2022-12-02 14:40:59</t>
+          <t>2022-12-02 20:49:28</t>
         </is>
       </c>
     </row>
@@ -9138,7 +9138,7 @@
       </c>
       <c r="O129" t="inlineStr">
         <is>
-          <t>2022-12-02 14:40:59</t>
+          <t>2022-12-02 20:49:28</t>
         </is>
       </c>
     </row>
@@ -9203,7 +9203,7 @@
       <c r="N130" t="inlineStr"/>
       <c r="O130" t="inlineStr">
         <is>
-          <t>2022-12-02 14:40:59</t>
+          <t>2022-12-02 20:49:28</t>
         </is>
       </c>
     </row>
@@ -9272,7 +9272,7 @@
       <c r="N131" t="inlineStr"/>
       <c r="O131" t="inlineStr">
         <is>
-          <t>2022-12-02 14:40:59</t>
+          <t>2022-12-02 20:49:28</t>
         </is>
       </c>
     </row>
@@ -9341,7 +9341,7 @@
       <c r="N132" t="inlineStr"/>
       <c r="O132" t="inlineStr">
         <is>
-          <t>2022-12-02 14:40:59</t>
+          <t>2022-12-02 20:49:28</t>
         </is>
       </c>
     </row>
@@ -9414,7 +9414,7 @@
       </c>
       <c r="O133" t="inlineStr">
         <is>
-          <t>2022-12-02 14:40:59</t>
+          <t>2022-12-02 20:49:28</t>
         </is>
       </c>
     </row>
@@ -9483,7 +9483,7 @@
       <c r="N134" t="inlineStr"/>
       <c r="O134" t="inlineStr">
         <is>
-          <t>2022-12-02 14:40:59</t>
+          <t>2022-12-02 20:49:28</t>
         </is>
       </c>
     </row>
@@ -9552,7 +9552,7 @@
       <c r="N135" t="inlineStr"/>
       <c r="O135" t="inlineStr">
         <is>
-          <t>2022-12-02 14:40:59</t>
+          <t>2022-12-02 20:49:28</t>
         </is>
       </c>
     </row>
@@ -9617,7 +9617,7 @@
       <c r="N136" t="inlineStr"/>
       <c r="O136" t="inlineStr">
         <is>
-          <t>2022-12-02 14:40:59</t>
+          <t>2022-12-02 20:49:28</t>
         </is>
       </c>
     </row>
@@ -9686,7 +9686,7 @@
       <c r="N137" t="inlineStr"/>
       <c r="O137" t="inlineStr">
         <is>
-          <t>2022-12-02 14:40:59</t>
+          <t>2022-12-02 20:49:28</t>
         </is>
       </c>
     </row>
@@ -9755,7 +9755,7 @@
       <c r="N138" t="inlineStr"/>
       <c r="O138" t="inlineStr">
         <is>
-          <t>2022-12-02 14:40:59</t>
+          <t>2022-12-02 20:49:28</t>
         </is>
       </c>
     </row>
@@ -9828,7 +9828,7 @@
       </c>
       <c r="O139" t="inlineStr">
         <is>
-          <t>2022-12-02 14:40:59</t>
+          <t>2022-12-02 20:49:28</t>
         </is>
       </c>
     </row>
@@ -9897,7 +9897,7 @@
       <c r="N140" t="inlineStr"/>
       <c r="O140" t="inlineStr">
         <is>
-          <t>2022-12-02 14:40:59</t>
+          <t>2022-12-02 20:49:28</t>
         </is>
       </c>
     </row>
@@ -9966,7 +9966,7 @@
       <c r="N141" t="inlineStr"/>
       <c r="O141" t="inlineStr">
         <is>
-          <t>2022-12-02 14:40:59</t>
+          <t>2022-12-02 20:49:28</t>
         </is>
       </c>
     </row>
@@ -10039,7 +10039,7 @@
       </c>
       <c r="O142" t="inlineStr">
         <is>
-          <t>2022-12-02 14:40:59</t>
+          <t>2022-12-02 20:49:28</t>
         </is>
       </c>
     </row>
@@ -10051,12 +10051,12 @@
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>Primagusto Babykartoffeln Celtiane IP-Suisse 600g</t>
+          <t>Primagusto Babykartoffeln Celtiane 600g</t>
         </is>
       </c>
       <c r="C143" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/fruechte-gemuese/wurzelgemuese/kartoffeln/primagusto-babykartoffeln-celtiane-ip-suisse/p/7073969</t>
+          <t>/de/lebensmittel/fruechte-gemuese/wurzelgemuese/kartoffeln/primagusto-babykartoffeln-celtiane/p/7073969</t>
         </is>
       </c>
       <c r="D143" t="inlineStr"/>
@@ -10100,13 +10100,13 @@
       </c>
       <c r="M143" t="inlineStr">
         <is>
-          <t>Primagusto Babykartoffeln Celtiane IP-Suisse 600g 2.95 Schweizer Franken</t>
+          <t>Primagusto Babykartoffeln Celtiane 600g 2.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="N143" t="inlineStr"/>
       <c r="O143" t="inlineStr">
         <is>
-          <t>2022-12-02 14:40:59</t>
+          <t>2022-12-02 20:49:28</t>
         </is>
       </c>
     </row>
@@ -10171,7 +10171,7 @@
       <c r="N144" t="inlineStr"/>
       <c r="O144" t="inlineStr">
         <is>
-          <t>2022-12-02 14:40:59</t>
+          <t>2022-12-02 20:49:28</t>
         </is>
       </c>
     </row>
@@ -10240,7 +10240,7 @@
       <c r="N145" t="inlineStr"/>
       <c r="O145" t="inlineStr">
         <is>
-          <t>2022-12-02 14:40:59</t>
+          <t>2022-12-02 20:49:28</t>
         </is>
       </c>
     </row>
@@ -10305,7 +10305,7 @@
       <c r="N146" t="inlineStr"/>
       <c r="O146" t="inlineStr">
         <is>
-          <t>2022-12-02 14:40:59</t>
+          <t>2022-12-02 20:49:28</t>
         </is>
       </c>
     </row>
@@ -10374,7 +10374,7 @@
       <c r="N147" t="inlineStr"/>
       <c r="O147" t="inlineStr">
         <is>
-          <t>2022-12-02 14:40:59</t>
+          <t>2022-12-02 20:49:28</t>
         </is>
       </c>
     </row>
@@ -10443,7 +10443,7 @@
       <c r="N148" t="inlineStr"/>
       <c r="O148" t="inlineStr">
         <is>
-          <t>2022-12-02 14:40:59</t>
+          <t>2022-12-02 20:49:28</t>
         </is>
       </c>
     </row>
@@ -10512,7 +10512,7 @@
       <c r="N149" t="inlineStr"/>
       <c r="O149" t="inlineStr">
         <is>
-          <t>2022-12-02 14:40:59</t>
+          <t>2022-12-02 20:49:28</t>
         </is>
       </c>
     </row>
@@ -10585,7 +10585,7 @@
       </c>
       <c r="O150" t="inlineStr">
         <is>
-          <t>2022-12-02 14:40:59</t>
+          <t>2022-12-02 20:49:28</t>
         </is>
       </c>
     </row>
@@ -10597,12 +10597,12 @@
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>Naturaplan Bio Kürbis Butternuss klein 1 Stück</t>
+          <t>Naturaplan Bio Kürbis Butternuss klein</t>
         </is>
       </c>
       <c r="C151" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/fruechte-gemuese/weiteres-gemuese/zucchetti-kuerbis-aubergine/naturaplan-bio-kuerbis-butternuss-klein-1-stueck/p/7040292</t>
+          <t>/de/lebensmittel/fruechte-gemuese/weiteres-gemuese/zucchetti-kuerbis-aubergine/naturaplan-bio-kuerbis-butternuss-klein/p/7040292</t>
         </is>
       </c>
       <c r="D151" t="n">
@@ -10648,13 +10648,13 @@
       </c>
       <c r="M151" t="inlineStr">
         <is>
-          <t>Naturaplan Bio Kürbis Butternuss klein 1 Stück 7.30 Schweizer Franken</t>
+          <t>Naturaplan Bio Kürbis Butternuss klein 7.30 Schweizer Franken</t>
         </is>
       </c>
       <c r="N151" t="inlineStr"/>
       <c r="O151" t="inlineStr">
         <is>
-          <t>2022-12-02 14:40:59</t>
+          <t>2022-12-02 20:49:28</t>
         </is>
       </c>
     </row>
@@ -10719,7 +10719,7 @@
       <c r="N152" t="inlineStr"/>
       <c r="O152" t="inlineStr">
         <is>
-          <t>2022-12-02 14:40:59</t>
+          <t>2022-12-02 20:49:28</t>
         </is>
       </c>
     </row>
@@ -10788,7 +10788,7 @@
       <c r="N153" t="inlineStr"/>
       <c r="O153" t="inlineStr">
         <is>
-          <t>2022-12-02 14:40:59</t>
+          <t>2022-12-02 20:49:28</t>
         </is>
       </c>
     </row>
@@ -10861,7 +10861,7 @@
       </c>
       <c r="O154" t="inlineStr">
         <is>
-          <t>2022-12-02 14:40:59</t>
+          <t>2022-12-02 20:49:28</t>
         </is>
       </c>
     </row>
@@ -10926,7 +10926,7 @@
       <c r="N155" t="inlineStr"/>
       <c r="O155" t="inlineStr">
         <is>
-          <t>2022-12-02 14:40:59</t>
+          <t>2022-12-02 20:49:28</t>
         </is>
       </c>
     </row>
@@ -10995,7 +10995,7 @@
       <c r="N156" t="inlineStr"/>
       <c r="O156" t="inlineStr">
         <is>
-          <t>2022-12-02 14:40:59</t>
+          <t>2022-12-02 20:49:28</t>
         </is>
       </c>
     </row>
@@ -11064,7 +11064,7 @@
       <c r="N157" t="inlineStr"/>
       <c r="O157" t="inlineStr">
         <is>
-          <t>2022-12-02 14:40:59</t>
+          <t>2022-12-02 20:49:28</t>
         </is>
       </c>
     </row>
@@ -11076,12 +11076,12 @@
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>Kürbis oranger Knirps 1 Stück</t>
+          <t>Kürbis oranger Knirps</t>
         </is>
       </c>
       <c r="C158" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/fruechte-gemuese/weiteres-gemuese/zucchetti-kuerbis-aubergine/kuerbis-oranger-knirps-1-stueck/p/7041745</t>
+          <t>/de/lebensmittel/fruechte-gemuese/weiteres-gemuese/zucchetti-kuerbis-aubergine/kuerbis-oranger-knirps/p/7041745</t>
         </is>
       </c>
       <c r="D158" t="n">
@@ -11123,13 +11123,13 @@
       </c>
       <c r="M158" t="inlineStr">
         <is>
-          <t>Kürbis oranger Knirps 1 Stück 3.95 Schweizer Franken</t>
+          <t>Kürbis oranger Knirps 3.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="N158" t="inlineStr"/>
       <c r="O158" t="inlineStr">
         <is>
-          <t>2022-12-02 14:40:59</t>
+          <t>2022-12-02 20:49:28</t>
         </is>
       </c>
     </row>
@@ -11182,7 +11182,7 @@
       <c r="N159" t="inlineStr"/>
       <c r="O159" t="inlineStr">
         <is>
-          <t>2022-12-02 14:40:59</t>
+          <t>2022-12-02 20:49:28</t>
         </is>
       </c>
     </row>
@@ -11251,7 +11251,7 @@
       <c r="N160" t="inlineStr"/>
       <c r="O160" t="inlineStr">
         <is>
-          <t>2022-12-02 14:40:59</t>
+          <t>2022-12-02 20:49:28</t>
         </is>
       </c>
     </row>
@@ -11320,7 +11320,7 @@
       <c r="N161" t="inlineStr"/>
       <c r="O161" t="inlineStr">
         <is>
-          <t>2022-12-02 14:40:59</t>
+          <t>2022-12-02 20:49:28</t>
         </is>
       </c>
     </row>
@@ -11393,7 +11393,7 @@
       </c>
       <c r="O162" t="inlineStr">
         <is>
-          <t>2022-12-02 14:40:59</t>
+          <t>2022-12-02 20:49:28</t>
         </is>
       </c>
     </row>
@@ -11466,7 +11466,7 @@
       </c>
       <c r="O163" t="inlineStr">
         <is>
-          <t>2022-12-02 14:40:59</t>
+          <t>2022-12-02 20:49:28</t>
         </is>
       </c>
     </row>
@@ -11539,7 +11539,7 @@
       </c>
       <c r="O164" t="inlineStr">
         <is>
-          <t>2022-12-02 14:40:59</t>
+          <t>2022-12-02 20:49:28</t>
         </is>
       </c>
     </row>
@@ -11608,7 +11608,7 @@
       <c r="N165" t="inlineStr"/>
       <c r="O165" t="inlineStr">
         <is>
-          <t>2022-12-02 14:40:59</t>
+          <t>2022-12-02 20:49:28</t>
         </is>
       </c>
     </row>
@@ -11677,7 +11677,7 @@
       <c r="N166" t="inlineStr"/>
       <c r="O166" t="inlineStr">
         <is>
-          <t>2022-12-02 14:40:59</t>
+          <t>2022-12-02 20:49:28</t>
         </is>
       </c>
     </row>
@@ -11744,7 +11744,7 @@
       <c r="N167" t="inlineStr"/>
       <c r="O167" t="inlineStr">
         <is>
-          <t>2022-12-02 14:40:59</t>
+          <t>2022-12-02 20:49:28</t>
         </is>
       </c>
     </row>
@@ -11813,7 +11813,7 @@
       <c r="N168" t="inlineStr"/>
       <c r="O168" t="inlineStr">
         <is>
-          <t>2022-12-02 14:40:59</t>
+          <t>2022-12-02 20:49:28</t>
         </is>
       </c>
     </row>
@@ -11878,7 +11878,7 @@
       <c r="N169" t="inlineStr"/>
       <c r="O169" t="inlineStr">
         <is>
-          <t>2022-12-02 14:40:59</t>
+          <t>2022-12-02 20:49:28</t>
         </is>
       </c>
     </row>
@@ -11943,7 +11943,7 @@
       <c r="N170" t="inlineStr"/>
       <c r="O170" t="inlineStr">
         <is>
-          <t>2022-12-02 14:40:59</t>
+          <t>2022-12-02 20:49:28</t>
         </is>
       </c>
     </row>
@@ -12012,7 +12012,7 @@
       <c r="N171" t="inlineStr"/>
       <c r="O171" t="inlineStr">
         <is>
-          <t>2022-12-02 14:40:59</t>
+          <t>2022-12-02 20:49:28</t>
         </is>
       </c>
     </row>
@@ -12085,7 +12085,7 @@
       </c>
       <c r="O172" t="inlineStr">
         <is>
-          <t>2022-12-02 14:40:59</t>
+          <t>2022-12-02 20:49:28</t>
         </is>
       </c>
     </row>
@@ -12154,7 +12154,7 @@
       <c r="N173" t="inlineStr"/>
       <c r="O173" t="inlineStr">
         <is>
-          <t>2022-12-02 14:40:59</t>
+          <t>2022-12-02 20:49:28</t>
         </is>
       </c>
     </row>
@@ -12219,7 +12219,7 @@
       <c r="N174" t="inlineStr"/>
       <c r="O174" t="inlineStr">
         <is>
-          <t>2022-12-02 14:40:59</t>
+          <t>2022-12-02 20:49:28</t>
         </is>
       </c>
     </row>
@@ -12288,7 +12288,7 @@
       <c r="N175" t="inlineStr"/>
       <c r="O175" t="inlineStr">
         <is>
-          <t>2022-12-02 14:40:59</t>
+          <t>2022-12-02 20:49:28</t>
         </is>
       </c>
     </row>
@@ -12355,7 +12355,7 @@
       <c r="N176" t="inlineStr"/>
       <c r="O176" t="inlineStr">
         <is>
-          <t>2022-12-02 14:40:59</t>
+          <t>2022-12-02 20:49:28</t>
         </is>
       </c>
     </row>
@@ -12428,7 +12428,7 @@
       </c>
       <c r="O177" t="inlineStr">
         <is>
-          <t>2022-12-02 14:40:59</t>
+          <t>2022-12-02 20:49:28</t>
         </is>
       </c>
     </row>
@@ -12497,7 +12497,7 @@
       <c r="N178" t="inlineStr"/>
       <c r="O178" t="inlineStr">
         <is>
-          <t>2022-12-02 14:40:59</t>
+          <t>2022-12-02 20:49:28</t>
         </is>
       </c>
     </row>
@@ -12560,7 +12560,7 @@
       <c r="N179" t="inlineStr"/>
       <c r="O179" t="inlineStr">
         <is>
-          <t>2022-12-02 14:40:59</t>
+          <t>2022-12-02 20:49:28</t>
         </is>
       </c>
     </row>
@@ -12629,7 +12629,7 @@
       <c r="N180" t="inlineStr"/>
       <c r="O180" t="inlineStr">
         <is>
-          <t>2022-12-02 14:40:59</t>
+          <t>2022-12-02 20:49:28</t>
         </is>
       </c>
     </row>
@@ -12702,7 +12702,7 @@
       </c>
       <c r="O181" t="inlineStr">
         <is>
-          <t>2022-12-02 14:40:59</t>
+          <t>2022-12-02 20:49:28</t>
         </is>
       </c>
     </row>
@@ -12775,7 +12775,7 @@
       </c>
       <c r="O182" t="inlineStr">
         <is>
-          <t>2022-12-02 14:40:59</t>
+          <t>2022-12-02 20:49:28</t>
         </is>
       </c>
     </row>
@@ -12844,7 +12844,7 @@
       <c r="N183" t="inlineStr"/>
       <c r="O183" t="inlineStr">
         <is>
-          <t>2022-12-02 14:40:59</t>
+          <t>2022-12-02 20:49:28</t>
         </is>
       </c>
     </row>
@@ -12917,7 +12917,7 @@
       </c>
       <c r="O184" t="inlineStr">
         <is>
-          <t>2022-12-02 14:40:59</t>
+          <t>2022-12-02 20:49:28</t>
         </is>
       </c>
     </row>
@@ -12986,7 +12986,7 @@
       <c r="N185" t="inlineStr"/>
       <c r="O185" t="inlineStr">
         <is>
-          <t>2022-12-02 14:40:59</t>
+          <t>2022-12-02 20:49:28</t>
         </is>
       </c>
     </row>
@@ -13059,7 +13059,7 @@
       </c>
       <c r="O186" t="inlineStr">
         <is>
-          <t>2022-12-02 14:40:59</t>
+          <t>2022-12-02 20:49:28</t>
         </is>
       </c>
     </row>
@@ -13128,7 +13128,7 @@
       <c r="N187" t="inlineStr"/>
       <c r="O187" t="inlineStr">
         <is>
-          <t>2022-12-02 14:40:59</t>
+          <t>2022-12-02 20:49:28</t>
         </is>
       </c>
     </row>
@@ -13193,7 +13193,7 @@
       <c r="N188" t="inlineStr"/>
       <c r="O188" t="inlineStr">
         <is>
-          <t>2022-12-02 14:40:59</t>
+          <t>2022-12-02 20:49:28</t>
         </is>
       </c>
     </row>
@@ -13258,7 +13258,7 @@
       <c r="N189" t="inlineStr"/>
       <c r="O189" t="inlineStr">
         <is>
-          <t>2022-12-02 14:40:59</t>
+          <t>2022-12-02 20:49:28</t>
         </is>
       </c>
     </row>
@@ -13327,7 +13327,7 @@
       <c r="N190" t="inlineStr"/>
       <c r="O190" t="inlineStr">
         <is>
-          <t>2022-12-02 14:40:59</t>
+          <t>2022-12-02 20:49:28</t>
         </is>
       </c>
     </row>
@@ -13396,7 +13396,7 @@
       <c r="N191" t="inlineStr"/>
       <c r="O191" t="inlineStr">
         <is>
-          <t>2022-12-02 14:40:59</t>
+          <t>2022-12-02 20:49:28</t>
         </is>
       </c>
     </row>
@@ -13465,7 +13465,7 @@
       <c r="N192" t="inlineStr"/>
       <c r="O192" t="inlineStr">
         <is>
-          <t>2022-12-02 14:40:59</t>
+          <t>2022-12-02 20:49:28</t>
         </is>
       </c>
     </row>
@@ -13532,7 +13532,7 @@
       <c r="N193" t="inlineStr"/>
       <c r="O193" t="inlineStr">
         <is>
-          <t>2022-12-02 14:40:59</t>
+          <t>2022-12-02 20:49:28</t>
         </is>
       </c>
     </row>
@@ -13597,7 +13597,7 @@
       <c r="N194" t="inlineStr"/>
       <c r="O194" t="inlineStr">
         <is>
-          <t>2022-12-02 14:40:59</t>
+          <t>2022-12-02 20:49:28</t>
         </is>
       </c>
     </row>
@@ -13662,7 +13662,7 @@
       <c r="N195" t="inlineStr"/>
       <c r="O195" t="inlineStr">
         <is>
-          <t>2022-12-02 14:40:59</t>
+          <t>2022-12-02 20:49:28</t>
         </is>
       </c>
     </row>
@@ -13731,7 +13731,7 @@
       <c r="N196" t="inlineStr"/>
       <c r="O196" t="inlineStr">
         <is>
-          <t>2022-12-02 14:40:59</t>
+          <t>2022-12-02 20:49:28</t>
         </is>
       </c>
     </row>
@@ -13800,7 +13800,7 @@
       <c r="N197" t="inlineStr"/>
       <c r="O197" t="inlineStr">
         <is>
-          <t>2022-12-02 14:40:59</t>
+          <t>2022-12-02 20:49:28</t>
         </is>
       </c>
     </row>
@@ -13873,7 +13873,7 @@
       </c>
       <c r="O198" t="inlineStr">
         <is>
-          <t>2022-12-02 14:40:59</t>
+          <t>2022-12-02 20:49:28</t>
         </is>
       </c>
     </row>
@@ -13942,7 +13942,7 @@
       <c r="N199" t="inlineStr"/>
       <c r="O199" t="inlineStr">
         <is>
-          <t>2022-12-02 14:40:59</t>
+          <t>2022-12-02 20:49:28</t>
         </is>
       </c>
     </row>
@@ -14011,7 +14011,7 @@
       <c r="N200" t="inlineStr"/>
       <c r="O200" t="inlineStr">
         <is>
-          <t>2022-12-02 14:40:59</t>
+          <t>2022-12-02 20:49:28</t>
         </is>
       </c>
     </row>
@@ -14080,7 +14080,7 @@
       <c r="N201" t="inlineStr"/>
       <c r="O201" t="inlineStr">
         <is>
-          <t>2022-12-02 14:40:59</t>
+          <t>2022-12-02 20:49:28</t>
         </is>
       </c>
     </row>
@@ -14149,7 +14149,7 @@
       <c r="N202" t="inlineStr"/>
       <c r="O202" t="inlineStr">
         <is>
-          <t>2022-12-02 14:40:59</t>
+          <t>2022-12-02 20:49:28</t>
         </is>
       </c>
     </row>
@@ -14214,7 +14214,7 @@
       <c r="N203" t="inlineStr"/>
       <c r="O203" t="inlineStr">
         <is>
-          <t>2022-12-02 14:40:59</t>
+          <t>2022-12-02 20:49:28</t>
         </is>
       </c>
     </row>
@@ -14261,179 +14261,179 @@
       <c r="N204" t="inlineStr"/>
       <c r="O204" t="inlineStr">
         <is>
-          <t>2022-12-02 14:40:59</t>
+          <t>2022-12-02 20:49:28</t>
         </is>
       </c>
     </row>
     <row r="205">
       <c r="A205" t="inlineStr">
         <is>
-          <t>6999731</t>
+          <t>6301931</t>
         </is>
       </c>
       <c r="B205" t="inlineStr">
         <is>
-          <t>Karotten IP-Suisse</t>
+          <t>Naturaplan Bio Kaki Persimon 1 Stück</t>
         </is>
       </c>
       <c r="C205" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/fruechte-gemuese/wurzelgemuese/rueebli-pastinaken/karotten-ip-suisse/p/6999731</t>
+          <t>/de/lebensmittel/fruechte-gemuese/fruechte/weitere-exotische-fruechte/naturaplan-bio-kaki-persimon-1-stueck/p/6301931</t>
         </is>
       </c>
       <c r="D205" t="n">
-        <v>7</v>
+        <v>23</v>
       </c>
       <c r="E205" t="n">
-        <v>1</v>
-      </c>
-      <c r="F205" t="inlineStr"/>
+        <v>4</v>
+      </c>
+      <c r="F205" t="inlineStr">
+        <is>
+          <t>Coop</t>
+        </is>
+      </c>
       <c r="G205" t="inlineStr">
         <is>
-          <t>1.00</t>
+          <t>1.30</t>
         </is>
       </c>
       <c r="H205" t="inlineStr">
         <is>
-          <t>1.00/1kg</t>
+          <t>1.30/1ST</t>
         </is>
       </c>
       <c r="I205" t="inlineStr">
         <is>
-          <t>Preis pro 1 Kilogramm</t>
+          <t>Preis pro 1 Stück</t>
         </is>
       </c>
       <c r="J205" t="inlineStr">
         <is>
-          <t>1.00</t>
+          <t>1.30</t>
         </is>
       </c>
       <c r="K205" t="inlineStr">
         <is>
-          <t>1kg</t>
+          <t>1ST</t>
         </is>
       </c>
       <c r="L205" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'fruechte-gemuese', 'wurzelgemuese', 'rueebli-pastinaken']</t>
+          <t>['lebensmittel', 'fruechte-gemuese', 'fruechte', 'weitere-exotische-fruechte']</t>
         </is>
       </c>
       <c r="M205" t="inlineStr">
         <is>
-          <t>Karotten IP-Suisse Superpreis Aktion 1.00 Schweizer Franken</t>
+          <t>Naturaplan Bio Kaki Persimon 1 Stück 1.30 Schweizer Franken</t>
         </is>
       </c>
       <c r="N205" t="inlineStr"/>
       <c r="O205" t="inlineStr">
         <is>
-          <t>2022-12-02 14:40:59</t>
+          <t>2022-12-02 20:49:28</t>
         </is>
       </c>
     </row>
     <row r="206">
       <c r="A206" t="inlineStr">
         <is>
-          <t>3425371</t>
+          <t>6999731</t>
         </is>
       </c>
       <c r="B206" t="inlineStr">
         <is>
-          <t>Naturaplan Bio Äpfel süss, säuerlich</t>
+          <t>Karotten IP-Suisse</t>
         </is>
       </c>
       <c r="C206" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/fruechte-gemuese/fruechte/aepfel-birnen/naturaplan-bio-aepfel-suess-saeuerlich/p/3425371</t>
+          <t>/de/lebensmittel/fruechte-gemuese/wurzelgemuese/rueebli-pastinaken/karotten-ip-suisse/p/6999731</t>
         </is>
       </c>
       <c r="D206" t="n">
-        <v>21</v>
+        <v>7</v>
       </c>
       <c r="E206" t="n">
-        <v>4</v>
-      </c>
-      <c r="F206" t="inlineStr">
-        <is>
-          <t>Coop</t>
-        </is>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="F206" t="inlineStr"/>
       <c r="G206" t="inlineStr">
         <is>
-          <t>4.70</t>
+          <t>1.00</t>
         </is>
       </c>
       <c r="H206" t="inlineStr">
         <is>
-          <t>0.63/100g</t>
+          <t>1.00/1kg</t>
         </is>
       </c>
       <c r="I206" t="inlineStr">
         <is>
-          <t>Preis pro 100 Gramm</t>
+          <t>Preis pro 1 Kilogramm</t>
         </is>
       </c>
       <c r="J206" t="inlineStr">
         <is>
-          <t>0.63</t>
+          <t>1.00</t>
         </is>
       </c>
       <c r="K206" t="inlineStr">
         <is>
-          <t>100g</t>
+          <t>1kg</t>
         </is>
       </c>
       <c r="L206" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'fruechte-gemuese', 'fruechte', 'aepfel-birnen']</t>
+          <t>['lebensmittel', 'fruechte-gemuese', 'wurzelgemuese', 'rueebli-pastinaken']</t>
         </is>
       </c>
       <c r="M206" t="inlineStr">
         <is>
-          <t>Naturaplan Bio Äpfel süss, säuerlich 4.70 Schweizer Franken</t>
+          <t>Karotten IP-Suisse Superpreis Aktion 1.00 Schweizer Franken</t>
         </is>
       </c>
       <c r="N206" t="inlineStr"/>
       <c r="O206" t="inlineStr">
         <is>
-          <t>2022-12-02 14:40:59</t>
+          <t>2022-12-02 20:49:28</t>
         </is>
       </c>
     </row>
     <row r="207">
       <c r="A207" t="inlineStr">
         <is>
-          <t>3091412</t>
+          <t>3425371</t>
         </is>
       </c>
       <c r="B207" t="inlineStr">
         <is>
-          <t>Bracher Emmentaler Randensalat</t>
+          <t>Naturaplan Bio Äpfel süss, säuerlich</t>
         </is>
       </c>
       <c r="C207" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/fruechte-gemuese/wurzelgemuese/randen/bracher-emmentaler-randensalat/p/3091412</t>
+          <t>/de/lebensmittel/fruechte-gemuese/fruechte/aepfel-birnen/naturaplan-bio-aepfel-suess-saeuerlich/p/3425371</t>
         </is>
       </c>
       <c r="D207" t="n">
-        <v>71</v>
+        <v>21</v>
       </c>
       <c r="E207" t="n">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="F207" t="inlineStr">
         <is>
-          <t>Bracher</t>
+          <t>Coop</t>
         </is>
       </c>
       <c r="G207" t="inlineStr">
         <is>
-          <t>2.60</t>
+          <t>4.70</t>
         </is>
       </c>
       <c r="H207" t="inlineStr">
         <is>
-          <t>0.52/100g</t>
+          <t>0.63/100g</t>
         </is>
       </c>
       <c r="I207" t="inlineStr">
@@ -14443,7 +14443,7 @@
       </c>
       <c r="J207" t="inlineStr">
         <is>
-          <t>0.52</t>
+          <t>0.63</t>
         </is>
       </c>
       <c r="K207" t="inlineStr">
@@ -14453,60 +14453,56 @@
       </c>
       <c r="L207" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'fruechte-gemuese', 'wurzelgemuese', 'randen']</t>
+          <t>['lebensmittel', 'fruechte-gemuese', 'fruechte', 'aepfel-birnen']</t>
         </is>
       </c>
       <c r="M207" t="inlineStr">
         <is>
-          <t>Bracher Emmentaler Randensalat 2.60 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N207" t="inlineStr">
-        <is>
-          <t>['chilled']</t>
-        </is>
-      </c>
+          <t>Naturaplan Bio Äpfel süss, säuerlich 4.70 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N207" t="inlineStr"/>
       <c r="O207" t="inlineStr">
         <is>
-          <t>2022-12-02 14:40:59</t>
+          <t>2022-12-02 20:49:28</t>
         </is>
       </c>
     </row>
     <row r="208">
       <c r="A208" t="inlineStr">
         <is>
-          <t>5905580</t>
+          <t>3091412</t>
         </is>
       </c>
       <c r="B208" t="inlineStr">
         <is>
-          <t>Blumenkohl Mix</t>
+          <t>Bracher Emmentaler Randensalat</t>
         </is>
       </c>
       <c r="C208" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/fruechte-gemuese/kohlgemuese/broccoli-blumenkohl/blumenkohl-mix/p/5905580</t>
+          <t>/de/lebensmittel/fruechte-gemuese/wurzelgemuese/randen/bracher-emmentaler-randensalat/p/3091412</t>
         </is>
       </c>
       <c r="D208" t="n">
-        <v>15</v>
+        <v>71</v>
       </c>
       <c r="E208" t="n">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="F208" t="inlineStr">
         <is>
-          <t>Coop</t>
+          <t>Bracher</t>
         </is>
       </c>
       <c r="G208" t="inlineStr">
         <is>
-          <t>4.95</t>
+          <t>2.60</t>
         </is>
       </c>
       <c r="H208" t="inlineStr">
         <is>
-          <t>0.99/100g</t>
+          <t>0.52/100g</t>
         </is>
       </c>
       <c r="I208" t="inlineStr">
@@ -14516,7 +14512,7 @@
       </c>
       <c r="J208" t="inlineStr">
         <is>
-          <t>0.99</t>
+          <t>0.52</t>
         </is>
       </c>
       <c r="K208" t="inlineStr">
@@ -14526,42 +14522,46 @@
       </c>
       <c r="L208" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'fruechte-gemuese', 'kohlgemuese', 'broccoli-blumenkohl']</t>
+          <t>['lebensmittel', 'fruechte-gemuese', 'wurzelgemuese', 'randen']</t>
         </is>
       </c>
       <c r="M208" t="inlineStr">
         <is>
-          <t>Blumenkohl Mix 4.95 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N208" t="inlineStr"/>
+          <t>Bracher Emmentaler Randensalat 2.60 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N208" t="inlineStr">
+        <is>
+          <t>['chilled']</t>
+        </is>
+      </c>
       <c r="O208" t="inlineStr">
         <is>
-          <t>2022-12-02 14:40:59</t>
+          <t>2022-12-02 20:49:28</t>
         </is>
       </c>
     </row>
     <row r="209">
       <c r="A209" t="inlineStr">
         <is>
-          <t>3406166</t>
+          <t>5905580</t>
         </is>
       </c>
       <c r="B209" t="inlineStr">
         <is>
-          <t>Betty Bossi Koriander 1 Bund</t>
+          <t>Blumenkohl Mix</t>
         </is>
       </c>
       <c r="C209" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/fruechte-gemuese/kraeuter-gewuerze/frische-kraeuter/betty-bossi-koriander-1-bund/p/3406166</t>
+          <t>/de/lebensmittel/fruechte-gemuese/kohlgemuese/broccoli-blumenkohl/blumenkohl-mix/p/5905580</t>
         </is>
       </c>
       <c r="D209" t="n">
-        <v>72</v>
+        <v>15</v>
       </c>
       <c r="E209" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="F209" t="inlineStr">
         <is>
@@ -14570,12 +14570,12 @@
       </c>
       <c r="G209" t="inlineStr">
         <is>
-          <t>2.30</t>
+          <t>4.95</t>
         </is>
       </c>
       <c r="H209" t="inlineStr">
         <is>
-          <t>11.50/100g</t>
+          <t>0.99/100g</t>
         </is>
       </c>
       <c r="I209" t="inlineStr">
@@ -14585,7 +14585,7 @@
       </c>
       <c r="J209" t="inlineStr">
         <is>
-          <t>11.50</t>
+          <t>0.99</t>
         </is>
       </c>
       <c r="K209" t="inlineStr">
@@ -14595,46 +14595,42 @@
       </c>
       <c r="L209" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'fruechte-gemuese', 'kraeuter-gewuerze', 'frische-kraeuter']</t>
+          <t>['lebensmittel', 'fruechte-gemuese', 'kohlgemuese', 'broccoli-blumenkohl']</t>
         </is>
       </c>
       <c r="M209" t="inlineStr">
         <is>
-          <t>Betty Bossi Koriander 1 Bund 2.30 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N209" t="inlineStr">
-        <is>
-          <t>['chilled']</t>
-        </is>
-      </c>
+          <t>Blumenkohl Mix 4.95 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N209" t="inlineStr"/>
       <c r="O209" t="inlineStr">
         <is>
-          <t>2022-12-02 14:40:59</t>
+          <t>2022-12-02 20:49:28</t>
         </is>
       </c>
     </row>
     <row r="210">
       <c r="A210" t="inlineStr">
         <is>
-          <t>6301931</t>
+          <t>3406166</t>
         </is>
       </c>
       <c r="B210" t="inlineStr">
         <is>
-          <t>Naturaplan Bio Kaki Persimon 1 Stück</t>
+          <t>Betty Bossi Koriander 1 Bund</t>
         </is>
       </c>
       <c r="C210" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/fruechte-gemuese/fruechte/weitere-exotische-fruechte/naturaplan-bio-kaki-persimon-1-stueck/p/6301931</t>
+          <t>/de/lebensmittel/fruechte-gemuese/kraeuter-gewuerze/frische-kraeuter/betty-bossi-koriander-1-bund/p/3406166</t>
         </is>
       </c>
       <c r="D210" t="n">
-        <v>23</v>
+        <v>72</v>
       </c>
       <c r="E210" t="n">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="F210" t="inlineStr">
         <is>
@@ -14643,43 +14639,47 @@
       </c>
       <c r="G210" t="inlineStr">
         <is>
-          <t>1.30</t>
+          <t>2.30</t>
         </is>
       </c>
       <c r="H210" t="inlineStr">
         <is>
-          <t>1.30/1ST</t>
+          <t>11.50/100g</t>
         </is>
       </c>
       <c r="I210" t="inlineStr">
         <is>
-          <t>Preis pro 1 Stück</t>
+          <t>Preis pro 100 Gramm</t>
         </is>
       </c>
       <c r="J210" t="inlineStr">
         <is>
-          <t>1.30</t>
+          <t>11.50</t>
         </is>
       </c>
       <c r="K210" t="inlineStr">
         <is>
-          <t>1ST</t>
+          <t>100g</t>
         </is>
       </c>
       <c r="L210" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'fruechte-gemuese', 'fruechte', 'weitere-exotische-fruechte']</t>
+          <t>['lebensmittel', 'fruechte-gemuese', 'kraeuter-gewuerze', 'frische-kraeuter']</t>
         </is>
       </c>
       <c r="M210" t="inlineStr">
         <is>
-          <t>Naturaplan Bio Kaki Persimon 1 Stück 1.30 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N210" t="inlineStr"/>
+          <t>Betty Bossi Koriander 1 Bund 2.30 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N210" t="inlineStr">
+        <is>
+          <t>['chilled']</t>
+        </is>
+      </c>
       <c r="O210" t="inlineStr">
         <is>
-          <t>2022-12-02 14:40:59</t>
+          <t>2022-12-02 20:49:28</t>
         </is>
       </c>
     </row>
@@ -14752,7 +14752,7 @@
       </c>
       <c r="O211" t="inlineStr">
         <is>
-          <t>2022-12-02 14:40:59</t>
+          <t>2022-12-02 20:49:28</t>
         </is>
       </c>
     </row>
@@ -14825,7 +14825,7 @@
       </c>
       <c r="O212" t="inlineStr">
         <is>
-          <t>2022-12-02 14:40:59</t>
+          <t>2022-12-02 20:49:28</t>
         </is>
       </c>
     </row>
@@ -14898,7 +14898,7 @@
       </c>
       <c r="O213" t="inlineStr">
         <is>
-          <t>2022-12-02 14:40:59</t>
+          <t>2022-12-02 20:49:28</t>
         </is>
       </c>
     </row>
@@ -14963,7 +14963,7 @@
       <c r="N214" t="inlineStr"/>
       <c r="O214" t="inlineStr">
         <is>
-          <t>2022-12-02 14:40:59</t>
+          <t>2022-12-02 20:49:28</t>
         </is>
       </c>
     </row>
@@ -15016,7 +15016,7 @@
       <c r="N215" t="inlineStr"/>
       <c r="O215" t="inlineStr">
         <is>
-          <t>2022-12-02 14:40:59</t>
+          <t>2022-12-02 20:49:28</t>
         </is>
       </c>
     </row>
@@ -15081,7 +15081,7 @@
       <c r="N216" t="inlineStr"/>
       <c r="O216" t="inlineStr">
         <is>
-          <t>2022-12-02 14:40:59</t>
+          <t>2022-12-02 20:49:28</t>
         </is>
       </c>
     </row>
@@ -15150,7 +15150,7 @@
       <c r="N217" t="inlineStr"/>
       <c r="O217" t="inlineStr">
         <is>
-          <t>2022-12-02 14:40:59</t>
+          <t>2022-12-02 20:49:28</t>
         </is>
       </c>
     </row>
@@ -15219,7 +15219,7 @@
       <c r="N218" t="inlineStr"/>
       <c r="O218" t="inlineStr">
         <is>
-          <t>2022-12-02 14:40:59</t>
+          <t>2022-12-02 20:49:28</t>
         </is>
       </c>
     </row>
@@ -15292,7 +15292,7 @@
       </c>
       <c r="O219" t="inlineStr">
         <is>
-          <t>2022-12-02 14:40:59</t>
+          <t>2022-12-02 20:49:28</t>
         </is>
       </c>
     </row>
@@ -15365,7 +15365,7 @@
       </c>
       <c r="O220" t="inlineStr">
         <is>
-          <t>2022-12-02 14:40:59</t>
+          <t>2022-12-02 20:49:28</t>
         </is>
       </c>
     </row>
@@ -15430,7 +15430,7 @@
       <c r="N221" t="inlineStr"/>
       <c r="O221" t="inlineStr">
         <is>
-          <t>2022-12-02 14:40:59</t>
+          <t>2022-12-02 20:49:28</t>
         </is>
       </c>
     </row>
@@ -15495,7 +15495,7 @@
       <c r="N222" t="inlineStr"/>
       <c r="O222" t="inlineStr">
         <is>
-          <t>2022-12-02 14:40:59</t>
+          <t>2022-12-02 20:49:28</t>
         </is>
       </c>
     </row>
@@ -15564,7 +15564,7 @@
       <c r="N223" t="inlineStr"/>
       <c r="O223" t="inlineStr">
         <is>
-          <t>2022-12-02 14:40:59</t>
+          <t>2022-12-02 20:49:28</t>
         </is>
       </c>
     </row>
@@ -15633,7 +15633,7 @@
       <c r="N224" t="inlineStr"/>
       <c r="O224" t="inlineStr">
         <is>
-          <t>2022-12-02 14:40:59</t>
+          <t>2022-12-02 20:49:28</t>
         </is>
       </c>
     </row>
@@ -15698,7 +15698,7 @@
       <c r="N225" t="inlineStr"/>
       <c r="O225" t="inlineStr">
         <is>
-          <t>2022-12-02 14:40:59</t>
+          <t>2022-12-02 20:49:28</t>
         </is>
       </c>
     </row>
@@ -15767,7 +15767,7 @@
       </c>
       <c r="O226" t="inlineStr">
         <is>
-          <t>2022-12-02 14:40:59</t>
+          <t>2022-12-02 20:49:28</t>
         </is>
       </c>
     </row>
@@ -15840,100 +15840,100 @@
       </c>
       <c r="O227" t="inlineStr">
         <is>
-          <t>2022-12-02 14:40:59</t>
+          <t>2022-12-02 20:49:28</t>
         </is>
       </c>
     </row>
     <row r="228">
       <c r="A228" t="inlineStr">
         <is>
-          <t>6860382</t>
+          <t>4390310</t>
         </is>
       </c>
       <c r="B228" t="inlineStr">
         <is>
-          <t>Limette 1 Stück</t>
+          <t>Seeberger Datteln entsteint</t>
         </is>
       </c>
       <c r="C228" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/fruechte-gemuese/fruechte/zitrusfruechte/limette-1-stueck/p/6860382</t>
+          <t>/de/lebensmittel/suesses-snacks/chips-snacks/trockenfruechte-nuesse/doerrfruechte/seeberger-datteln-entsteint/p/4390310</t>
         </is>
       </c>
       <c r="D228" t="n">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="E228" t="n">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="F228" t="inlineStr">
         <is>
-          <t>Coop</t>
+          <t>Seeberger</t>
         </is>
       </c>
       <c r="G228" t="inlineStr">
         <is>
-          <t>0.55</t>
+          <t>3.40</t>
         </is>
       </c>
       <c r="H228" t="inlineStr">
         <is>
-          <t>0.55/1ST</t>
+          <t>1.70/100g</t>
         </is>
       </c>
       <c r="I228" t="inlineStr">
         <is>
-          <t>Preis pro 1 Stück</t>
+          <t>Preis pro 100 Gramm</t>
         </is>
       </c>
       <c r="J228" t="inlineStr">
         <is>
-          <t>0.55</t>
+          <t>1.70</t>
         </is>
       </c>
       <c r="K228" t="inlineStr">
         <is>
-          <t>1ST</t>
+          <t>100g</t>
         </is>
       </c>
       <c r="L228" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'fruechte-gemuese', 'fruechte', 'zitrusfruechte']</t>
+          <t>['lebensmittel', 'suesses-snacks', 'chips-snacks', 'trockenfruechte-nuesse', 'doerrfruechte']</t>
         </is>
       </c>
       <c r="M228" t="inlineStr">
         <is>
-          <t>Limette 1 Stück 0.55 Schweizer Franken</t>
+          <t>Seeberger Datteln entsteint 3.40 Schweizer Franken</t>
         </is>
       </c>
       <c r="N228" t="inlineStr"/>
       <c r="O228" t="inlineStr">
         <is>
-          <t>2022-12-02 14:40:59</t>
+          <t>2022-12-02 20:49:28</t>
         </is>
       </c>
     </row>
     <row r="229">
       <c r="A229" t="inlineStr">
         <is>
-          <t>6964873</t>
+          <t>6860382</t>
         </is>
       </c>
       <c r="B229" t="inlineStr">
         <is>
-          <t>Prix Garantie Eisberg 1 Stück</t>
+          <t>Limetten</t>
         </is>
       </c>
       <c r="C229" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/fruechte-gemuese/salate/ganze-salate/prix-garantie-eisberg-1-stueck/p/6964873</t>
+          <t>/de/lebensmittel/fruechte-gemuese/fruechte/zitrusfruechte/limetten/p/6860382</t>
         </is>
       </c>
       <c r="D229" t="n">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="E229" t="n">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="F229" t="inlineStr">
         <is>
@@ -15942,12 +15942,12 @@
       </c>
       <c r="G229" t="inlineStr">
         <is>
-          <t>1.00</t>
+          <t>0.55</t>
         </is>
       </c>
       <c r="H229" t="inlineStr">
         <is>
-          <t>1.00/1ST</t>
+          <t>0.55/1ST</t>
         </is>
       </c>
       <c r="I229" t="inlineStr">
@@ -15957,7 +15957,7 @@
       </c>
       <c r="J229" t="inlineStr">
         <is>
-          <t>1.00</t>
+          <t>0.55</t>
         </is>
       </c>
       <c r="K229" t="inlineStr">
@@ -15967,35 +15967,35 @@
       </c>
       <c r="L229" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'fruechte-gemuese', 'salate', 'ganze-salate']</t>
+          <t>['lebensmittel', 'fruechte-gemuese', 'fruechte', 'zitrusfruechte']</t>
         </is>
       </c>
       <c r="M229" t="inlineStr">
         <is>
-          <t>Prix Garantie Eisberg 1 Stück 1.00 Schweizer Franken</t>
+          <t>Limetten 0.55 Schweizer Franken</t>
         </is>
       </c>
       <c r="N229" t="inlineStr"/>
       <c r="O229" t="inlineStr">
         <is>
-          <t>2022-12-02 14:40:59</t>
+          <t>2022-12-02 20:49:28</t>
         </is>
       </c>
     </row>
     <row r="230">
       <c r="A230" t="inlineStr">
         <is>
-          <t>4390310</t>
+          <t>6964873</t>
         </is>
       </c>
       <c r="B230" t="inlineStr">
         <is>
-          <t>Seeberger Datteln entsteint</t>
+          <t>Prix Garantie Eisberg 1 Stück</t>
         </is>
       </c>
       <c r="C230" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/suesses-snacks/chips-snacks/trockenfruechte-nuesse/doerrfruechte/seeberger-datteln-entsteint/p/4390310</t>
+          <t>/de/lebensmittel/fruechte-gemuese/salate/ganze-salate/prix-garantie-eisberg-1-stueck/p/6964873</t>
         </is>
       </c>
       <c r="D230" t="n">
@@ -16006,48 +16006,48 @@
       </c>
       <c r="F230" t="inlineStr">
         <is>
-          <t>Seeberger</t>
+          <t>Coop</t>
         </is>
       </c>
       <c r="G230" t="inlineStr">
         <is>
-          <t>3.40</t>
+          <t>1.00</t>
         </is>
       </c>
       <c r="H230" t="inlineStr">
         <is>
-          <t>1.70/100g</t>
+          <t>1.00/1ST</t>
         </is>
       </c>
       <c r="I230" t="inlineStr">
         <is>
-          <t>Preis pro 100 Gramm</t>
+          <t>Preis pro 1 Stück</t>
         </is>
       </c>
       <c r="J230" t="inlineStr">
         <is>
-          <t>1.70</t>
+          <t>1.00</t>
         </is>
       </c>
       <c r="K230" t="inlineStr">
         <is>
-          <t>100g</t>
+          <t>1ST</t>
         </is>
       </c>
       <c r="L230" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'suesses-snacks', 'chips-snacks', 'trockenfruechte-nuesse', 'doerrfruechte']</t>
+          <t>['lebensmittel', 'fruechte-gemuese', 'salate', 'ganze-salate']</t>
         </is>
       </c>
       <c r="M230" t="inlineStr">
         <is>
-          <t>Seeberger Datteln entsteint 3.40 Schweizer Franken</t>
+          <t>Prix Garantie Eisberg 1 Stück 1.00 Schweizer Franken</t>
         </is>
       </c>
       <c r="N230" t="inlineStr"/>
       <c r="O230" t="inlineStr">
         <is>
-          <t>2022-12-02 14:40:59</t>
+          <t>2022-12-02 20:49:28</t>
         </is>
       </c>
     </row>
@@ -16112,7 +16112,7 @@
       <c r="N231" t="inlineStr"/>
       <c r="O231" t="inlineStr">
         <is>
-          <t>2022-12-02 14:40:59</t>
+          <t>2022-12-02 20:49:28</t>
         </is>
       </c>
     </row>
@@ -16185,7 +16185,7 @@
       </c>
       <c r="O232" t="inlineStr">
         <is>
-          <t>2022-12-02 14:40:59</t>
+          <t>2022-12-02 20:49:28</t>
         </is>
       </c>
     </row>
@@ -16258,7 +16258,7 @@
       </c>
       <c r="O233" t="inlineStr">
         <is>
-          <t>2022-12-02 14:40:59</t>
+          <t>2022-12-02 20:49:28</t>
         </is>
       </c>
     </row>
@@ -16327,7 +16327,7 @@
       <c r="N234" t="inlineStr"/>
       <c r="O234" t="inlineStr">
         <is>
-          <t>2022-12-02 14:40:59</t>
+          <t>2022-12-02 20:49:28</t>
         </is>
       </c>
     </row>
@@ -16396,7 +16396,7 @@
       <c r="N235" t="inlineStr"/>
       <c r="O235" t="inlineStr">
         <is>
-          <t>2022-12-02 14:40:59</t>
+          <t>2022-12-02 20:49:28</t>
         </is>
       </c>
     </row>
@@ -16469,7 +16469,7 @@
       </c>
       <c r="O236" t="inlineStr">
         <is>
-          <t>2022-12-02 14:40:59</t>
+          <t>2022-12-02 20:49:28</t>
         </is>
       </c>
     </row>
@@ -16538,7 +16538,7 @@
       <c r="N237" t="inlineStr"/>
       <c r="O237" t="inlineStr">
         <is>
-          <t>2022-12-02 14:40:59</t>
+          <t>2022-12-02 20:49:28</t>
         </is>
       </c>
     </row>
@@ -16611,7 +16611,7 @@
       </c>
       <c r="O238" t="inlineStr">
         <is>
-          <t>2022-12-02 14:40:59</t>
+          <t>2022-12-02 20:49:28</t>
         </is>
       </c>
     </row>
@@ -16680,7 +16680,7 @@
       <c r="N239" t="inlineStr"/>
       <c r="O239" t="inlineStr">
         <is>
-          <t>2022-12-02 14:40:59</t>
+          <t>2022-12-02 20:49:28</t>
         </is>
       </c>
     </row>
@@ -16753,7 +16753,7 @@
       </c>
       <c r="O240" t="inlineStr">
         <is>
-          <t>2022-12-02 14:40:59</t>
+          <t>2022-12-02 20:49:28</t>
         </is>
       </c>
     </row>
@@ -16826,7 +16826,7 @@
       </c>
       <c r="O241" t="inlineStr">
         <is>
-          <t>2022-12-02 14:40:59</t>
+          <t>2022-12-02 20:49:28</t>
         </is>
       </c>
     </row>
@@ -16895,7 +16895,7 @@
       <c r="N242" t="inlineStr"/>
       <c r="O242" t="inlineStr">
         <is>
-          <t>2022-12-02 14:40:59</t>
+          <t>2022-12-02 20:49:28</t>
         </is>
       </c>
     </row>
@@ -16964,7 +16964,7 @@
       <c r="N243" t="inlineStr"/>
       <c r="O243" t="inlineStr">
         <is>
-          <t>2022-12-02 14:40:59</t>
+          <t>2022-12-02 20:49:28</t>
         </is>
       </c>
     </row>
@@ -17033,7 +17033,7 @@
       <c r="N244" t="inlineStr"/>
       <c r="O244" t="inlineStr">
         <is>
-          <t>2022-12-02 14:40:59</t>
+          <t>2022-12-02 20:49:28</t>
         </is>
       </c>
     </row>
@@ -17106,7 +17106,7 @@
       </c>
       <c r="O245" t="inlineStr">
         <is>
-          <t>2022-12-02 14:40:59</t>
+          <t>2022-12-02 20:49:28</t>
         </is>
       </c>
     </row>
@@ -17179,7 +17179,7 @@
       </c>
       <c r="O246" t="inlineStr">
         <is>
-          <t>2022-12-02 14:40:59</t>
+          <t>2022-12-02 20:49:28</t>
         </is>
       </c>
     </row>
@@ -17248,7 +17248,7 @@
       <c r="N247" t="inlineStr"/>
       <c r="O247" t="inlineStr">
         <is>
-          <t>2022-12-02 14:40:59</t>
+          <t>2022-12-02 20:49:28</t>
         </is>
       </c>
     </row>
@@ -17313,7 +17313,7 @@
       <c r="N248" t="inlineStr"/>
       <c r="O248" t="inlineStr">
         <is>
-          <t>2022-12-02 14:40:59</t>
+          <t>2022-12-02 20:49:28</t>
         </is>
       </c>
     </row>
@@ -17382,7 +17382,7 @@
       <c r="N249" t="inlineStr"/>
       <c r="O249" t="inlineStr">
         <is>
-          <t>2022-12-02 14:40:59</t>
+          <t>2022-12-02 20:49:28</t>
         </is>
       </c>
     </row>
@@ -17455,7 +17455,7 @@
       </c>
       <c r="O250" t="inlineStr">
         <is>
-          <t>2022-12-02 14:40:59</t>
+          <t>2022-12-02 20:49:28</t>
         </is>
       </c>
     </row>
@@ -17520,7 +17520,7 @@
       <c r="N251" t="inlineStr"/>
       <c r="O251" t="inlineStr">
         <is>
-          <t>2022-12-02 14:40:59</t>
+          <t>2022-12-02 20:49:28</t>
         </is>
       </c>
     </row>
@@ -17583,7 +17583,7 @@
       </c>
       <c r="M252" t="inlineStr">
         <is>
-          <t>Betty Bossi Salat bouquet 23% Aktion 4.95 Schweizer Franken statt 6.50 Schweizer Franken</t>
+          <t>Betty Bossi Salat bouquet - Online kein Bestand 23% Aktion 4.95 Schweizer Franken statt 6.50 Schweizer Franken</t>
         </is>
       </c>
       <c r="N252" t="inlineStr">
@@ -17593,7 +17593,7 @@
       </c>
       <c r="O252" t="inlineStr">
         <is>
-          <t>2022-12-02 14:40:59</t>
+          <t>2022-12-02 20:49:28</t>
         </is>
       </c>
     </row>
@@ -17666,7 +17666,7 @@
       </c>
       <c r="O253" t="inlineStr">
         <is>
-          <t>2022-12-02 14:40:59</t>
+          <t>2022-12-02 20:49:28</t>
         </is>
       </c>
     </row>
@@ -17739,7 +17739,7 @@
       </c>
       <c r="O254" t="inlineStr">
         <is>
-          <t>2022-12-02 14:40:59</t>
+          <t>2022-12-02 20:49:28</t>
         </is>
       </c>
     </row>
@@ -17804,7 +17804,7 @@
       <c r="N255" t="inlineStr"/>
       <c r="O255" t="inlineStr">
         <is>
-          <t>2022-12-02 14:40:59</t>
+          <t>2022-12-02 20:49:28</t>
         </is>
       </c>
     </row>
@@ -17873,7 +17873,7 @@
       <c r="N256" t="inlineStr"/>
       <c r="O256" t="inlineStr">
         <is>
-          <t>2022-12-02 14:40:59</t>
+          <t>2022-12-02 20:49:28</t>
         </is>
       </c>
     </row>
@@ -17942,7 +17942,7 @@
       <c r="N257" t="inlineStr"/>
       <c r="O257" t="inlineStr">
         <is>
-          <t>2022-12-02 14:40:59</t>
+          <t>2022-12-02 20:49:28</t>
         </is>
       </c>
     </row>
@@ -18015,7 +18015,7 @@
       </c>
       <c r="O258" t="inlineStr">
         <is>
-          <t>2022-12-02 14:40:59</t>
+          <t>2022-12-02 20:49:28</t>
         </is>
       </c>
     </row>
@@ -18084,7 +18084,7 @@
       <c r="N259" t="inlineStr"/>
       <c r="O259" t="inlineStr">
         <is>
-          <t>2022-12-02 14:40:59</t>
+          <t>2022-12-02 20:49:28</t>
         </is>
       </c>
     </row>
@@ -18157,7 +18157,7 @@
       </c>
       <c r="O260" t="inlineStr">
         <is>
-          <t>2022-12-02 14:40:59</t>
+          <t>2022-12-02 20:49:28</t>
         </is>
       </c>
     </row>
@@ -18222,7 +18222,7 @@
       <c r="N261" t="inlineStr"/>
       <c r="O261" t="inlineStr">
         <is>
-          <t>2022-12-02 14:40:59</t>
+          <t>2022-12-02 20:49:28</t>
         </is>
       </c>
     </row>
@@ -18291,7 +18291,7 @@
       <c r="N262" t="inlineStr"/>
       <c r="O262" t="inlineStr">
         <is>
-          <t>2022-12-02 14:40:59</t>
+          <t>2022-12-02 20:49:28</t>
         </is>
       </c>
     </row>
@@ -18360,7 +18360,7 @@
       <c r="N263" t="inlineStr"/>
       <c r="O263" t="inlineStr">
         <is>
-          <t>2022-12-02 14:40:59</t>
+          <t>2022-12-02 20:49:28</t>
         </is>
       </c>
     </row>
@@ -18429,7 +18429,7 @@
       <c r="N264" t="inlineStr"/>
       <c r="O264" t="inlineStr">
         <is>
-          <t>2022-12-02 14:40:59</t>
+          <t>2022-12-02 20:49:28</t>
         </is>
       </c>
     </row>
@@ -18498,7 +18498,7 @@
       <c r="N265" t="inlineStr"/>
       <c r="O265" t="inlineStr">
         <is>
-          <t>2022-12-02 14:40:59</t>
+          <t>2022-12-02 20:49:28</t>
         </is>
       </c>
     </row>
@@ -18563,7 +18563,7 @@
       <c r="N266" t="inlineStr"/>
       <c r="O266" t="inlineStr">
         <is>
-          <t>2022-12-02 14:40:59</t>
+          <t>2022-12-02 20:49:28</t>
         </is>
       </c>
     </row>
@@ -18632,7 +18632,7 @@
       <c r="N267" t="inlineStr"/>
       <c r="O267" t="inlineStr">
         <is>
-          <t>2022-12-02 14:40:59</t>
+          <t>2022-12-02 20:49:28</t>
         </is>
       </c>
     </row>
@@ -18705,7 +18705,7 @@
       </c>
       <c r="O268" t="inlineStr">
         <is>
-          <t>2022-12-02 14:40:59</t>
+          <t>2022-12-02 20:49:28</t>
         </is>
       </c>
     </row>
@@ -18778,7 +18778,7 @@
       </c>
       <c r="O269" t="inlineStr">
         <is>
-          <t>2022-12-02 14:40:59</t>
+          <t>2022-12-02 20:49:28</t>
         </is>
       </c>
     </row>
@@ -18843,7 +18843,7 @@
       <c r="N270" t="inlineStr"/>
       <c r="O270" t="inlineStr">
         <is>
-          <t>2022-12-02 14:40:59</t>
+          <t>2022-12-02 20:49:28</t>
         </is>
       </c>
     </row>
@@ -18916,7 +18916,7 @@
       </c>
       <c r="O271" t="inlineStr">
         <is>
-          <t>2022-12-02 14:40:59</t>
+          <t>2022-12-02 20:49:28</t>
         </is>
       </c>
     </row>
@@ -18985,7 +18985,7 @@
       <c r="N272" t="inlineStr"/>
       <c r="O272" t="inlineStr">
         <is>
-          <t>2022-12-02 14:40:59</t>
+          <t>2022-12-02 20:49:28</t>
         </is>
       </c>
     </row>
@@ -19050,7 +19050,7 @@
       <c r="N273" t="inlineStr"/>
       <c r="O273" t="inlineStr">
         <is>
-          <t>2022-12-02 14:40:59</t>
+          <t>2022-12-02 20:49:28</t>
         </is>
       </c>
     </row>
@@ -19123,7 +19123,7 @@
       </c>
       <c r="O274" t="inlineStr">
         <is>
-          <t>2022-12-02 14:40:59</t>
+          <t>2022-12-02 20:49:28</t>
         </is>
       </c>
     </row>
@@ -19196,7 +19196,7 @@
       </c>
       <c r="O275" t="inlineStr">
         <is>
-          <t>2022-12-02 14:40:59</t>
+          <t>2022-12-02 20:49:28</t>
         </is>
       </c>
     </row>
@@ -19263,7 +19263,7 @@
       <c r="N276" t="inlineStr"/>
       <c r="O276" t="inlineStr">
         <is>
-          <t>2022-12-02 14:40:59</t>
+          <t>2022-12-02 20:49:28</t>
         </is>
       </c>
     </row>
@@ -19336,7 +19336,7 @@
       </c>
       <c r="O277" t="inlineStr">
         <is>
-          <t>2022-12-02 14:40:59</t>
+          <t>2022-12-02 20:49:28</t>
         </is>
       </c>
     </row>
@@ -19401,7 +19401,7 @@
       <c r="N278" t="inlineStr"/>
       <c r="O278" t="inlineStr">
         <is>
-          <t>2022-12-02 14:40:59</t>
+          <t>2022-12-02 20:49:28</t>
         </is>
       </c>
     </row>
@@ -19464,7 +19464,7 @@
       </c>
       <c r="M279" t="inlineStr">
         <is>
-          <t>Betty Bossi Naturaplan Bio Gartensalat 3.80 Schweizer Franken</t>
+          <t>Betty Bossi Naturaplan Bio Gartensalat - Online kein Bestand 3.80 Schweizer Franken</t>
         </is>
       </c>
       <c r="N279" t="inlineStr">
@@ -19474,7 +19474,7 @@
       </c>
       <c r="O279" t="inlineStr">
         <is>
-          <t>2022-12-02 14:40:59</t>
+          <t>2022-12-02 20:49:28</t>
         </is>
       </c>
     </row>
@@ -19539,7 +19539,7 @@
       <c r="N280" t="inlineStr"/>
       <c r="O280" t="inlineStr">
         <is>
-          <t>2022-12-02 14:40:59</t>
+          <t>2022-12-02 20:49:28</t>
         </is>
       </c>
     </row>
@@ -19590,7 +19590,7 @@
       <c r="N281" t="inlineStr"/>
       <c r="O281" t="inlineStr">
         <is>
-          <t>2022-12-02 14:40:59</t>
+          <t>2022-12-02 20:49:28</t>
         </is>
       </c>
     </row>
@@ -19659,7 +19659,7 @@
       <c r="N282" t="inlineStr"/>
       <c r="O282" t="inlineStr">
         <is>
-          <t>2022-12-02 14:40:59</t>
+          <t>2022-12-02 20:49:28</t>
         </is>
       </c>
     </row>
@@ -19732,7 +19732,7 @@
       </c>
       <c r="O283" t="inlineStr">
         <is>
-          <t>2022-12-02 14:40:59</t>
+          <t>2022-12-02 20:49:28</t>
         </is>
       </c>
     </row>
@@ -19805,7 +19805,7 @@
       </c>
       <c r="O284" t="inlineStr">
         <is>
-          <t>2022-12-02 14:40:59</t>
+          <t>2022-12-02 20:49:28</t>
         </is>
       </c>
     </row>
@@ -19868,7 +19868,7 @@
       <c r="N285" t="inlineStr"/>
       <c r="O285" t="inlineStr">
         <is>
-          <t>2022-12-02 14:40:59</t>
+          <t>2022-12-02 20:49:28</t>
         </is>
       </c>
     </row>
@@ -19941,7 +19941,7 @@
       </c>
       <c r="O286" t="inlineStr">
         <is>
-          <t>2022-12-02 14:40:59</t>
+          <t>2022-12-02 20:49:28</t>
         </is>
       </c>
     </row>
@@ -20014,7 +20014,7 @@
       </c>
       <c r="O287" t="inlineStr">
         <is>
-          <t>2022-12-02 14:40:59</t>
+          <t>2022-12-02 20:49:28</t>
         </is>
       </c>
     </row>
@@ -20083,7 +20083,7 @@
       <c r="N288" t="inlineStr"/>
       <c r="O288" t="inlineStr">
         <is>
-          <t>2022-12-02 14:40:59</t>
+          <t>2022-12-02 20:49:28</t>
         </is>
       </c>
     </row>
@@ -20152,7 +20152,7 @@
       <c r="N289" t="inlineStr"/>
       <c r="O289" t="inlineStr">
         <is>
-          <t>2022-12-02 14:40:59</t>
+          <t>2022-12-02 20:49:28</t>
         </is>
       </c>
     </row>
@@ -20221,7 +20221,7 @@
       <c r="N290" t="inlineStr"/>
       <c r="O290" t="inlineStr">
         <is>
-          <t>2022-12-02 14:40:59</t>
+          <t>2022-12-02 20:49:28</t>
         </is>
       </c>
     </row>
@@ -20290,7 +20290,7 @@
       <c r="N291" t="inlineStr"/>
       <c r="O291" t="inlineStr">
         <is>
-          <t>2022-12-02 14:40:59</t>
+          <t>2022-12-02 20:49:28</t>
         </is>
       </c>
     </row>
@@ -20363,7 +20363,7 @@
       </c>
       <c r="O292" t="inlineStr">
         <is>
-          <t>2022-12-02 14:40:59</t>
+          <t>2022-12-02 20:49:28</t>
         </is>
       </c>
     </row>
@@ -20432,7 +20432,7 @@
       <c r="N293" t="inlineStr"/>
       <c r="O293" t="inlineStr">
         <is>
-          <t>2022-12-02 14:40:59</t>
+          <t>2022-12-02 20:49:28</t>
         </is>
       </c>
     </row>
@@ -20497,7 +20497,7 @@
       <c r="N294" t="inlineStr"/>
       <c r="O294" t="inlineStr">
         <is>
-          <t>2022-12-02 14:40:59</t>
+          <t>2022-12-02 20:49:28</t>
         </is>
       </c>
     </row>
@@ -20566,7 +20566,7 @@
       <c r="N295" t="inlineStr"/>
       <c r="O295" t="inlineStr">
         <is>
-          <t>2022-12-02 14:40:59</t>
+          <t>2022-12-02 20:49:28</t>
         </is>
       </c>
     </row>
@@ -20639,7 +20639,7 @@
       </c>
       <c r="O296" t="inlineStr">
         <is>
-          <t>2022-12-02 14:40:59</t>
+          <t>2022-12-02 20:49:28</t>
         </is>
       </c>
     </row>
@@ -20704,7 +20704,7 @@
       <c r="N297" t="inlineStr"/>
       <c r="O297" t="inlineStr">
         <is>
-          <t>2022-12-02 14:40:59</t>
+          <t>2022-12-02 20:49:28</t>
         </is>
       </c>
     </row>
@@ -20773,7 +20773,7 @@
       <c r="N298" t="inlineStr"/>
       <c r="O298" t="inlineStr">
         <is>
-          <t>2022-12-02 14:40:59</t>
+          <t>2022-12-02 20:49:28</t>
         </is>
       </c>
     </row>
@@ -20842,7 +20842,7 @@
       <c r="N299" t="inlineStr"/>
       <c r="O299" t="inlineStr">
         <is>
-          <t>2022-12-02 14:40:59</t>
+          <t>2022-12-02 20:49:28</t>
         </is>
       </c>
     </row>
@@ -20915,7 +20915,7 @@
       </c>
       <c r="O300" t="inlineStr">
         <is>
-          <t>2022-12-02 14:40:59</t>
+          <t>2022-12-02 20:49:28</t>
         </is>
       </c>
     </row>
@@ -20988,7 +20988,7 @@
       </c>
       <c r="O301" t="inlineStr">
         <is>
-          <t>2022-12-02 14:40:59</t>
+          <t>2022-12-02 20:49:28</t>
         </is>
       </c>
     </row>
@@ -21061,7 +21061,7 @@
       </c>
       <c r="O302" t="inlineStr">
         <is>
-          <t>2022-12-02 14:40:59</t>
+          <t>2022-12-02 20:49:28</t>
         </is>
       </c>
     </row>
@@ -21134,7 +21134,7 @@
       </c>
       <c r="O303" t="inlineStr">
         <is>
-          <t>2022-12-02 14:40:59</t>
+          <t>2022-12-02 20:49:28</t>
         </is>
       </c>
     </row>
@@ -21199,7 +21199,7 @@
       <c r="N304" t="inlineStr"/>
       <c r="O304" t="inlineStr">
         <is>
-          <t>2022-12-02 14:40:59</t>
+          <t>2022-12-02 20:49:28</t>
         </is>
       </c>
     </row>
@@ -21268,7 +21268,7 @@
       <c r="N305" t="inlineStr"/>
       <c r="O305" t="inlineStr">
         <is>
-          <t>2022-12-02 14:40:59</t>
+          <t>2022-12-02 20:49:28</t>
         </is>
       </c>
     </row>
@@ -21335,7 +21335,7 @@
       <c r="N306" t="inlineStr"/>
       <c r="O306" t="inlineStr">
         <is>
-          <t>2022-12-02 14:40:59</t>
+          <t>2022-12-02 20:49:28</t>
         </is>
       </c>
     </row>
@@ -21408,7 +21408,7 @@
       </c>
       <c r="O307" t="inlineStr">
         <is>
-          <t>2022-12-02 14:40:59</t>
+          <t>2022-12-02 20:49:28</t>
         </is>
       </c>
     </row>
@@ -21481,7 +21481,7 @@
       </c>
       <c r="O308" t="inlineStr">
         <is>
-          <t>2022-12-02 14:40:59</t>
+          <t>2022-12-02 20:49:28</t>
         </is>
       </c>
     </row>
@@ -21550,7 +21550,7 @@
       <c r="N309" t="inlineStr"/>
       <c r="O309" t="inlineStr">
         <is>
-          <t>2022-12-02 14:40:59</t>
+          <t>2022-12-02 20:49:28</t>
         </is>
       </c>
     </row>
@@ -21615,7 +21615,7 @@
       <c r="N310" t="inlineStr"/>
       <c r="O310" t="inlineStr">
         <is>
-          <t>2022-12-02 14:40:59</t>
+          <t>2022-12-02 20:49:28</t>
         </is>
       </c>
     </row>
@@ -21684,7 +21684,7 @@
       <c r="N311" t="inlineStr"/>
       <c r="O311" t="inlineStr">
         <is>
-          <t>2022-12-02 14:40:59</t>
+          <t>2022-12-02 20:49:28</t>
         </is>
       </c>
     </row>
@@ -21753,7 +21753,7 @@
       <c r="N312" t="inlineStr"/>
       <c r="O312" t="inlineStr">
         <is>
-          <t>2022-12-02 14:40:59</t>
+          <t>2022-12-02 20:49:28</t>
         </is>
       </c>
     </row>
@@ -21826,7 +21826,7 @@
       </c>
       <c r="O313" t="inlineStr">
         <is>
-          <t>2022-12-02 14:40:59</t>
+          <t>2022-12-02 20:49:28</t>
         </is>
       </c>
     </row>
@@ -21895,7 +21895,7 @@
       <c r="N314" t="inlineStr"/>
       <c r="O314" t="inlineStr">
         <is>
-          <t>2022-12-02 14:40:59</t>
+          <t>2022-12-02 20:49:28</t>
         </is>
       </c>
     </row>
@@ -21960,7 +21960,7 @@
       <c r="N315" t="inlineStr"/>
       <c r="O315" t="inlineStr">
         <is>
-          <t>2022-12-02 14:40:59</t>
+          <t>2022-12-02 20:49:28</t>
         </is>
       </c>
     </row>
@@ -22033,7 +22033,7 @@
       </c>
       <c r="O316" t="inlineStr">
         <is>
-          <t>2022-12-02 14:40:59</t>
+          <t>2022-12-02 20:49:28</t>
         </is>
       </c>
     </row>
@@ -22102,7 +22102,7 @@
       <c r="N317" t="inlineStr"/>
       <c r="O317" t="inlineStr">
         <is>
-          <t>2022-12-02 14:40:59</t>
+          <t>2022-12-02 20:49:28</t>
         </is>
       </c>
     </row>
@@ -22171,7 +22171,7 @@
       <c r="N318" t="inlineStr"/>
       <c r="O318" t="inlineStr">
         <is>
-          <t>2022-12-02 14:40:59</t>
+          <t>2022-12-02 20:49:28</t>
         </is>
       </c>
     </row>
@@ -22244,7 +22244,7 @@
       </c>
       <c r="O319" t="inlineStr">
         <is>
-          <t>2022-12-02 14:40:59</t>
+          <t>2022-12-02 20:49:28</t>
         </is>
       </c>
     </row>
@@ -22317,7 +22317,7 @@
       </c>
       <c r="O320" t="inlineStr">
         <is>
-          <t>2022-12-02 14:40:59</t>
+          <t>2022-12-02 20:49:28</t>
         </is>
       </c>
     </row>
@@ -22386,7 +22386,7 @@
       </c>
       <c r="O321" t="inlineStr">
         <is>
-          <t>2022-12-02 14:40:59</t>
+          <t>2022-12-02 20:49:28</t>
         </is>
       </c>
     </row>
@@ -22459,7 +22459,7 @@
       </c>
       <c r="O322" t="inlineStr">
         <is>
-          <t>2022-12-02 14:40:59</t>
+          <t>2022-12-02 20:49:28</t>
         </is>
       </c>
     </row>
@@ -22532,7 +22532,7 @@
       </c>
       <c r="O323" t="inlineStr">
         <is>
-          <t>2022-12-02 14:40:59</t>
+          <t>2022-12-02 20:49:28</t>
         </is>
       </c>
     </row>
@@ -22605,7 +22605,7 @@
       </c>
       <c r="O324" t="inlineStr">
         <is>
-          <t>2022-12-02 14:40:59</t>
+          <t>2022-12-02 20:49:28</t>
         </is>
       </c>
     </row>
@@ -22678,7 +22678,7 @@
       </c>
       <c r="O325" t="inlineStr">
         <is>
-          <t>2022-12-02 14:40:59</t>
+          <t>2022-12-02 20:49:28</t>
         </is>
       </c>
     </row>
@@ -22751,7 +22751,7 @@
       </c>
       <c r="O326" t="inlineStr">
         <is>
-          <t>2022-12-02 14:40:59</t>
+          <t>2022-12-02 20:49:28</t>
         </is>
       </c>
     </row>
@@ -22820,7 +22820,7 @@
       <c r="N327" t="inlineStr"/>
       <c r="O327" t="inlineStr">
         <is>
-          <t>2022-12-02 14:40:59</t>
+          <t>2022-12-02 20:49:28</t>
         </is>
       </c>
     </row>
@@ -22889,7 +22889,7 @@
       <c r="N328" t="inlineStr"/>
       <c r="O328" t="inlineStr">
         <is>
-          <t>2022-12-02 14:40:59</t>
+          <t>2022-12-02 20:49:28</t>
         </is>
       </c>
     </row>
@@ -22962,7 +22962,7 @@
       </c>
       <c r="O329" t="inlineStr">
         <is>
-          <t>2022-12-02 14:40:59</t>
+          <t>2022-12-02 20:49:28</t>
         </is>
       </c>
     </row>
@@ -23027,7 +23027,7 @@
       <c r="N330" t="inlineStr"/>
       <c r="O330" t="inlineStr">
         <is>
-          <t>2022-12-02 14:40:59</t>
+          <t>2022-12-02 20:49:28</t>
         </is>
       </c>
     </row>
@@ -23100,7 +23100,7 @@
       </c>
       <c r="O331" t="inlineStr">
         <is>
-          <t>2022-12-02 14:40:59</t>
+          <t>2022-12-02 20:49:28</t>
         </is>
       </c>
     </row>
@@ -23173,7 +23173,7 @@
       </c>
       <c r="O332" t="inlineStr">
         <is>
-          <t>2022-12-02 14:40:59</t>
+          <t>2022-12-02 20:49:28</t>
         </is>
       </c>
     </row>
@@ -23242,7 +23242,7 @@
       <c r="N333" t="inlineStr"/>
       <c r="O333" t="inlineStr">
         <is>
-          <t>2022-12-02 14:40:59</t>
+          <t>2022-12-02 20:49:28</t>
         </is>
       </c>
     </row>
@@ -23315,7 +23315,7 @@
       </c>
       <c r="O334" t="inlineStr">
         <is>
-          <t>2022-12-02 14:40:59</t>
+          <t>2022-12-02 20:49:28</t>
         </is>
       </c>
     </row>
@@ -23380,7 +23380,7 @@
       <c r="N335" t="inlineStr"/>
       <c r="O335" t="inlineStr">
         <is>
-          <t>2022-12-02 14:40:59</t>
+          <t>2022-12-02 20:49:28</t>
         </is>
       </c>
     </row>
@@ -23453,7 +23453,7 @@
       </c>
       <c r="O336" t="inlineStr">
         <is>
-          <t>2022-12-02 14:40:59</t>
+          <t>2022-12-02 20:49:28</t>
         </is>
       </c>
     </row>
@@ -23518,7 +23518,7 @@
       <c r="N337" t="inlineStr"/>
       <c r="O337" t="inlineStr">
         <is>
-          <t>2022-12-02 14:40:59</t>
+          <t>2022-12-02 20:49:28</t>
         </is>
       </c>
     </row>
@@ -23591,7 +23591,7 @@
       </c>
       <c r="O338" t="inlineStr">
         <is>
-          <t>2022-12-02 14:40:59</t>
+          <t>2022-12-02 20:49:28</t>
         </is>
       </c>
     </row>
@@ -23660,7 +23660,7 @@
       <c r="N339" t="inlineStr"/>
       <c r="O339" t="inlineStr">
         <is>
-          <t>2022-12-02 14:40:59</t>
+          <t>2022-12-02 20:49:28</t>
         </is>
       </c>
     </row>
@@ -23733,7 +23733,7 @@
       </c>
       <c r="O340" t="inlineStr">
         <is>
-          <t>2022-12-02 14:40:59</t>
+          <t>2022-12-02 20:49:28</t>
         </is>
       </c>
     </row>
@@ -23802,7 +23802,7 @@
       <c r="N341" t="inlineStr"/>
       <c r="O341" t="inlineStr">
         <is>
-          <t>2022-12-02 14:40:59</t>
+          <t>2022-12-02 20:49:28</t>
         </is>
       </c>
     </row>
@@ -23875,7 +23875,7 @@
       </c>
       <c r="O342" t="inlineStr">
         <is>
-          <t>2022-12-02 14:40:59</t>
+          <t>2022-12-02 20:49:28</t>
         </is>
       </c>
     </row>
@@ -23940,7 +23940,7 @@
       <c r="N343" t="inlineStr"/>
       <c r="O343" t="inlineStr">
         <is>
-          <t>2022-12-02 14:40:59</t>
+          <t>2022-12-02 20:49:28</t>
         </is>
       </c>
     </row>
@@ -24013,7 +24013,7 @@
       </c>
       <c r="O344" t="inlineStr">
         <is>
-          <t>2022-12-02 14:40:59</t>
+          <t>2022-12-02 20:49:28</t>
         </is>
       </c>
     </row>
@@ -24086,7 +24086,7 @@
       </c>
       <c r="O345" t="inlineStr">
         <is>
-          <t>2022-12-02 14:40:59</t>
+          <t>2022-12-02 20:49:28</t>
         </is>
       </c>
     </row>
@@ -24159,29 +24159,31 @@
       </c>
       <c r="O346" t="inlineStr">
         <is>
-          <t>2022-12-02 14:40:59</t>
+          <t>2022-12-02 20:49:28</t>
         </is>
       </c>
     </row>
     <row r="347">
       <c r="A347" t="inlineStr">
         <is>
-          <t>6999612</t>
+          <t>6649013</t>
         </is>
       </c>
       <c r="B347" t="inlineStr">
         <is>
-          <t>Betty Bossi Poulet Currysalat</t>
+          <t>Naturaplan Bio Maissalat</t>
         </is>
       </c>
       <c r="C347" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/fertiggerichte/frische-fertiggerichte/fertige-salate/betty-bossi-poulet-currysalat/p/6999612</t>
-        </is>
-      </c>
-      <c r="D347" t="inlineStr"/>
+          <t>/de/lebensmittel/fertiggerichte/frische-fertiggerichte/fertige-salate/naturaplan-bio-maissalat/p/6649013</t>
+        </is>
+      </c>
+      <c r="D347" t="n">
+        <v>3</v>
+      </c>
       <c r="E347" t="n">
-        <v>0</v>
+        <v>4.5</v>
       </c>
       <c r="F347" t="inlineStr">
         <is>
@@ -24190,7 +24192,7 @@
       </c>
       <c r="G347" t="inlineStr">
         <is>
-          <t>4.95</t>
+          <t>2.95</t>
         </is>
       </c>
       <c r="H347" t="inlineStr">
@@ -24220,41 +24222,39 @@
       </c>
       <c r="M347" t="inlineStr">
         <is>
-          <t>Betty Bossi Poulet Currysalat - Online kein Bestand 4.95 Schweizer Franken</t>
+          <t>Naturaplan Bio Maissalat 2.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="N347" t="inlineStr">
         <is>
-          <t>['chilled']</t>
+          <t>['chilled', 'vegetarian']</t>
         </is>
       </c>
       <c r="O347" t="inlineStr">
         <is>
-          <t>2022-12-02 14:40:59</t>
+          <t>2022-12-02 20:49:28</t>
         </is>
       </c>
     </row>
     <row r="348">
       <c r="A348" t="inlineStr">
         <is>
-          <t>6649013</t>
+          <t>6999612</t>
         </is>
       </c>
       <c r="B348" t="inlineStr">
         <is>
-          <t>Naturaplan Bio Maissalat</t>
+          <t>Betty Bossi Poulet Currysalat</t>
         </is>
       </c>
       <c r="C348" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/fertiggerichte/frische-fertiggerichte/fertige-salate/naturaplan-bio-maissalat/p/6649013</t>
-        </is>
-      </c>
-      <c r="D348" t="n">
-        <v>3</v>
-      </c>
+          <t>/de/lebensmittel/fertiggerichte/frische-fertiggerichte/fertige-salate/betty-bossi-poulet-currysalat/p/6999612</t>
+        </is>
+      </c>
+      <c r="D348" t="inlineStr"/>
       <c r="E348" t="n">
-        <v>4.5</v>
+        <v>0</v>
       </c>
       <c r="F348" t="inlineStr">
         <is>
@@ -24263,7 +24263,7 @@
       </c>
       <c r="G348" t="inlineStr">
         <is>
-          <t>2.95</t>
+          <t>4.95</t>
         </is>
       </c>
       <c r="H348" t="inlineStr">
@@ -24293,17 +24293,17 @@
       </c>
       <c r="M348" t="inlineStr">
         <is>
-          <t>Naturaplan Bio Maissalat 2.95 Schweizer Franken</t>
+          <t>Betty Bossi Poulet Currysalat - Online kein Bestand 4.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="N348" t="inlineStr">
         <is>
-          <t>['chilled', 'vegetarian']</t>
+          <t>['chilled']</t>
         </is>
       </c>
       <c r="O348" t="inlineStr">
         <is>
-          <t>2022-12-02 14:40:59</t>
+          <t>2022-12-02 20:49:28</t>
         </is>
       </c>
     </row>
@@ -24376,7 +24376,7 @@
       </c>
       <c r="O349" t="inlineStr">
         <is>
-          <t>2022-12-02 14:40:59</t>
+          <t>2022-12-02 20:49:28</t>
         </is>
       </c>
     </row>
@@ -24445,7 +24445,7 @@
       <c r="N350" t="inlineStr"/>
       <c r="O350" t="inlineStr">
         <is>
-          <t>2022-12-02 14:40:59</t>
+          <t>2022-12-02 20:49:28</t>
         </is>
       </c>
     </row>
@@ -24508,7 +24508,7 @@
       <c r="N351" t="inlineStr"/>
       <c r="O351" t="inlineStr">
         <is>
-          <t>2022-12-02 14:40:59</t>
+          <t>2022-12-02 20:49:28</t>
         </is>
       </c>
     </row>
@@ -24581,7 +24581,7 @@
       </c>
       <c r="O352" t="inlineStr">
         <is>
-          <t>2022-12-02 14:40:59</t>
+          <t>2022-12-02 20:49:28</t>
         </is>
       </c>
     </row>
@@ -24650,7 +24650,7 @@
       <c r="N353" t="inlineStr"/>
       <c r="O353" t="inlineStr">
         <is>
-          <t>2022-12-02 14:40:59</t>
+          <t>2022-12-02 20:49:28</t>
         </is>
       </c>
     </row>
@@ -24719,7 +24719,7 @@
       <c r="N354" t="inlineStr"/>
       <c r="O354" t="inlineStr">
         <is>
-          <t>2022-12-02 14:40:59</t>
+          <t>2022-12-02 20:49:28</t>
         </is>
       </c>
     </row>
@@ -24784,7 +24784,7 @@
       <c r="N355" t="inlineStr"/>
       <c r="O355" t="inlineStr">
         <is>
-          <t>2022-12-02 14:40:59</t>
+          <t>2022-12-02 20:49:28</t>
         </is>
       </c>
     </row>
@@ -24857,7 +24857,7 @@
       </c>
       <c r="O356" t="inlineStr">
         <is>
-          <t>2022-12-02 14:40:59</t>
+          <t>2022-12-02 20:49:28</t>
         </is>
       </c>
     </row>
@@ -24930,7 +24930,7 @@
       </c>
       <c r="O357" t="inlineStr">
         <is>
-          <t>2022-12-02 14:40:59</t>
+          <t>2022-12-02 20:49:28</t>
         </is>
       </c>
     </row>
@@ -24999,7 +24999,7 @@
       <c r="N358" t="inlineStr"/>
       <c r="O358" t="inlineStr">
         <is>
-          <t>2022-12-02 14:40:59</t>
+          <t>2022-12-02 20:49:28</t>
         </is>
       </c>
     </row>
@@ -25064,7 +25064,7 @@
       <c r="N359" t="inlineStr"/>
       <c r="O359" t="inlineStr">
         <is>
-          <t>2022-12-02 14:40:59</t>
+          <t>2022-12-02 20:49:28</t>
         </is>
       </c>
     </row>
@@ -25129,7 +25129,7 @@
       <c r="N360" t="inlineStr"/>
       <c r="O360" t="inlineStr">
         <is>
-          <t>2022-12-02 14:40:59</t>
+          <t>2022-12-02 20:49:28</t>
         </is>
       </c>
     </row>
@@ -25202,7 +25202,7 @@
       </c>
       <c r="O361" t="inlineStr">
         <is>
-          <t>2022-12-02 14:40:59</t>
+          <t>2022-12-02 20:49:28</t>
         </is>
       </c>
     </row>
@@ -25265,7 +25265,7 @@
       </c>
       <c r="M362" t="inlineStr">
         <is>
-          <t>Betty Bossi Mini Kopfsalat rot 3.20 Schweizer Franken</t>
+          <t>Betty Bossi Mini Kopfsalat rot - Online kein Bestand 3.20 Schweizer Franken</t>
         </is>
       </c>
       <c r="N362" t="inlineStr">
@@ -25275,7 +25275,7 @@
       </c>
       <c r="O362" t="inlineStr">
         <is>
-          <t>2022-12-02 14:40:59</t>
+          <t>2022-12-02 20:49:28</t>
         </is>
       </c>
     </row>
@@ -25348,7 +25348,7 @@
       </c>
       <c r="O363" t="inlineStr">
         <is>
-          <t>2022-12-02 14:40:59</t>
+          <t>2022-12-02 20:49:28</t>
         </is>
       </c>
     </row>
@@ -25421,7 +25421,7 @@
       </c>
       <c r="O364" t="inlineStr">
         <is>
-          <t>2022-12-02 14:40:59</t>
+          <t>2022-12-02 20:49:28</t>
         </is>
       </c>
     </row>
@@ -25494,7 +25494,7 @@
       </c>
       <c r="O365" t="inlineStr">
         <is>
-          <t>2022-12-02 14:40:59</t>
+          <t>2022-12-02 20:49:28</t>
         </is>
       </c>
     </row>
@@ -25567,31 +25567,31 @@
       </c>
       <c r="O366" t="inlineStr">
         <is>
-          <t>2022-12-02 14:40:59</t>
+          <t>2022-12-02 20:49:28</t>
         </is>
       </c>
     </row>
     <row r="367">
       <c r="A367" t="inlineStr">
         <is>
-          <t>7024191</t>
+          <t>6875236</t>
         </is>
       </c>
       <c r="B367" t="inlineStr">
         <is>
-          <t>Karma Gemüseplätzli</t>
+          <t>Prix Garantie vegetarischer Aufschnitt nature</t>
         </is>
       </c>
       <c r="C367" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/fruechte-gemuese/pflanzliche-alternativen-zu-fleisch/karma-gemueseplaetzli/p/7024191</t>
+          <t>/de/lebensmittel/fruechte-gemuese/pflanzliche-alternativen-zu-fleisch/prix-garantie-vegetarischer-aufschnitt-nature/p/6875236</t>
         </is>
       </c>
       <c r="D367" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E367" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="F367" t="inlineStr">
         <is>
@@ -25600,12 +25600,12 @@
       </c>
       <c r="G367" t="inlineStr">
         <is>
-          <t>3.50</t>
+          <t>1.95</t>
         </is>
       </c>
       <c r="H367" t="inlineStr">
         <is>
-          <t>1.84/100g</t>
+          <t>1.95/100g</t>
         </is>
       </c>
       <c r="I367" t="inlineStr">
@@ -25615,7 +25615,7 @@
       </c>
       <c r="J367" t="inlineStr">
         <is>
-          <t>1.84</t>
+          <t>1.95</t>
         </is>
       </c>
       <c r="K367" t="inlineStr">
@@ -25630,41 +25630,41 @@
       </c>
       <c r="M367" t="inlineStr">
         <is>
-          <t>Karma Gemüseplätzli 3.50 Schweizer Franken</t>
+          <t>Prix Garantie vegetarischer Aufschnitt nature 1.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="N367" t="inlineStr">
         <is>
-          <t>['chilled', 'vegan', 'vegetarian']</t>
+          <t>['chilled', 'vegetarian']</t>
         </is>
       </c>
       <c r="O367" t="inlineStr">
         <is>
-          <t>2022-12-02 14:40:59</t>
+          <t>2022-12-02 20:49:28</t>
         </is>
       </c>
     </row>
     <row r="368">
       <c r="A368" t="inlineStr">
         <is>
-          <t>6875236</t>
+          <t>7024191</t>
         </is>
       </c>
       <c r="B368" t="inlineStr">
         <is>
-          <t>Prix Garantie vegetarischer Aufschnitt nature</t>
+          <t>Karma Gemüseplätzli</t>
         </is>
       </c>
       <c r="C368" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/fruechte-gemuese/pflanzliche-alternativen-zu-fleisch/prix-garantie-vegetarischer-aufschnitt-nature/p/6875236</t>
+          <t>/de/lebensmittel/fruechte-gemuese/pflanzliche-alternativen-zu-fleisch/karma-gemueseplaetzli/p/7024191</t>
         </is>
       </c>
       <c r="D368" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E368" t="n">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="F368" t="inlineStr">
         <is>
@@ -25673,12 +25673,12 @@
       </c>
       <c r="G368" t="inlineStr">
         <is>
-          <t>1.95</t>
+          <t>3.50</t>
         </is>
       </c>
       <c r="H368" t="inlineStr">
         <is>
-          <t>1.95/100g</t>
+          <t>1.84/100g</t>
         </is>
       </c>
       <c r="I368" t="inlineStr">
@@ -25688,7 +25688,7 @@
       </c>
       <c r="J368" t="inlineStr">
         <is>
-          <t>1.95</t>
+          <t>1.84</t>
         </is>
       </c>
       <c r="K368" t="inlineStr">
@@ -25703,17 +25703,17 @@
       </c>
       <c r="M368" t="inlineStr">
         <is>
-          <t>Prix Garantie vegetarischer Aufschnitt nature 1.95 Schweizer Franken</t>
+          <t>Karma Gemüseplätzli 3.50 Schweizer Franken</t>
         </is>
       </c>
       <c r="N368" t="inlineStr">
         <is>
-          <t>['chilled', 'vegetarian']</t>
+          <t>['chilled', 'vegan', 'vegetarian']</t>
         </is>
       </c>
       <c r="O368" t="inlineStr">
         <is>
-          <t>2022-12-02 14:40:59</t>
+          <t>2022-12-02 20:49:28</t>
         </is>
       </c>
     </row>
@@ -25786,7 +25786,7 @@
       </c>
       <c r="O369" t="inlineStr">
         <is>
-          <t>2022-12-02 14:40:59</t>
+          <t>2022-12-02 20:49:28</t>
         </is>
       </c>
     </row>
@@ -25859,31 +25859,31 @@
       </c>
       <c r="O370" t="inlineStr">
         <is>
-          <t>2022-12-02 14:40:59</t>
+          <t>2022-12-02 20:49:28</t>
         </is>
       </c>
     </row>
     <row r="371">
       <c r="A371" t="inlineStr">
         <is>
-          <t>3947766</t>
+          <t>4083022</t>
         </is>
       </c>
       <c r="B371" t="inlineStr">
         <is>
-          <t>Naturaplan Bio Grapefruit rot ca. 1kg</t>
+          <t>Naturaplan Bio Family Gemüsebox</t>
         </is>
       </c>
       <c r="C371" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/fruechte-gemuese/fruechte/zitrusfruechte/naturaplan-bio-grapefruit-rot-ca/p/3947766</t>
+          <t>/de/lebensmittel/fruechte-gemuese/fruechte-gemueseboxen/naturaplan-bio-family-gemuesebox/p/4083022</t>
         </is>
       </c>
       <c r="D371" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="E371" t="n">
-        <v>4.5</v>
+        <v>3.5</v>
       </c>
       <c r="F371" t="inlineStr">
         <is>
@@ -25892,12 +25892,12 @@
       </c>
       <c r="G371" t="inlineStr">
         <is>
-          <t>4.95</t>
+          <t>23.50</t>
         </is>
       </c>
       <c r="H371" t="inlineStr">
         <is>
-          <t>4.95/1kg</t>
+          <t>7.83/1kg</t>
         </is>
       </c>
       <c r="I371" t="inlineStr">
@@ -25907,7 +25907,7 @@
       </c>
       <c r="J371" t="inlineStr">
         <is>
-          <t>4.95</t>
+          <t>7.83</t>
         </is>
       </c>
       <c r="K371" t="inlineStr">
@@ -25917,42 +25917,42 @@
       </c>
       <c r="L371" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'fruechte-gemuese', 'fruechte', 'zitrusfruechte']</t>
+          <t>['lebensmittel', 'fruechte-gemuese', 'fruechte-gemueseboxen']</t>
         </is>
       </c>
       <c r="M371" t="inlineStr">
         <is>
-          <t>Naturaplan Bio Grapefruit rot ca. 1kg 4.95 Schweizer Franken</t>
+          <t>Naturaplan Bio Family Gemüsebox 23.50 Schweizer Franken</t>
         </is>
       </c>
       <c r="N371" t="inlineStr"/>
       <c r="O371" t="inlineStr">
         <is>
-          <t>2022-12-02 14:40:59</t>
+          <t>2022-12-02 20:49:28</t>
         </is>
       </c>
     </row>
     <row r="372">
       <c r="A372" t="inlineStr">
         <is>
-          <t>4083022</t>
+          <t>3947766</t>
         </is>
       </c>
       <c r="B372" t="inlineStr">
         <is>
-          <t>Naturaplan Bio Family Gemüsebox</t>
+          <t>Naturaplan Bio Grapefruit rot ca. 1kg</t>
         </is>
       </c>
       <c r="C372" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/fruechte-gemuese/fruechte-gemueseboxen/naturaplan-bio-family-gemuesebox/p/4083022</t>
+          <t>/de/lebensmittel/fruechte-gemuese/fruechte/zitrusfruechte/naturaplan-bio-grapefruit-rot-ca/p/3947766</t>
         </is>
       </c>
       <c r="D372" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="E372" t="n">
-        <v>3.5</v>
+        <v>4.5</v>
       </c>
       <c r="F372" t="inlineStr">
         <is>
@@ -25961,12 +25961,12 @@
       </c>
       <c r="G372" t="inlineStr">
         <is>
-          <t>23.50</t>
+          <t>4.95</t>
         </is>
       </c>
       <c r="H372" t="inlineStr">
         <is>
-          <t>7.83/1kg</t>
+          <t>4.95/1kg</t>
         </is>
       </c>
       <c r="I372" t="inlineStr">
@@ -25976,7 +25976,7 @@
       </c>
       <c r="J372" t="inlineStr">
         <is>
-          <t>7.83</t>
+          <t>4.95</t>
         </is>
       </c>
       <c r="K372" t="inlineStr">
@@ -25986,18 +25986,18 @@
       </c>
       <c r="L372" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'fruechte-gemuese', 'fruechte-gemueseboxen']</t>
+          <t>['lebensmittel', 'fruechte-gemuese', 'fruechte', 'zitrusfruechte']</t>
         </is>
       </c>
       <c r="M372" t="inlineStr">
         <is>
-          <t>Naturaplan Bio Family Gemüsebox 23.50 Schweizer Franken</t>
+          <t>Naturaplan Bio Grapefruit rot ca. 1kg 4.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="N372" t="inlineStr"/>
       <c r="O372" t="inlineStr">
         <is>
-          <t>2022-12-02 14:40:59</t>
+          <t>2022-12-02 20:49:28</t>
         </is>
       </c>
     </row>
@@ -26066,7 +26066,7 @@
       <c r="N373" t="inlineStr"/>
       <c r="O373" t="inlineStr">
         <is>
-          <t>2022-12-02 14:40:59</t>
+          <t>2022-12-02 20:49:28</t>
         </is>
       </c>
     </row>
@@ -26135,7 +26135,7 @@
       <c r="N374" t="inlineStr"/>
       <c r="O374" t="inlineStr">
         <is>
-          <t>2022-12-02 14:40:59</t>
+          <t>2022-12-02 20:49:28</t>
         </is>
       </c>
     </row>
@@ -26208,7 +26208,7 @@
       </c>
       <c r="O375" t="inlineStr">
         <is>
-          <t>2022-12-02 14:40:59</t>
+          <t>2022-12-02 20:49:28</t>
         </is>
       </c>
     </row>
@@ -26281,7 +26281,7 @@
       </c>
       <c r="O376" t="inlineStr">
         <is>
-          <t>2022-12-02 14:40:59</t>
+          <t>2022-12-02 20:49:28</t>
         </is>
       </c>
     </row>
@@ -26354,7 +26354,7 @@
       </c>
       <c r="O377" t="inlineStr">
         <is>
-          <t>2022-12-02 14:40:59</t>
+          <t>2022-12-02 20:49:28</t>
         </is>
       </c>
     </row>
@@ -26423,7 +26423,7 @@
       <c r="N378" t="inlineStr"/>
       <c r="O378" t="inlineStr">
         <is>
-          <t>2022-12-02 14:40:59</t>
+          <t>2022-12-02 20:49:28</t>
         </is>
       </c>
     </row>
@@ -26488,7 +26488,7 @@
       <c r="N379" t="inlineStr"/>
       <c r="O379" t="inlineStr">
         <is>
-          <t>2022-12-02 14:40:59</t>
+          <t>2022-12-02 20:49:28</t>
         </is>
       </c>
     </row>
@@ -26561,7 +26561,7 @@
       </c>
       <c r="O380" t="inlineStr">
         <is>
-          <t>2022-12-02 14:40:59</t>
+          <t>2022-12-02 20:49:28</t>
         </is>
       </c>
     </row>
@@ -26634,7 +26634,7 @@
       </c>
       <c r="O381" t="inlineStr">
         <is>
-          <t>2022-12-02 14:40:59</t>
+          <t>2022-12-02 20:49:28</t>
         </is>
       </c>
     </row>
@@ -26707,7 +26707,7 @@
       </c>
       <c r="O382" t="inlineStr">
         <is>
-          <t>2022-12-02 14:40:59</t>
+          <t>2022-12-02 20:49:28</t>
         </is>
       </c>
     </row>
@@ -26780,7 +26780,7 @@
       </c>
       <c r="O383" t="inlineStr">
         <is>
-          <t>2022-12-02 14:40:59</t>
+          <t>2022-12-02 20:49:28</t>
         </is>
       </c>
     </row>
@@ -26853,7 +26853,7 @@
       </c>
       <c r="O384" t="inlineStr">
         <is>
-          <t>2022-12-02 14:40:59</t>
+          <t>2022-12-02 20:49:28</t>
         </is>
       </c>
     </row>
@@ -26918,7 +26918,7 @@
       <c r="N385" t="inlineStr"/>
       <c r="O385" t="inlineStr">
         <is>
-          <t>2022-12-02 14:40:59</t>
+          <t>2022-12-02 20:49:28</t>
         </is>
       </c>
     </row>
@@ -26987,7 +26987,7 @@
       <c r="N386" t="inlineStr"/>
       <c r="O386" t="inlineStr">
         <is>
-          <t>2022-12-02 14:40:59</t>
+          <t>2022-12-02 20:49:28</t>
         </is>
       </c>
     </row>
@@ -27060,7 +27060,7 @@
       </c>
       <c r="O387" t="inlineStr">
         <is>
-          <t>2022-12-02 14:40:59</t>
+          <t>2022-12-02 20:49:28</t>
         </is>
       </c>
     </row>
@@ -27072,12 +27072,12 @@
       </c>
       <c r="B388" t="inlineStr">
         <is>
-          <t>Outlawz Food vegan Trockenfleisch</t>
+          <t>Outlawz Food Trockenfleisch vegan</t>
         </is>
       </c>
       <c r="C388" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/fruechte-gemuese/pflanzliche-alternativen-zu-fleisch/outlawz-food-vegan-trockenfleisch/p/7029986</t>
+          <t>/de/lebensmittel/fruechte-gemuese/pflanzliche-alternativen-zu-fleisch/outlawz-food-trockenfleisch-vegan/p/7029986</t>
         </is>
       </c>
       <c r="D388" t="n">
@@ -27123,7 +27123,7 @@
       </c>
       <c r="M388" t="inlineStr">
         <is>
-          <t>Outlawz Food vegan Trockenfleisch 4.95 Schweizer Franken</t>
+          <t>Outlawz Food Trockenfleisch vegan 4.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="N388" t="inlineStr">
@@ -27133,7 +27133,7 @@
       </c>
       <c r="O388" t="inlineStr">
         <is>
-          <t>2022-12-02 14:40:59</t>
+          <t>2022-12-02 20:49:28</t>
         </is>
       </c>
     </row>
@@ -27202,7 +27202,7 @@
       <c r="N389" t="inlineStr"/>
       <c r="O389" t="inlineStr">
         <is>
-          <t>2022-12-02 14:40:59</t>
+          <t>2022-12-02 20:49:28</t>
         </is>
       </c>
     </row>
@@ -27214,12 +27214,12 @@
       </c>
       <c r="B390" t="inlineStr">
         <is>
-          <t>Betty Bossi Wähen Mix Kürbis</t>
+          <t>Betty Bossi Wähe Mix Kürbis</t>
         </is>
       </c>
       <c r="C390" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/fruechte-gemuese/weiteres-gemuese/vorbereitetes-gemuese/betty-bossi-waehen-mix-kuerbis/p/6862382</t>
+          <t>/de/lebensmittel/fruechte-gemuese/weiteres-gemuese/vorbereitetes-gemuese/betty-bossi-waehe-mix-kuerbis/p/6862382</t>
         </is>
       </c>
       <c r="D390" t="n">
@@ -27265,7 +27265,7 @@
       </c>
       <c r="M390" t="inlineStr">
         <is>
-          <t>Betty Bossi Wähen Mix Kürbis 5.50 Schweizer Franken</t>
+          <t>Betty Bossi Wähe Mix Kürbis 5.50 Schweizer Franken</t>
         </is>
       </c>
       <c r="N390" t="inlineStr">
@@ -27275,7 +27275,7 @@
       </c>
       <c r="O390" t="inlineStr">
         <is>
-          <t>2022-12-02 14:40:59</t>
+          <t>2022-12-02 20:49:28</t>
         </is>
       </c>
     </row>
@@ -27348,7 +27348,7 @@
       </c>
       <c r="O391" t="inlineStr">
         <is>
-          <t>2022-12-02 14:40:59</t>
+          <t>2022-12-02 20:49:28</t>
         </is>
       </c>
     </row>
@@ -27411,7 +27411,7 @@
       <c r="N392" t="inlineStr"/>
       <c r="O392" t="inlineStr">
         <is>
-          <t>2022-12-02 14:40:59</t>
+          <t>2022-12-02 20:49:28</t>
         </is>
       </c>
     </row>
@@ -27484,7 +27484,7 @@
       </c>
       <c r="O393" t="inlineStr">
         <is>
-          <t>2022-12-02 14:40:59</t>
+          <t>2022-12-02 20:49:28</t>
         </is>
       </c>
     </row>
@@ -27557,7 +27557,7 @@
       </c>
       <c r="O394" t="inlineStr">
         <is>
-          <t>2022-12-02 14:40:59</t>
+          <t>2022-12-02 20:49:28</t>
         </is>
       </c>
     </row>
@@ -27620,7 +27620,7 @@
       <c r="N395" t="inlineStr"/>
       <c r="O395" t="inlineStr">
         <is>
-          <t>2022-12-02 14:40:59</t>
+          <t>2022-12-02 20:49:28</t>
         </is>
       </c>
     </row>
@@ -27693,7 +27693,7 @@
       </c>
       <c r="O396" t="inlineStr">
         <is>
-          <t>2022-12-02 14:40:59</t>
+          <t>2022-12-02 20:49:28</t>
         </is>
       </c>
     </row>
@@ -27766,7 +27766,7 @@
       </c>
       <c r="O397" t="inlineStr">
         <is>
-          <t>2022-12-02 14:40:59</t>
+          <t>2022-12-02 20:49:28</t>
         </is>
       </c>
     </row>
@@ -27835,7 +27835,7 @@
       <c r="N398" t="inlineStr"/>
       <c r="O398" t="inlineStr">
         <is>
-          <t>2022-12-02 14:40:59</t>
+          <t>2022-12-02 20:49:28</t>
         </is>
       </c>
     </row>
@@ -27908,7 +27908,7 @@
       </c>
       <c r="O399" t="inlineStr">
         <is>
-          <t>2022-12-02 14:40:59</t>
+          <t>2022-12-02 20:49:28</t>
         </is>
       </c>
     </row>
@@ -27981,7 +27981,7 @@
       </c>
       <c r="O400" t="inlineStr">
         <is>
-          <t>2022-12-02 14:40:59</t>
+          <t>2022-12-02 20:49:28</t>
         </is>
       </c>
     </row>
@@ -28054,7 +28054,7 @@
       </c>
       <c r="O401" t="inlineStr">
         <is>
-          <t>2022-12-02 14:40:59</t>
+          <t>2022-12-02 20:49:28</t>
         </is>
       </c>
     </row>
@@ -28119,7 +28119,7 @@
       <c r="N402" t="inlineStr"/>
       <c r="O402" t="inlineStr">
         <is>
-          <t>2022-12-02 14:40:59</t>
+          <t>2022-12-02 20:49:28</t>
         </is>
       </c>
     </row>
@@ -28192,7 +28192,7 @@
       </c>
       <c r="O403" t="inlineStr">
         <is>
-          <t>2022-12-02 14:40:59</t>
+          <t>2022-12-02 20:49:28</t>
         </is>
       </c>
     </row>
@@ -28265,7 +28265,7 @@
       </c>
       <c r="O404" t="inlineStr">
         <is>
-          <t>2022-12-02 14:40:59</t>
+          <t>2022-12-02 20:49:28</t>
         </is>
       </c>
     </row>
@@ -28338,7 +28338,7 @@
       </c>
       <c r="O405" t="inlineStr">
         <is>
-          <t>2022-12-02 14:40:59</t>
+          <t>2022-12-02 20:49:28</t>
         </is>
       </c>
     </row>
@@ -28411,7 +28411,7 @@
       </c>
       <c r="O406" t="inlineStr">
         <is>
-          <t>2022-12-02 14:40:59</t>
+          <t>2022-12-02 20:49:28</t>
         </is>
       </c>
     </row>
@@ -28423,12 +28423,12 @@
       </c>
       <c r="B407" t="inlineStr">
         <is>
-          <t>Naturaplan Bio Demeter Kürbis Mandarin 1 Stück</t>
+          <t>Naturaplan Bio Demeter Kürbis Mandarin</t>
         </is>
       </c>
       <c r="C407" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/fruechte-gemuese/weiteres-gemuese/zucchetti-kuerbis-aubergine/naturaplan-bio-demeter-kuerbis-mandarin-1-stueck/p/7038735</t>
+          <t>/de/lebensmittel/fruechte-gemuese/weiteres-gemuese/zucchetti-kuerbis-aubergine/naturaplan-bio-demeter-kuerbis-mandarin/p/7038735</t>
         </is>
       </c>
       <c r="D407" t="n">
@@ -28458,13 +28458,13 @@
       </c>
       <c r="M407" t="inlineStr">
         <is>
-          <t>Naturaplan Bio Demeter Kürbis Mandarin 1 Stück 3.95 Schweizer Franken</t>
+          <t>Naturaplan Bio Demeter Kürbis Mandarin 3.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="N407" t="inlineStr"/>
       <c r="O407" t="inlineStr">
         <is>
-          <t>2022-12-02 14:40:59</t>
+          <t>2022-12-02 20:49:28</t>
         </is>
       </c>
     </row>
@@ -28537,7 +28537,7 @@
       </c>
       <c r="O408" t="inlineStr">
         <is>
-          <t>2022-12-02 14:40:59</t>
+          <t>2022-12-02 20:49:28</t>
         </is>
       </c>
     </row>
@@ -28608,7 +28608,7 @@
       </c>
       <c r="O409" t="inlineStr">
         <is>
-          <t>2022-12-02 14:40:59</t>
+          <t>2022-12-02 20:49:28</t>
         </is>
       </c>
     </row>
@@ -28681,7 +28681,7 @@
       </c>
       <c r="O410" t="inlineStr">
         <is>
-          <t>2022-12-02 14:40:59</t>
+          <t>2022-12-02 20:49:28</t>
         </is>
       </c>
     </row>
@@ -28750,7 +28750,7 @@
       <c r="N411" t="inlineStr"/>
       <c r="O411" t="inlineStr">
         <is>
-          <t>2022-12-02 14:40:59</t>
+          <t>2022-12-02 20:49:28</t>
         </is>
       </c>
     </row>
@@ -28823,7 +28823,7 @@
       </c>
       <c r="O412" t="inlineStr">
         <is>
-          <t>2022-12-02 14:40:59</t>
+          <t>2022-12-02 20:49:28</t>
         </is>
       </c>
     </row>
@@ -28892,7 +28892,7 @@
       <c r="N413" t="inlineStr"/>
       <c r="O413" t="inlineStr">
         <is>
-          <t>2022-12-02 14:40:59</t>
+          <t>2022-12-02 20:49:28</t>
         </is>
       </c>
     </row>
@@ -28961,7 +28961,7 @@
       <c r="N414" t="inlineStr"/>
       <c r="O414" t="inlineStr">
         <is>
-          <t>2022-12-02 14:40:59</t>
+          <t>2022-12-02 20:49:28</t>
         </is>
       </c>
     </row>
@@ -29030,7 +29030,7 @@
       <c r="N415" t="inlineStr"/>
       <c r="O415" t="inlineStr">
         <is>
-          <t>2022-12-02 14:40:59</t>
+          <t>2022-12-02 20:49:28</t>
         </is>
       </c>
     </row>
@@ -29097,7 +29097,7 @@
       <c r="N416" t="inlineStr"/>
       <c r="O416" t="inlineStr">
         <is>
-          <t>2022-12-02 14:40:59</t>
+          <t>2022-12-02 20:49:28</t>
         </is>
       </c>
     </row>
@@ -29164,7 +29164,7 @@
       <c r="N417" t="inlineStr"/>
       <c r="O417" t="inlineStr">
         <is>
-          <t>2022-12-02 14:40:59</t>
+          <t>2022-12-02 20:49:28</t>
         </is>
       </c>
     </row>
@@ -29233,7 +29233,7 @@
       <c r="N418" t="inlineStr"/>
       <c r="O418" t="inlineStr">
         <is>
-          <t>2022-12-02 14:40:59</t>
+          <t>2022-12-02 20:49:28</t>
         </is>
       </c>
     </row>
@@ -29302,7 +29302,7 @@
       <c r="N419" t="inlineStr"/>
       <c r="O419" t="inlineStr">
         <is>
-          <t>2022-12-02 14:40:59</t>
+          <t>2022-12-02 20:49:28</t>
         </is>
       </c>
     </row>
@@ -29375,45 +29375,45 @@
       </c>
       <c r="O420" t="inlineStr">
         <is>
-          <t>2022-12-02 14:40:59</t>
+          <t>2022-12-02 20:49:28</t>
         </is>
       </c>
     </row>
     <row r="421">
       <c r="A421" t="inlineStr">
         <is>
-          <t>4437751</t>
+          <t>7038142</t>
         </is>
       </c>
       <c r="B421" t="inlineStr">
         <is>
-          <t>Naturaplan Bio Pro Specie Rara Portulak</t>
+          <t>Garden Gourmet Crispy Filet</t>
         </is>
       </c>
       <c r="C421" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/fruechte-gemuese/weiteres-gemuese/blattgemuese-artischocken/naturaplan-bio-pro-specie-rara-portulak/p/4437751</t>
+          <t>/de/lebensmittel/fruechte-gemuese/pflanzliche-alternativen-zu-fleisch/garden-gourmet-crispy-filet/p/7038142</t>
         </is>
       </c>
       <c r="D421" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="E421" t="n">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="F421" t="inlineStr">
         <is>
-          <t>Coop</t>
+          <t>Garden Gourmet</t>
         </is>
       </c>
       <c r="G421" t="inlineStr">
         <is>
-          <t>2.95</t>
+          <t>5.95</t>
         </is>
       </c>
       <c r="H421" t="inlineStr">
         <is>
-          <t>2.95/100g</t>
+          <t>3.13/100g</t>
         </is>
       </c>
       <c r="I421" t="inlineStr">
@@ -29423,7 +29423,7 @@
       </c>
       <c r="J421" t="inlineStr">
         <is>
-          <t>2.95</t>
+          <t>3.13</t>
         </is>
       </c>
       <c r="K421" t="inlineStr">
@@ -29433,56 +29433,60 @@
       </c>
       <c r="L421" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'fruechte-gemuese', 'weiteres-gemuese', 'blattgemuese-artischocken']</t>
+          <t>['lebensmittel', 'fruechte-gemuese', 'pflanzliche-alternativen-zu-fleisch']</t>
         </is>
       </c>
       <c r="M421" t="inlineStr">
         <is>
-          <t>Naturaplan Bio Pro Specie Rara Portulak 2.95 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N421" t="inlineStr"/>
+          <t>Garden Gourmet Crispy Filet 5.95 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N421" t="inlineStr">
+        <is>
+          <t>['chilled', 'vegan', 'vegetarian']</t>
+        </is>
+      </c>
       <c r="O421" t="inlineStr">
         <is>
-          <t>2022-12-02 14:40:59</t>
+          <t>2022-12-02 20:49:28</t>
         </is>
       </c>
     </row>
     <row r="422">
       <c r="A422" t="inlineStr">
         <is>
-          <t>6881493</t>
+          <t>4437751</t>
         </is>
       </c>
       <c r="B422" t="inlineStr">
         <is>
-          <t>Yolo Cevapcici</t>
+          <t>Naturaplan Bio Pro Specie Rara Portulak</t>
         </is>
       </c>
       <c r="C422" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/fruechte-gemuese/pflanzliche-alternativen-zu-fleisch/yolo-cevapcici/p/6881493</t>
+          <t>/de/lebensmittel/fruechte-gemuese/weiteres-gemuese/blattgemuese-artischocken/naturaplan-bio-pro-specie-rara-portulak/p/4437751</t>
         </is>
       </c>
       <c r="D422" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="E422" t="n">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="F422" t="inlineStr">
         <is>
-          <t>Yolo</t>
+          <t>Coop</t>
         </is>
       </c>
       <c r="G422" t="inlineStr">
         <is>
-          <t>4.95</t>
+          <t>2.95</t>
         </is>
       </c>
       <c r="H422" t="inlineStr">
         <is>
-          <t>2.06/100g</t>
+          <t>2.95/100g</t>
         </is>
       </c>
       <c r="I422" t="inlineStr">
@@ -29492,7 +29496,7 @@
       </c>
       <c r="J422" t="inlineStr">
         <is>
-          <t>2.06</t>
+          <t>2.95</t>
         </is>
       </c>
       <c r="K422" t="inlineStr">
@@ -29502,60 +29506,56 @@
       </c>
       <c r="L422" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'fruechte-gemuese', 'pflanzliche-alternativen-zu-fleisch']</t>
+          <t>['lebensmittel', 'fruechte-gemuese', 'weiteres-gemuese', 'blattgemuese-artischocken']</t>
         </is>
       </c>
       <c r="M422" t="inlineStr">
         <is>
-          <t>Yolo Cevapcici 4.95 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N422" t="inlineStr">
-        <is>
-          <t>['chilled', 'vegan', 'vegetarian']</t>
-        </is>
-      </c>
+          <t>Naturaplan Bio Pro Specie Rara Portulak 2.95 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N422" t="inlineStr"/>
       <c r="O422" t="inlineStr">
         <is>
-          <t>2022-12-02 14:40:59</t>
+          <t>2022-12-02 20:49:28</t>
         </is>
       </c>
     </row>
     <row r="423">
       <c r="A423" t="inlineStr">
         <is>
-          <t>7038142</t>
+          <t>6881493</t>
         </is>
       </c>
       <c r="B423" t="inlineStr">
         <is>
-          <t>Garden Gourmet Crispy Filet</t>
+          <t>Yolo Cevapcici</t>
         </is>
       </c>
       <c r="C423" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/fruechte-gemuese/pflanzliche-alternativen-zu-fleisch/garden-gourmet-crispy-filet/p/7038142</t>
+          <t>/de/lebensmittel/fruechte-gemuese/pflanzliche-alternativen-zu-fleisch/yolo-cevapcici/p/6881493</t>
         </is>
       </c>
       <c r="D423" t="n">
         <v>7</v>
       </c>
       <c r="E423" t="n">
-        <v>4.5</v>
+        <v>3.5</v>
       </c>
       <c r="F423" t="inlineStr">
         <is>
-          <t>Garden Gourmet</t>
+          <t>Yolo</t>
         </is>
       </c>
       <c r="G423" t="inlineStr">
         <is>
-          <t>5.95</t>
+          <t>4.95</t>
         </is>
       </c>
       <c r="H423" t="inlineStr">
         <is>
-          <t>3.13/100g</t>
+          <t>2.06/100g</t>
         </is>
       </c>
       <c r="I423" t="inlineStr">
@@ -29565,7 +29565,7 @@
       </c>
       <c r="J423" t="inlineStr">
         <is>
-          <t>3.13</t>
+          <t>2.06</t>
         </is>
       </c>
       <c r="K423" t="inlineStr">
@@ -29580,7 +29580,7 @@
       </c>
       <c r="M423" t="inlineStr">
         <is>
-          <t>Garden Gourmet Crispy Filet 5.95 Schweizer Franken</t>
+          <t>Yolo Cevapcici 4.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="N423" t="inlineStr">
@@ -29590,7 +29590,7 @@
       </c>
       <c r="O423" t="inlineStr">
         <is>
-          <t>2022-12-02 14:40:59</t>
+          <t>2022-12-02 20:49:28</t>
         </is>
       </c>
     </row>
@@ -29655,7 +29655,7 @@
       <c r="N424" t="inlineStr"/>
       <c r="O424" t="inlineStr">
         <is>
-          <t>2022-12-02 14:40:59</t>
+          <t>2022-12-02 20:49:28</t>
         </is>
       </c>
     </row>
@@ -29724,7 +29724,7 @@
       <c r="N425" t="inlineStr"/>
       <c r="O425" t="inlineStr">
         <is>
-          <t>2022-12-02 14:40:59</t>
+          <t>2022-12-02 20:49:28</t>
         </is>
       </c>
     </row>
@@ -29797,7 +29797,7 @@
       </c>
       <c r="O426" t="inlineStr">
         <is>
-          <t>2022-12-02 14:40:59</t>
+          <t>2022-12-02 20:49:28</t>
         </is>
       </c>
     </row>
@@ -29866,7 +29866,7 @@
       <c r="N427" t="inlineStr"/>
       <c r="O427" t="inlineStr">
         <is>
-          <t>2022-12-02 14:40:59</t>
+          <t>2022-12-02 20:49:28</t>
         </is>
       </c>
     </row>
@@ -29939,7 +29939,7 @@
       </c>
       <c r="O428" t="inlineStr">
         <is>
-          <t>2022-12-02 14:40:59</t>
+          <t>2022-12-02 20:49:28</t>
         </is>
       </c>
     </row>
@@ -30010,7 +30010,7 @@
       </c>
       <c r="O429" t="inlineStr">
         <is>
-          <t>2022-12-02 14:40:59</t>
+          <t>2022-12-02 20:49:28</t>
         </is>
       </c>
     </row>
@@ -30075,7 +30075,7 @@
       <c r="N430" t="inlineStr"/>
       <c r="O430" t="inlineStr">
         <is>
-          <t>2022-12-02 14:40:59</t>
+          <t>2022-12-02 20:49:28</t>
         </is>
       </c>
     </row>
@@ -30148,7 +30148,7 @@
       </c>
       <c r="O431" t="inlineStr">
         <is>
-          <t>2022-12-02 14:40:59</t>
+          <t>2022-12-02 20:49:28</t>
         </is>
       </c>
     </row>
@@ -30221,7 +30221,7 @@
       </c>
       <c r="O432" t="inlineStr">
         <is>
-          <t>2022-12-02 14:40:59</t>
+          <t>2022-12-02 20:49:28</t>
         </is>
       </c>
     </row>
@@ -30294,7 +30294,7 @@
       </c>
       <c r="O433" t="inlineStr">
         <is>
-          <t>2022-12-02 14:40:59</t>
+          <t>2022-12-02 20:49:28</t>
         </is>
       </c>
     </row>
@@ -30367,29 +30367,31 @@
       </c>
       <c r="O434" t="inlineStr">
         <is>
-          <t>2022-12-02 14:40:59</t>
+          <t>2022-12-02 20:49:28</t>
         </is>
       </c>
     </row>
     <row r="435">
       <c r="A435" t="inlineStr">
         <is>
-          <t>6986288</t>
+          <t>6862384</t>
         </is>
       </c>
       <c r="B435" t="inlineStr">
         <is>
-          <t>Naturaplan Bio Kichererbsen &amp;amp; Süsskartoffeln</t>
+          <t>Betty Bossi Suppen Mix</t>
         </is>
       </c>
       <c r="C435" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/fertiggerichte/frische-fertiggerichte/fertige-salate/naturaplan-bio-kichererbsen-suesskartoffeln/p/6986288</t>
-        </is>
-      </c>
-      <c r="D435" t="inlineStr"/>
+          <t>/de/lebensmittel/fruechte-gemuese/weiteres-gemuese/vorbereitetes-gemuese/betty-bossi-suppen-mix/p/6862384</t>
+        </is>
+      </c>
+      <c r="D435" t="n">
+        <v>1</v>
+      </c>
       <c r="E435" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F435" t="inlineStr">
         <is>
@@ -30403,7 +30405,7 @@
       </c>
       <c r="H435" t="inlineStr">
         <is>
-          <t>2.50/100g</t>
+          <t>0.90/100g</t>
         </is>
       </c>
       <c r="I435" t="inlineStr">
@@ -30413,7 +30415,7 @@
       </c>
       <c r="J435" t="inlineStr">
         <is>
-          <t>2.50</t>
+          <t>0.90</t>
         </is>
       </c>
       <c r="K435" t="inlineStr">
@@ -30423,46 +30425,40 @@
       </c>
       <c r="L435" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'fertiggerichte', 'frische-fertiggerichte', 'fertige-salate']</t>
+          <t>['lebensmittel', 'fruechte-gemuese', 'weiteres-gemuese', 'vorbereitetes-gemuese']</t>
         </is>
       </c>
       <c r="M435" t="inlineStr">
         <is>
-          <t>Naturaplan Bio Kichererbsen &amp;amp; Süsskartoffeln 4.50 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N435" t="inlineStr">
-        <is>
-          <t>['chilled', 'vegan', 'vegetarian']</t>
-        </is>
-      </c>
+          <t>Betty Bossi Suppen Mix 4.50 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N435" t="inlineStr"/>
       <c r="O435" t="inlineStr">
         <is>
-          <t>2022-12-02 14:40:59</t>
+          <t>2022-12-02 20:49:28</t>
         </is>
       </c>
     </row>
     <row r="436">
       <c r="A436" t="inlineStr">
         <is>
-          <t>6862384</t>
+          <t>6986288</t>
         </is>
       </c>
       <c r="B436" t="inlineStr">
         <is>
-          <t>Betty Bossi Suppen Mix</t>
+          <t>Naturaplan Bio Kichererbsen &amp;amp; Süsskartoffeln</t>
         </is>
       </c>
       <c r="C436" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/fruechte-gemuese/weiteres-gemuese/vorbereitetes-gemuese/betty-bossi-suppen-mix/p/6862384</t>
-        </is>
-      </c>
-      <c r="D436" t="n">
-        <v>1</v>
-      </c>
+          <t>/de/lebensmittel/fertiggerichte/frische-fertiggerichte/fertige-salate/naturaplan-bio-kichererbsen-suesskartoffeln/p/6986288</t>
+        </is>
+      </c>
+      <c r="D436" t="inlineStr"/>
       <c r="E436" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F436" t="inlineStr">
         <is>
@@ -30476,7 +30472,7 @@
       </c>
       <c r="H436" t="inlineStr">
         <is>
-          <t>0.90/100g</t>
+          <t>2.50/100g</t>
         </is>
       </c>
       <c r="I436" t="inlineStr">
@@ -30486,7 +30482,7 @@
       </c>
       <c r="J436" t="inlineStr">
         <is>
-          <t>0.90</t>
+          <t>2.50</t>
         </is>
       </c>
       <c r="K436" t="inlineStr">
@@ -30496,18 +30492,22 @@
       </c>
       <c r="L436" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'fruechte-gemuese', 'weiteres-gemuese', 'vorbereitetes-gemuese']</t>
+          <t>['lebensmittel', 'fertiggerichte', 'frische-fertiggerichte', 'fertige-salate']</t>
         </is>
       </c>
       <c r="M436" t="inlineStr">
         <is>
-          <t>Betty Bossi Suppen Mix 4.50 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N436" t="inlineStr"/>
+          <t>Naturaplan Bio Kichererbsen &amp;amp; Süsskartoffeln 4.50 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N436" t="inlineStr">
+        <is>
+          <t>['chilled', 'vegan', 'vegetarian']</t>
+        </is>
+      </c>
       <c r="O436" t="inlineStr">
         <is>
-          <t>2022-12-02 14:40:59</t>
+          <t>2022-12-02 20:49:28</t>
         </is>
       </c>
     </row>
@@ -30580,7 +30580,7 @@
       </c>
       <c r="O437" t="inlineStr">
         <is>
-          <t>2022-12-02 14:40:59</t>
+          <t>2022-12-02 20:49:28</t>
         </is>
       </c>
     </row>
@@ -30653,7 +30653,7 @@
       </c>
       <c r="O438" t="inlineStr">
         <is>
-          <t>2022-12-02 14:40:59</t>
+          <t>2022-12-02 20:49:28</t>
         </is>
       </c>
     </row>
@@ -30726,7 +30726,7 @@
       </c>
       <c r="O439" t="inlineStr">
         <is>
-          <t>2022-12-02 14:40:59</t>
+          <t>2022-12-02 20:49:28</t>
         </is>
       </c>
     </row>
@@ -30799,7 +30799,7 @@
       </c>
       <c r="O440" t="inlineStr">
         <is>
-          <t>2022-12-02 14:40:59</t>
+          <t>2022-12-02 20:49:28</t>
         </is>
       </c>
     </row>
@@ -30811,12 +30811,12 @@
       </c>
       <c r="B441" t="inlineStr">
         <is>
-          <t>Kürbis Butternuss halbiert ca. 1.2kg</t>
+          <t>Kürbis Butternuss halbiert 1.2kg</t>
         </is>
       </c>
       <c r="C441" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/fruechte-gemuese/weiteres-gemuese/zucchetti-kuerbis-aubergine/kuerbis-butternuss-halbiert-ca/p/7042359</t>
+          <t>/de/lebensmittel/fruechte-gemuese/weiteres-gemuese/zucchetti-kuerbis-aubergine/kuerbis-butternuss-halbiert/p/7042359</t>
         </is>
       </c>
       <c r="D441" t="inlineStr"/>
@@ -30856,13 +30856,13 @@
       </c>
       <c r="M441" t="inlineStr">
         <is>
-          <t>Kürbis Butternuss halbiert ca. 1.2kg 5.95 Schweizer Franken</t>
+          <t>Kürbis Butternuss halbiert 1.2kg 5.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="N441" t="inlineStr"/>
       <c r="O441" t="inlineStr">
         <is>
-          <t>2022-12-02 14:40:59</t>
+          <t>2022-12-02 20:49:28</t>
         </is>
       </c>
     </row>
@@ -30935,7 +30935,7 @@
       </c>
       <c r="O442" t="inlineStr">
         <is>
-          <t>2022-12-02 14:40:59</t>
+          <t>2022-12-02 20:49:28</t>
         </is>
       </c>
     </row>
@@ -31008,7 +31008,7 @@
       </c>
       <c r="O443" t="inlineStr">
         <is>
-          <t>2022-12-02 14:40:59</t>
+          <t>2022-12-02 20:49:28</t>
         </is>
       </c>
     </row>
@@ -31081,7 +31081,7 @@
       </c>
       <c r="O444" t="inlineStr">
         <is>
-          <t>2022-12-02 14:40:59</t>
+          <t>2022-12-02 20:49:28</t>
         </is>
       </c>
     </row>
@@ -31150,31 +31150,31 @@
       <c r="N445" t="inlineStr"/>
       <c r="O445" t="inlineStr">
         <is>
-          <t>2022-12-02 14:40:59</t>
+          <t>2022-12-02 20:49:28</t>
         </is>
       </c>
     </row>
     <row r="446">
       <c r="A446" t="inlineStr">
         <is>
-          <t>6289137</t>
+          <t>6862503</t>
         </is>
       </c>
       <c r="B446" t="inlineStr">
         <is>
-          <t>Naturaplan Bio Pro Sepcie Rara Rettich schwarz ca. 1kg</t>
+          <t>Betty Bossi Sous vide Karotten</t>
         </is>
       </c>
       <c r="C446" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/fruechte-gemuese/salatgemuese/radieschen-rettich/naturaplan-bio-pro-sepcie-rara-rettich-schwarz-ca/p/6289137</t>
+          <t>/de/lebensmittel/fruechte-gemuese/weiteres-gemuese/vorbereitetes-gemuese/betty-bossi-sous-vide-karotten/p/6862503</t>
         </is>
       </c>
       <c r="D446" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="E446" t="n">
-        <v>4</v>
+        <v>2.5</v>
       </c>
       <c r="F446" t="inlineStr">
         <is>
@@ -31183,67 +31183,71 @@
       </c>
       <c r="G446" t="inlineStr">
         <is>
-          <t>5.95</t>
+          <t>4.95</t>
         </is>
       </c>
       <c r="H446" t="inlineStr">
         <is>
-          <t>5.95/1kg</t>
+          <t>1.24/100g</t>
         </is>
       </c>
       <c r="I446" t="inlineStr">
         <is>
-          <t>Preis pro 1 Kilogramm</t>
+          <t>Preis pro 100 Gramm</t>
         </is>
       </c>
       <c r="J446" t="inlineStr">
         <is>
-          <t>5.95</t>
+          <t>1.24</t>
         </is>
       </c>
       <c r="K446" t="inlineStr">
         <is>
-          <t>1kg</t>
+          <t>100g</t>
         </is>
       </c>
       <c r="L446" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'fruechte-gemuese', 'salatgemuese', 'radieschen-rettich']</t>
+          <t>['lebensmittel', 'fruechte-gemuese', 'weiteres-gemuese', 'vorbereitetes-gemuese']</t>
         </is>
       </c>
       <c r="M446" t="inlineStr">
         <is>
-          <t>Naturaplan Bio Pro Sepcie Rara Rettich schwarz ca. 1kg 5.95 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N446" t="inlineStr"/>
+          <t>Betty Bossi Sous vide Karotten 4.95 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N446" t="inlineStr">
+        <is>
+          <t>['vegan', 'vegetarian']</t>
+        </is>
+      </c>
       <c r="O446" t="inlineStr">
         <is>
-          <t>2022-12-02 14:40:59</t>
+          <t>2022-12-02 20:49:28</t>
         </is>
       </c>
     </row>
     <row r="447">
       <c r="A447" t="inlineStr">
         <is>
-          <t>6862503</t>
+          <t>6289137</t>
         </is>
       </c>
       <c r="B447" t="inlineStr">
         <is>
-          <t>Betty Bossi Sous vide Karotten</t>
+          <t>Naturaplan Bio Pro Sepcie Rara Rettich schwarz ca. 1kg</t>
         </is>
       </c>
       <c r="C447" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/fruechte-gemuese/weiteres-gemuese/vorbereitetes-gemuese/betty-bossi-sous-vide-karotten/p/6862503</t>
+          <t>/de/lebensmittel/fruechte-gemuese/salatgemuese/radieschen-rettich/naturaplan-bio-pro-sepcie-rara-rettich-schwarz-ca/p/6289137</t>
         </is>
       </c>
       <c r="D447" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="E447" t="n">
-        <v>2.5</v>
+        <v>4</v>
       </c>
       <c r="F447" t="inlineStr">
         <is>
@@ -31252,47 +31256,43 @@
       </c>
       <c r="G447" t="inlineStr">
         <is>
-          <t>4.95</t>
+          <t>5.95</t>
         </is>
       </c>
       <c r="H447" t="inlineStr">
         <is>
-          <t>1.24/100g</t>
+          <t>5.95/1kg</t>
         </is>
       </c>
       <c r="I447" t="inlineStr">
         <is>
-          <t>Preis pro 100 Gramm</t>
+          <t>Preis pro 1 Kilogramm</t>
         </is>
       </c>
       <c r="J447" t="inlineStr">
         <is>
-          <t>1.24</t>
+          <t>5.95</t>
         </is>
       </c>
       <c r="K447" t="inlineStr">
         <is>
-          <t>100g</t>
+          <t>1kg</t>
         </is>
       </c>
       <c r="L447" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'fruechte-gemuese', 'weiteres-gemuese', 'vorbereitetes-gemuese']</t>
+          <t>['lebensmittel', 'fruechte-gemuese', 'salatgemuese', 'radieschen-rettich']</t>
         </is>
       </c>
       <c r="M447" t="inlineStr">
         <is>
-          <t>Betty Bossi Sous vide Karotten 4.95 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N447" t="inlineStr">
-        <is>
-          <t>['vegan', 'vegetarian']</t>
-        </is>
-      </c>
+          <t>Naturaplan Bio Pro Sepcie Rara Rettich schwarz ca. 1kg 5.95 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N447" t="inlineStr"/>
       <c r="O447" t="inlineStr">
         <is>
-          <t>2022-12-02 14:40:59</t>
+          <t>2022-12-02 20:49:28</t>
         </is>
       </c>
     </row>
@@ -31355,7 +31355,7 @@
       <c r="N448" t="inlineStr"/>
       <c r="O448" t="inlineStr">
         <is>
-          <t>2022-12-02 14:40:59</t>
+          <t>2022-12-02 20:49:28</t>
         </is>
       </c>
     </row>
@@ -31420,7 +31420,7 @@
       <c r="N449" t="inlineStr"/>
       <c r="O449" t="inlineStr">
         <is>
-          <t>2022-12-02 14:40:59</t>
+          <t>2022-12-02 20:49:28</t>
         </is>
       </c>
     </row>
@@ -31493,7 +31493,7 @@
       </c>
       <c r="O450" t="inlineStr">
         <is>
-          <t>2022-12-02 14:40:59</t>
+          <t>2022-12-02 20:49:28</t>
         </is>
       </c>
     </row>
@@ -31566,7 +31566,7 @@
       </c>
       <c r="O451" t="inlineStr">
         <is>
-          <t>2022-12-02 14:40:59</t>
+          <t>2022-12-02 20:49:28</t>
         </is>
       </c>
     </row>
@@ -31615,7 +31615,7 @@
       <c r="N452" t="inlineStr"/>
       <c r="O452" t="inlineStr">
         <is>
-          <t>2022-12-02 14:40:59</t>
+          <t>2022-12-02 20:49:28</t>
         </is>
       </c>
     </row>
@@ -31688,94 +31688,100 @@
       </c>
       <c r="O453" t="inlineStr">
         <is>
-          <t>2022-12-02 14:40:59</t>
+          <t>2022-12-02 20:49:28</t>
         </is>
       </c>
     </row>
     <row r="454">
       <c r="A454" t="inlineStr">
         <is>
-          <t>7112792</t>
+          <t>6316821</t>
         </is>
       </c>
       <c r="B454" t="inlineStr">
         <is>
-          <t>Clementinen mit Blatt ca. 1kg</t>
+          <t>Naturaplan Bio Pro Specie Rara Campiuns Schwarzwurzel 500g</t>
         </is>
       </c>
       <c r="C454" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/fruechte-gemuese/fruechte/zitrusfruechte/clementinen-mit-blatt-ca/p/7112792</t>
-        </is>
-      </c>
-      <c r="D454" t="inlineStr"/>
+          <t>/de/lebensmittel/fruechte-gemuese/wurzelgemuese/naturaplan-bio-pro-specie-rara-campiuns-schwarzwurzel/p/6316821</t>
+        </is>
+      </c>
+      <c r="D454" t="n">
+        <v>13</v>
+      </c>
       <c r="E454" t="n">
-        <v>0</v>
-      </c>
-      <c r="F454" t="inlineStr"/>
+        <v>4.5</v>
+      </c>
+      <c r="F454" t="inlineStr">
+        <is>
+          <t>Coop</t>
+        </is>
+      </c>
       <c r="G454" t="inlineStr">
         <is>
-          <t>4.80</t>
+          <t>4.50</t>
         </is>
       </c>
       <c r="H454" t="inlineStr">
         <is>
-          <t>4.80/1kg</t>
+          <t>0.90/100g</t>
         </is>
       </c>
       <c r="I454" t="inlineStr">
         <is>
-          <t>Preis pro 1 Kilogramm</t>
+          <t>Preis pro 100 Gramm</t>
         </is>
       </c>
       <c r="J454" t="inlineStr">
         <is>
-          <t>4.80</t>
+          <t>0.90</t>
         </is>
       </c>
       <c r="K454" t="inlineStr">
         <is>
-          <t>1kg</t>
+          <t>100g</t>
         </is>
       </c>
       <c r="L454" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'fruechte-gemuese', 'fruechte', 'zitrusfruechte']</t>
+          <t>['lebensmittel', 'fruechte-gemuese', 'wurzelgemuese']</t>
         </is>
       </c>
       <c r="M454" t="inlineStr">
         <is>
-          <t>Clementinen mit Blatt ca. 1kg 4.80 Schweizer Franken</t>
+          <t>Naturaplan Bio Pro Specie Rara Campiuns Schwarzwurzel 500g 4.50 Schweizer Franken</t>
         </is>
       </c>
       <c r="N454" t="inlineStr"/>
       <c r="O454" t="inlineStr">
         <is>
-          <t>2022-12-02 14:40:59</t>
+          <t>2022-12-02 20:49:28</t>
         </is>
       </c>
     </row>
     <row r="455">
       <c r="A455" t="inlineStr">
         <is>
-          <t>6316821</t>
+          <t>6495113</t>
         </is>
       </c>
       <c r="B455" t="inlineStr">
         <is>
-          <t>Naturaplan Bio Pro Specie Rara Campiuns Schwarzwurzel 500g</t>
+          <t>Prix Garantie Grapefruits rot</t>
         </is>
       </c>
       <c r="C455" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/fruechte-gemuese/wurzelgemuese/naturaplan-bio-pro-specie-rara-campiuns-schwarzwurzel/p/6316821</t>
+          <t>/de/lebensmittel/fruechte-gemuese/fruechte/zitrusfruechte/prix-garantie-grapefruits-rot/p/6495113</t>
         </is>
       </c>
       <c r="D455" t="n">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="E455" t="n">
-        <v>4.5</v>
+        <v>2</v>
       </c>
       <c r="F455" t="inlineStr">
         <is>
@@ -31784,81 +31790,75 @@
       </c>
       <c r="G455" t="inlineStr">
         <is>
-          <t>4.50</t>
+          <t>2.50</t>
         </is>
       </c>
       <c r="H455" t="inlineStr">
         <is>
-          <t>0.90/100g</t>
+          <t>2.50/1kg</t>
         </is>
       </c>
       <c r="I455" t="inlineStr">
         <is>
-          <t>Preis pro 100 Gramm</t>
+          <t>Preis pro 1 Kilogramm</t>
         </is>
       </c>
       <c r="J455" t="inlineStr">
         <is>
-          <t>0.90</t>
+          <t>2.50</t>
         </is>
       </c>
       <c r="K455" t="inlineStr">
         <is>
-          <t>100g</t>
+          <t>1kg</t>
         </is>
       </c>
       <c r="L455" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'fruechte-gemuese', 'wurzelgemuese']</t>
+          <t>['lebensmittel', 'fruechte-gemuese', 'fruechte', 'zitrusfruechte']</t>
         </is>
       </c>
       <c r="M455" t="inlineStr">
         <is>
-          <t>Naturaplan Bio Pro Specie Rara Campiuns Schwarzwurzel 500g 4.50 Schweizer Franken</t>
+          <t>Prix Garantie Grapefruits rot 2.50 Schweizer Franken</t>
         </is>
       </c>
       <c r="N455" t="inlineStr"/>
       <c r="O455" t="inlineStr">
         <is>
-          <t>2022-12-02 14:40:59</t>
+          <t>2022-12-02 20:49:28</t>
         </is>
       </c>
     </row>
     <row r="456">
       <c r="A456" t="inlineStr">
         <is>
-          <t>5654728</t>
+          <t>7112792</t>
         </is>
       </c>
       <c r="B456" t="inlineStr">
         <is>
-          <t>Naturaplan Bio Pilze Heimkultur</t>
+          <t>Clementinen mit Blatt ca. 1kg</t>
         </is>
       </c>
       <c r="C456" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/fruechte-gemuese/weiteres-gemuese/pilze/naturaplan-bio-pilze-heimkultur/p/5654728</t>
-        </is>
-      </c>
-      <c r="D456" t="n">
-        <v>4</v>
-      </c>
+          <t>/de/lebensmittel/fruechte-gemuese/fruechte/zitrusfruechte/clementinen-mit-blatt-ca/p/7112792</t>
+        </is>
+      </c>
+      <c r="D456" t="inlineStr"/>
       <c r="E456" t="n">
-        <v>5</v>
-      </c>
-      <c r="F456" t="inlineStr">
-        <is>
-          <t>Coop</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="F456" t="inlineStr"/>
       <c r="G456" t="inlineStr">
         <is>
-          <t>9.95</t>
+          <t>4.80</t>
         </is>
       </c>
       <c r="H456" t="inlineStr">
         <is>
-          <t>8.29/1kg</t>
+          <t>4.80/1kg</t>
         </is>
       </c>
       <c r="I456" t="inlineStr">
@@ -31868,7 +31868,7 @@
       </c>
       <c r="J456" t="inlineStr">
         <is>
-          <t>8.29</t>
+          <t>4.80</t>
         </is>
       </c>
       <c r="K456" t="inlineStr">
@@ -31878,42 +31878,42 @@
       </c>
       <c r="L456" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'fruechte-gemuese', 'weiteres-gemuese', 'pilze']</t>
+          <t>['lebensmittel', 'fruechte-gemuese', 'fruechte', 'zitrusfruechte']</t>
         </is>
       </c>
       <c r="M456" t="inlineStr">
         <is>
-          <t>Naturaplan Bio Pilze Heimkultur 9.95 Schweizer Franken</t>
+          <t>Clementinen mit Blatt ca. 1kg 4.80 Schweizer Franken</t>
         </is>
       </c>
       <c r="N456" t="inlineStr"/>
       <c r="O456" t="inlineStr">
         <is>
-          <t>2022-12-02 14:40:59</t>
+          <t>2022-12-02 20:49:28</t>
         </is>
       </c>
     </row>
     <row r="457">
       <c r="A457" t="inlineStr">
         <is>
-          <t>3388940</t>
+          <t>5654728</t>
         </is>
       </c>
       <c r="B457" t="inlineStr">
         <is>
-          <t>Betty Bossi Mischsalat</t>
+          <t>Naturaplan Bio Pilze Heimkultur</t>
         </is>
       </c>
       <c r="C457" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/fruechte-gemuese/salate/geschnittene-salate/betty-bossi-mischsalat/p/3388940</t>
+          <t>/de/lebensmittel/fruechte-gemuese/weiteres-gemuese/pilze/naturaplan-bio-pilze-heimkultur/p/5654728</t>
         </is>
       </c>
       <c r="D457" t="n">
-        <v>66</v>
+        <v>4</v>
       </c>
       <c r="E457" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F457" t="inlineStr">
         <is>
@@ -31922,69 +31922,67 @@
       </c>
       <c r="G457" t="inlineStr">
         <is>
-          <t>3.70</t>
+          <t>9.95</t>
         </is>
       </c>
       <c r="H457" t="inlineStr">
         <is>
-          <t>0.82/100g</t>
+          <t>8.29/1kg</t>
         </is>
       </c>
       <c r="I457" t="inlineStr">
         <is>
-          <t>Preis pro 100 Gramm</t>
+          <t>Preis pro 1 Kilogramm</t>
         </is>
       </c>
       <c r="J457" t="inlineStr">
         <is>
-          <t>0.82</t>
+          <t>8.29</t>
         </is>
       </c>
       <c r="K457" t="inlineStr">
         <is>
-          <t>100g</t>
+          <t>1kg</t>
         </is>
       </c>
       <c r="L457" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'fruechte-gemuese', 'salate', 'geschnittene-salate']</t>
+          <t>['lebensmittel', 'fruechte-gemuese', 'weiteres-gemuese', 'pilze']</t>
         </is>
       </c>
       <c r="M457" t="inlineStr">
         <is>
-          <t>Betty Bossi Mischsalat Aktion Aktion 3.70 Schweizer Franken statt 4.40 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N457" t="inlineStr">
-        <is>
-          <t>['chilled']</t>
-        </is>
-      </c>
+          <t>Naturaplan Bio Pilze Heimkultur 9.95 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N457" t="inlineStr"/>
       <c r="O457" t="inlineStr">
         <is>
-          <t>2022-12-02 14:40:59</t>
+          <t>2022-12-02 20:49:28</t>
         </is>
       </c>
     </row>
     <row r="458">
       <c r="A458" t="inlineStr">
         <is>
-          <t>6986266</t>
+          <t>3388940</t>
         </is>
       </c>
       <c r="B458" t="inlineStr">
         <is>
-          <t>Naturaplan Bio Rotkabis</t>
+          <t>Betty Bossi Mischsalat</t>
         </is>
       </c>
       <c r="C458" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/fruechte-gemuese/weiteres-gemuese/vorbereitetes-gemuese/naturaplan-bio-rotkabis/p/6986266</t>
-        </is>
-      </c>
-      <c r="D458" t="inlineStr"/>
+          <t>/de/lebensmittel/fruechte-gemuese/salate/geschnittene-salate/betty-bossi-mischsalat/p/3388940</t>
+        </is>
+      </c>
+      <c r="D458" t="n">
+        <v>66</v>
+      </c>
       <c r="E458" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F458" t="inlineStr">
         <is>
@@ -31993,12 +31991,12 @@
       </c>
       <c r="G458" t="inlineStr">
         <is>
-          <t>1.95</t>
+          <t>3.70</t>
         </is>
       </c>
       <c r="H458" t="inlineStr">
         <is>
-          <t>0.98/100g</t>
+          <t>0.82/100g</t>
         </is>
       </c>
       <c r="I458" t="inlineStr">
@@ -32008,7 +32006,7 @@
       </c>
       <c r="J458" t="inlineStr">
         <is>
-          <t>0.98</t>
+          <t>0.82</t>
         </is>
       </c>
       <c r="K458" t="inlineStr">
@@ -32018,42 +32016,46 @@
       </c>
       <c r="L458" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'fruechte-gemuese', 'weiteres-gemuese', 'vorbereitetes-gemuese']</t>
+          <t>['lebensmittel', 'fruechte-gemuese', 'salate', 'geschnittene-salate']</t>
         </is>
       </c>
       <c r="M458" t="inlineStr">
         <is>
-          <t>Naturaplan Bio Rotkabis 1.95 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N458" t="inlineStr"/>
+          <t>Betty Bossi Mischsalat - Online kein Bestand Aktion Aktion 3.70 Schweizer Franken statt 4.40 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N458" t="inlineStr">
+        <is>
+          <t>['chilled']</t>
+        </is>
+      </c>
       <c r="O458" t="inlineStr">
         <is>
-          <t>2022-12-02 14:40:59</t>
+          <t>2022-12-02 20:49:28</t>
         </is>
       </c>
     </row>
     <row r="459">
       <c r="A459" t="inlineStr">
         <is>
-          <t>6495113</t>
+          <t>6073294</t>
         </is>
       </c>
       <c r="B459" t="inlineStr">
         <is>
-          <t>Prix Garantie Grapefruits rot</t>
+          <t>Naturaplan Bio Kitchen-Classics Box</t>
         </is>
       </c>
       <c r="C459" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/fruechte-gemuese/fruechte/zitrusfruechte/prix-garantie-grapefruits-rot/p/6495113</t>
+          <t>/de/lebensmittel/fruechte-gemuese/fruechte-gemueseboxen/naturaplan-bio-kitchen-classics-box/p/6073294</t>
         </is>
       </c>
       <c r="D459" t="n">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="E459" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F459" t="inlineStr">
         <is>
@@ -32062,12 +32064,12 @@
       </c>
       <c r="G459" t="inlineStr">
         <is>
-          <t>2.50</t>
+          <t>19.00</t>
         </is>
       </c>
       <c r="H459" t="inlineStr">
         <is>
-          <t>2.50/1kg</t>
+          <t>6.33/1kg</t>
         </is>
       </c>
       <c r="I459" t="inlineStr">
@@ -32077,7 +32079,7 @@
       </c>
       <c r="J459" t="inlineStr">
         <is>
-          <t>2.50</t>
+          <t>6.33</t>
         </is>
       </c>
       <c r="K459" t="inlineStr">
@@ -32087,56 +32089,54 @@
       </c>
       <c r="L459" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'fruechte-gemuese', 'fruechte', 'zitrusfruechte']</t>
+          <t>['lebensmittel', 'fruechte-gemuese', 'fruechte-gemueseboxen']</t>
         </is>
       </c>
       <c r="M459" t="inlineStr">
         <is>
-          <t>Prix Garantie Grapefruits rot 2.50 Schweizer Franken</t>
+          <t>Naturaplan Bio Kitchen-Classics Box 19.00 Schweizer Franken</t>
         </is>
       </c>
       <c r="N459" t="inlineStr"/>
       <c r="O459" t="inlineStr">
         <is>
-          <t>2022-12-02 14:40:59</t>
+          <t>2022-12-02 20:49:28</t>
         </is>
       </c>
     </row>
     <row r="460">
       <c r="A460" t="inlineStr">
         <is>
-          <t>6722900</t>
+          <t>6986266</t>
         </is>
       </c>
       <c r="B460" t="inlineStr">
         <is>
-          <t>The Green Mountain plant based Bratwurstalternative</t>
+          <t>Naturaplan Bio Rotkabis</t>
         </is>
       </c>
       <c r="C460" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/fruechte-gemuese/pflanzliche-alternativen-zu-fleisch/the-green-mountain-plant-based-bratwurstalternative/p/6722900</t>
-        </is>
-      </c>
-      <c r="D460" t="n">
-        <v>20</v>
-      </c>
+          <t>/de/lebensmittel/fruechte-gemuese/weiteres-gemuese/vorbereitetes-gemuese/naturaplan-bio-rotkabis/p/6986266</t>
+        </is>
+      </c>
+      <c r="D460" t="inlineStr"/>
       <c r="E460" t="n">
-        <v>3.5</v>
+        <v>0</v>
       </c>
       <c r="F460" t="inlineStr">
         <is>
-          <t>The GREEN MOUNTAIN</t>
+          <t>Coop</t>
         </is>
       </c>
       <c r="G460" t="inlineStr">
         <is>
-          <t>6.95</t>
+          <t>1.95</t>
         </is>
       </c>
       <c r="H460" t="inlineStr">
         <is>
-          <t>3.02/100g</t>
+          <t>0.98/100g</t>
         </is>
       </c>
       <c r="I460" t="inlineStr">
@@ -32146,7 +32146,7 @@
       </c>
       <c r="J460" t="inlineStr">
         <is>
-          <t>3.02</t>
+          <t>0.98</t>
         </is>
       </c>
       <c r="K460" t="inlineStr">
@@ -32156,60 +32156,56 @@
       </c>
       <c r="L460" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'fruechte-gemuese', 'pflanzliche-alternativen-zu-fleisch']</t>
+          <t>['lebensmittel', 'fruechte-gemuese', 'weiteres-gemuese', 'vorbereitetes-gemuese']</t>
         </is>
       </c>
       <c r="M460" t="inlineStr">
         <is>
-          <t>The Green Mountain plant based Bratwurstalternative 6.95 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N460" t="inlineStr">
-        <is>
-          <t>['chilled', 'vegan', 'vegetarian']</t>
-        </is>
-      </c>
+          <t>Naturaplan Bio Rotkabis 1.95 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N460" t="inlineStr"/>
       <c r="O460" t="inlineStr">
         <is>
-          <t>2022-12-02 14:40:59</t>
+          <t>2022-12-02 20:49:28</t>
         </is>
       </c>
     </row>
     <row r="461">
       <c r="A461" t="inlineStr">
         <is>
-          <t>6638726</t>
+          <t>6722900</t>
         </is>
       </c>
       <c r="B461" t="inlineStr">
         <is>
-          <t>Betty Bossi Salat Pasta &amp;amp; Pesto</t>
+          <t>The Green Mountain plant based Bratwurstalternative</t>
         </is>
       </c>
       <c r="C461" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/fertiggerichte/frische-fertiggerichte/fertige-salate/betty-bossi-salat-pasta-pesto/p/6638726</t>
+          <t>/de/lebensmittel/fruechte-gemuese/pflanzliche-alternativen-zu-fleisch/the-green-mountain-plant-based-bratwurstalternative/p/6722900</t>
         </is>
       </c>
       <c r="D461" t="n">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="E461" t="n">
-        <v>2</v>
+        <v>3.5</v>
       </c>
       <c r="F461" t="inlineStr">
         <is>
-          <t>Coop</t>
+          <t>The GREEN MOUNTAIN</t>
         </is>
       </c>
       <c r="G461" t="inlineStr">
         <is>
-          <t>4.60</t>
+          <t>6.95</t>
         </is>
       </c>
       <c r="H461" t="inlineStr">
         <is>
-          <t>1.64/100g</t>
+          <t>3.02/100g</t>
         </is>
       </c>
       <c r="I461" t="inlineStr">
@@ -32219,7 +32215,7 @@
       </c>
       <c r="J461" t="inlineStr">
         <is>
-          <t>1.64</t>
+          <t>3.02</t>
         </is>
       </c>
       <c r="K461" t="inlineStr">
@@ -32229,46 +32225,46 @@
       </c>
       <c r="L461" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'fertiggerichte', 'frische-fertiggerichte', 'fertige-salate']</t>
+          <t>['lebensmittel', 'fruechte-gemuese', 'pflanzliche-alternativen-zu-fleisch']</t>
         </is>
       </c>
       <c r="M461" t="inlineStr">
         <is>
-          <t>Betty Bossi Salat Pasta &amp;amp; Pesto 4.60 Schweizer Franken</t>
+          <t>The Green Mountain plant based Bratwurstalternative 6.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="N461" t="inlineStr">
         <is>
-          <t>['chilled', 'vegetarian']</t>
+          <t>['chilled', 'vegan', 'vegetarian']</t>
         </is>
       </c>
       <c r="O461" t="inlineStr">
         <is>
-          <t>2022-12-02 14:40:59</t>
+          <t>2022-12-02 20:49:28</t>
         </is>
       </c>
     </row>
     <row r="462">
       <c r="A462" t="inlineStr">
         <is>
-          <t>6073294</t>
+          <t>6638726</t>
         </is>
       </c>
       <c r="B462" t="inlineStr">
         <is>
-          <t>Naturaplan Bio Kitchen-Classics Box</t>
+          <t>Betty Bossi Salat Pasta &amp;amp; Pesto</t>
         </is>
       </c>
       <c r="C462" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/fruechte-gemuese/fruechte-gemueseboxen/naturaplan-bio-kitchen-classics-box/p/6073294</t>
+          <t>/de/lebensmittel/fertiggerichte/frische-fertiggerichte/fertige-salate/betty-bossi-salat-pasta-pesto/p/6638726</t>
         </is>
       </c>
       <c r="D462" t="n">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="E462" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F462" t="inlineStr">
         <is>
@@ -32277,43 +32273,47 @@
       </c>
       <c r="G462" t="inlineStr">
         <is>
-          <t>19.00</t>
+          <t>4.60</t>
         </is>
       </c>
       <c r="H462" t="inlineStr">
         <is>
-          <t>6.33/1kg</t>
+          <t>1.64/100g</t>
         </is>
       </c>
       <c r="I462" t="inlineStr">
         <is>
-          <t>Preis pro 1 Kilogramm</t>
+          <t>Preis pro 100 Gramm</t>
         </is>
       </c>
       <c r="J462" t="inlineStr">
         <is>
-          <t>6.33</t>
+          <t>1.64</t>
         </is>
       </c>
       <c r="K462" t="inlineStr">
         <is>
-          <t>1kg</t>
+          <t>100g</t>
         </is>
       </c>
       <c r="L462" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'fruechte-gemuese', 'fruechte-gemueseboxen']</t>
+          <t>['lebensmittel', 'fertiggerichte', 'frische-fertiggerichte', 'fertige-salate']</t>
         </is>
       </c>
       <c r="M462" t="inlineStr">
         <is>
-          <t>Naturaplan Bio Kitchen-Classics Box 19.00 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N462" t="inlineStr"/>
+          <t>Betty Bossi Salat Pasta &amp;amp; Pesto 4.60 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N462" t="inlineStr">
+        <is>
+          <t>['chilled', 'vegetarian']</t>
+        </is>
+      </c>
       <c r="O462" t="inlineStr">
         <is>
-          <t>2022-12-02 14:40:59</t>
+          <t>2022-12-02 20:49:28</t>
         </is>
       </c>
     </row>
@@ -32386,7 +32386,7 @@
       </c>
       <c r="O463" t="inlineStr">
         <is>
-          <t>2022-12-02 14:40:59</t>
+          <t>2022-12-02 20:49:28</t>
         </is>
       </c>
     </row>
@@ -32453,7 +32453,7 @@
       <c r="N464" t="inlineStr"/>
       <c r="O464" t="inlineStr">
         <is>
-          <t>2022-12-02 14:40:59</t>
+          <t>2022-12-02 20:49:28</t>
         </is>
       </c>
     </row>
@@ -32526,7 +32526,7 @@
       </c>
       <c r="O465" t="inlineStr">
         <is>
-          <t>2022-12-02 14:40:59</t>
+          <t>2022-12-02 20:49:28</t>
         </is>
       </c>
     </row>
@@ -32599,7 +32599,7 @@
       </c>
       <c r="O466" t="inlineStr">
         <is>
-          <t>2022-12-02 14:40:59</t>
+          <t>2022-12-02 20:49:28</t>
         </is>
       </c>
     </row>
@@ -32672,7 +32672,7 @@
       </c>
       <c r="O467" t="inlineStr">
         <is>
-          <t>2022-12-02 14:40:59</t>
+          <t>2022-12-02 20:49:28</t>
         </is>
       </c>
     </row>
@@ -32725,7 +32725,7 @@
       <c r="N468" t="inlineStr"/>
       <c r="O468" t="inlineStr">
         <is>
-          <t>2022-12-02 14:40:59</t>
+          <t>2022-12-02 20:49:28</t>
         </is>
       </c>
     </row>
@@ -32798,7 +32798,7 @@
       </c>
       <c r="O469" t="inlineStr">
         <is>
-          <t>2022-12-02 14:40:59</t>
+          <t>2022-12-02 20:49:28</t>
         </is>
       </c>
     </row>
@@ -32863,7 +32863,7 @@
       <c r="N470" t="inlineStr"/>
       <c r="O470" t="inlineStr">
         <is>
-          <t>2022-12-02 14:40:59</t>
+          <t>2022-12-02 20:49:28</t>
         </is>
       </c>
     </row>
@@ -32932,7 +32932,7 @@
       <c r="N471" t="inlineStr"/>
       <c r="O471" t="inlineStr">
         <is>
-          <t>2022-12-02 14:40:59</t>
+          <t>2022-12-02 20:49:28</t>
         </is>
       </c>
     </row>
@@ -33001,7 +33001,7 @@
       <c r="N472" t="inlineStr"/>
       <c r="O472" t="inlineStr">
         <is>
-          <t>2022-12-02 14:40:59</t>
+          <t>2022-12-02 20:49:28</t>
         </is>
       </c>
     </row>
@@ -33074,7 +33074,7 @@
       </c>
       <c r="O473" t="inlineStr">
         <is>
-          <t>2022-12-02 14:40:59</t>
+          <t>2022-12-02 20:49:28</t>
         </is>
       </c>
     </row>
@@ -33139,7 +33139,7 @@
       <c r="N474" t="inlineStr"/>
       <c r="O474" t="inlineStr">
         <is>
-          <t>2022-12-02 14:40:59</t>
+          <t>2022-12-02 20:49:28</t>
         </is>
       </c>
     </row>
@@ -33212,29 +33212,31 @@
       </c>
       <c r="O475" t="inlineStr">
         <is>
-          <t>2022-12-02 14:40:59</t>
+          <t>2022-12-02 20:49:28</t>
         </is>
       </c>
     </row>
     <row r="476">
       <c r="A476" t="inlineStr">
         <is>
-          <t>6986646</t>
+          <t>6073361</t>
         </is>
       </c>
       <c r="B476" t="inlineStr">
         <is>
-          <t>Betty Bossi Randen geschält gekocht</t>
+          <t>Naturaplan Bio Saisonfrüchte Box</t>
         </is>
       </c>
       <c r="C476" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/fruechte-gemuese/wurzelgemuese/randen/betty-bossi-randen-geschaelt-gekocht/p/6986646</t>
-        </is>
-      </c>
-      <c r="D476" t="inlineStr"/>
+          <t>/de/lebensmittel/fruechte-gemuese/fruechte-gemueseboxen/naturaplan-bio-saisonfruechte-box/p/6073361</t>
+        </is>
+      </c>
+      <c r="D476" t="n">
+        <v>22</v>
+      </c>
       <c r="E476" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F476" t="inlineStr">
         <is>
@@ -33243,85 +33245,79 @@
       </c>
       <c r="G476" t="inlineStr">
         <is>
-          <t>2.10</t>
+          <t>20.00</t>
         </is>
       </c>
       <c r="H476" t="inlineStr">
         <is>
-          <t>0.42/100g</t>
+          <t>6.67/1kg</t>
         </is>
       </c>
       <c r="I476" t="inlineStr">
         <is>
-          <t>Preis pro 100 Gramm</t>
+          <t>Preis pro 1 Kilogramm</t>
         </is>
       </c>
       <c r="J476" t="inlineStr">
         <is>
-          <t>0.42</t>
+          <t>6.67</t>
         </is>
       </c>
       <c r="K476" t="inlineStr">
         <is>
-          <t>100g</t>
+          <t>1kg</t>
         </is>
       </c>
       <c r="L476" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'fruechte-gemuese', 'wurzelgemuese', 'randen']</t>
+          <t>['lebensmittel', 'fruechte-gemuese', 'fruechte-gemueseboxen']</t>
         </is>
       </c>
       <c r="M476" t="inlineStr">
         <is>
-          <t>Betty Bossi Randen geschält gekocht 2.10 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N476" t="inlineStr">
-        <is>
-          <t>['chilled']</t>
-        </is>
-      </c>
+          <t>Naturaplan Bio Saisonfrüchte Box 20.00 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N476" t="inlineStr"/>
       <c r="O476" t="inlineStr">
         <is>
-          <t>2022-12-02 14:40:59</t>
+          <t>2022-12-02 20:49:28</t>
         </is>
       </c>
     </row>
     <row r="477">
       <c r="A477" t="inlineStr">
         <is>
-          <t>6761531</t>
+          <t>6986646</t>
         </is>
       </c>
       <c r="B477" t="inlineStr">
         <is>
-          <t>Outlawz Food Seitan Wings Satay</t>
+          <t>Betty Bossi Randen geschält gekocht</t>
         </is>
       </c>
       <c r="C477" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/fruechte-gemuese/pflanzliche-alternativen-zu-fleisch/outlawz-food-seitan-wings-satay/p/6761531</t>
-        </is>
-      </c>
-      <c r="D477" t="n">
-        <v>4</v>
-      </c>
+          <t>/de/lebensmittel/fruechte-gemuese/wurzelgemuese/randen/betty-bossi-randen-geschaelt-gekocht/p/6986646</t>
+        </is>
+      </c>
+      <c r="D477" t="inlineStr"/>
       <c r="E477" t="n">
-        <v>4.5</v>
+        <v>0</v>
       </c>
       <c r="F477" t="inlineStr">
         <is>
-          <t>OUTLAWZ Food</t>
+          <t>Coop</t>
         </is>
       </c>
       <c r="G477" t="inlineStr">
         <is>
-          <t>6.95</t>
+          <t>2.10</t>
         </is>
       </c>
       <c r="H477" t="inlineStr">
         <is>
-          <t>2.48/100g</t>
+          <t>0.42/100g</t>
         </is>
       </c>
       <c r="I477" t="inlineStr">
@@ -33331,7 +33327,7 @@
       </c>
       <c r="J477" t="inlineStr">
         <is>
-          <t>2.48</t>
+          <t>0.42</t>
         </is>
       </c>
       <c r="K477" t="inlineStr">
@@ -33341,91 +33337,95 @@
       </c>
       <c r="L477" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'fruechte-gemuese', 'pflanzliche-alternativen-zu-fleisch']</t>
+          <t>['lebensmittel', 'fruechte-gemuese', 'wurzelgemuese', 'randen']</t>
         </is>
       </c>
       <c r="M477" t="inlineStr">
         <is>
-          <t>Outlawz Food Seitan Wings Satay 6.95 Schweizer Franken</t>
+          <t>Betty Bossi Randen geschält gekocht 2.10 Schweizer Franken</t>
         </is>
       </c>
       <c r="N477" t="inlineStr">
         <is>
-          <t>['chilled', 'vegan', 'vegetarian']</t>
+          <t>['chilled']</t>
         </is>
       </c>
       <c r="O477" t="inlineStr">
         <is>
-          <t>2022-12-02 14:40:59</t>
+          <t>2022-12-02 20:49:28</t>
         </is>
       </c>
     </row>
     <row r="478">
       <c r="A478" t="inlineStr">
         <is>
-          <t>6073361</t>
+          <t>6761531</t>
         </is>
       </c>
       <c r="B478" t="inlineStr">
         <is>
-          <t>Naturaplan Bio Saisonfrüchte Box</t>
+          <t>Outlawz Food Seitan Wings Satay</t>
         </is>
       </c>
       <c r="C478" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/fruechte-gemuese/fruechte-gemueseboxen/naturaplan-bio-saisonfruechte-box/p/6073361</t>
+          <t>/de/lebensmittel/fruechte-gemuese/pflanzliche-alternativen-zu-fleisch/outlawz-food-seitan-wings-satay/p/6761531</t>
         </is>
       </c>
       <c r="D478" t="n">
-        <v>22</v>
+        <v>4</v>
       </c>
       <c r="E478" t="n">
-        <v>2</v>
+        <v>4.5</v>
       </c>
       <c r="F478" t="inlineStr">
         <is>
-          <t>Coop</t>
+          <t>OUTLAWZ Food</t>
         </is>
       </c>
       <c r="G478" t="inlineStr">
         <is>
-          <t>20.00</t>
+          <t>6.95</t>
         </is>
       </c>
       <c r="H478" t="inlineStr">
         <is>
-          <t>6.67/1kg</t>
+          <t>2.48/100g</t>
         </is>
       </c>
       <c r="I478" t="inlineStr">
         <is>
-          <t>Preis pro 1 Kilogramm</t>
+          <t>Preis pro 100 Gramm</t>
         </is>
       </c>
       <c r="J478" t="inlineStr">
         <is>
-          <t>6.67</t>
+          <t>2.48</t>
         </is>
       </c>
       <c r="K478" t="inlineStr">
         <is>
-          <t>1kg</t>
+          <t>100g</t>
         </is>
       </c>
       <c r="L478" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'fruechte-gemuese', 'fruechte-gemueseboxen']</t>
+          <t>['lebensmittel', 'fruechte-gemuese', 'pflanzliche-alternativen-zu-fleisch']</t>
         </is>
       </c>
       <c r="M478" t="inlineStr">
         <is>
-          <t>Naturaplan Bio Saisonfrüchte Box 20.00 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N478" t="inlineStr"/>
+          <t>Outlawz Food Seitan Wings Satay 6.95 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N478" t="inlineStr">
+        <is>
+          <t>['chilled', 'vegan', 'vegetarian']</t>
+        </is>
+      </c>
       <c r="O478" t="inlineStr">
         <is>
-          <t>2022-12-02 14:40:59</t>
+          <t>2022-12-02 20:49:28</t>
         </is>
       </c>
     </row>
@@ -33498,7 +33498,7 @@
       </c>
       <c r="O479" t="inlineStr">
         <is>
-          <t>2022-12-02 14:40:59</t>
+          <t>2022-12-02 20:49:28</t>
         </is>
       </c>
     </row>
@@ -33571,7 +33571,7 @@
       </c>
       <c r="O480" t="inlineStr">
         <is>
-          <t>2022-12-02 14:40:59</t>
+          <t>2022-12-02 20:49:28</t>
         </is>
       </c>
     </row>
@@ -33644,7 +33644,7 @@
       </c>
       <c r="O481" t="inlineStr">
         <is>
-          <t>2022-12-02 14:40:59</t>
+          <t>2022-12-02 20:49:28</t>
         </is>
       </c>
     </row>
@@ -33717,7 +33717,7 @@
       </c>
       <c r="O482" t="inlineStr">
         <is>
-          <t>2022-12-02 14:40:59</t>
+          <t>2022-12-02 20:49:28</t>
         </is>
       </c>
     </row>
@@ -33786,7 +33786,7 @@
       <c r="N483" t="inlineStr"/>
       <c r="O483" t="inlineStr">
         <is>
-          <t>2022-12-02 14:40:59</t>
+          <t>2022-12-02 20:49:28</t>
         </is>
       </c>
     </row>
@@ -33853,7 +33853,7 @@
       <c r="N484" t="inlineStr"/>
       <c r="O484" t="inlineStr">
         <is>
-          <t>2022-12-02 14:40:59</t>
+          <t>2022-12-02 20:49:28</t>
         </is>
       </c>
     </row>
@@ -33926,7 +33926,7 @@
       </c>
       <c r="O485" t="inlineStr">
         <is>
-          <t>2022-12-02 14:40:59</t>
+          <t>2022-12-02 20:49:28</t>
         </is>
       </c>
     </row>
@@ -33999,7 +33999,7 @@
       </c>
       <c r="O486" t="inlineStr">
         <is>
-          <t>2022-12-02 14:40:59</t>
+          <t>2022-12-02 20:49:28</t>
         </is>
       </c>
     </row>
@@ -34072,7 +34072,7 @@
       </c>
       <c r="O487" t="inlineStr">
         <is>
-          <t>2022-12-02 14:40:59</t>
+          <t>2022-12-02 20:49:28</t>
         </is>
       </c>
     </row>
@@ -34145,7 +34145,7 @@
       </c>
       <c r="O488" t="inlineStr">
         <is>
-          <t>2022-12-02 14:40:59</t>
+          <t>2022-12-02 20:49:28</t>
         </is>
       </c>
     </row>
@@ -34210,7 +34210,7 @@
       <c r="N489" t="inlineStr"/>
       <c r="O489" t="inlineStr">
         <is>
-          <t>2022-12-02 14:40:59</t>
+          <t>2022-12-02 20:49:28</t>
         </is>
       </c>
     </row>
@@ -34283,7 +34283,7 @@
       </c>
       <c r="O490" t="inlineStr">
         <is>
-          <t>2022-12-02 14:40:59</t>
+          <t>2022-12-02 20:49:28</t>
         </is>
       </c>
     </row>
@@ -34348,7 +34348,7 @@
       <c r="N491" t="inlineStr"/>
       <c r="O491" t="inlineStr">
         <is>
-          <t>2022-12-02 14:40:59</t>
+          <t>2022-12-02 20:49:28</t>
         </is>
       </c>
     </row>
@@ -34419,7 +34419,7 @@
       </c>
       <c r="O492" t="inlineStr">
         <is>
-          <t>2022-12-02 14:40:59</t>
+          <t>2022-12-02 20:49:28</t>
         </is>
       </c>
     </row>
@@ -34492,7 +34492,7 @@
       </c>
       <c r="O493" t="inlineStr">
         <is>
-          <t>2022-12-02 14:40:59</t>
+          <t>2022-12-02 20:49:28</t>
         </is>
       </c>
     </row>
@@ -34561,7 +34561,7 @@
       <c r="N494" t="inlineStr"/>
       <c r="O494" t="inlineStr">
         <is>
-          <t>2022-12-02 14:40:59</t>
+          <t>2022-12-02 20:49:28</t>
         </is>
       </c>
     </row>
@@ -34634,7 +34634,7 @@
       </c>
       <c r="O495" t="inlineStr">
         <is>
-          <t>2022-12-02 14:40:59</t>
+          <t>2022-12-02 20:49:28</t>
         </is>
       </c>
     </row>
@@ -34701,7 +34701,7 @@
       <c r="N496" t="inlineStr"/>
       <c r="O496" t="inlineStr">
         <is>
-          <t>2022-12-02 14:40:59</t>
+          <t>2022-12-02 20:49:28</t>
         </is>
       </c>
     </row>
@@ -34772,7 +34772,7 @@
       </c>
       <c r="O497" t="inlineStr">
         <is>
-          <t>2022-12-02 14:40:59</t>
+          <t>2022-12-02 20:49:28</t>
         </is>
       </c>
     </row>
@@ -34825,7 +34825,7 @@
       <c r="N498" t="inlineStr"/>
       <c r="O498" t="inlineStr">
         <is>
-          <t>2022-12-02 14:40:59</t>
+          <t>2022-12-02 20:49:28</t>
         </is>
       </c>
     </row>
@@ -34894,7 +34894,7 @@
       </c>
       <c r="O499" t="inlineStr">
         <is>
-          <t>2022-12-02 14:40:59</t>
+          <t>2022-12-02 20:49:28</t>
         </is>
       </c>
     </row>
@@ -34959,169 +34959,167 @@
       <c r="N500" t="inlineStr"/>
       <c r="O500" t="inlineStr">
         <is>
-          <t>2022-12-02 14:40:59</t>
+          <t>2022-12-02 20:49:28</t>
         </is>
       </c>
     </row>
     <row r="501">
       <c r="A501" t="inlineStr">
         <is>
-          <t>7072654</t>
+          <t>6338190</t>
         </is>
       </c>
       <c r="B501" t="inlineStr">
         <is>
-          <t>Morga Bio Sojageschnetzeltes</t>
+          <t>Schöni Berner Kabissalat Kümmel 500G</t>
         </is>
       </c>
       <c r="C501" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/fruechte-gemuese/pflanzliche-alternativen-zu-fleisch/morga-bio-sojageschnetzeltes/p/7072654</t>
-        </is>
-      </c>
-      <c r="D501" t="inlineStr"/>
+          <t>/de/lebensmittel/fruechte-gemuese/kohlgemuese/sauerkraut-rotkraut/schoeni-berner-kabissalat-kuemmel-500g/p/6338190</t>
+        </is>
+      </c>
+      <c r="D501" t="n">
+        <v>3</v>
+      </c>
       <c r="E501" t="n">
-        <v>0</v>
+        <v>4.5</v>
       </c>
       <c r="F501" t="inlineStr">
         <is>
-          <t>Morga</t>
+          <t>Schöni</t>
         </is>
       </c>
       <c r="G501" t="inlineStr">
         <is>
-          <t>4.75</t>
-        </is>
-      </c>
-      <c r="H501" t="inlineStr">
-        <is>
-          <t>2.71/100g</t>
-        </is>
-      </c>
-      <c r="I501" t="inlineStr">
-        <is>
-          <t>Preis pro 100 Gramm</t>
-        </is>
-      </c>
-      <c r="J501" t="inlineStr">
-        <is>
-          <t>2.71</t>
-        </is>
-      </c>
-      <c r="K501" t="inlineStr">
-        <is>
-          <t>100g</t>
-        </is>
-      </c>
+          <t>2.40</t>
+        </is>
+      </c>
+      <c r="H501" t="inlineStr"/>
+      <c r="I501" t="inlineStr"/>
+      <c r="J501" t="inlineStr"/>
+      <c r="K501" t="inlineStr"/>
       <c r="L501" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'fruechte-gemuese', 'pflanzliche-alternativen-zu-fleisch']</t>
+          <t>['lebensmittel', 'fruechte-gemuese', 'kohlgemuese', 'sauerkraut-rotkraut']</t>
         </is>
       </c>
       <c r="M501" t="inlineStr">
         <is>
-          <t>Morga Bio Sojageschnetzeltes 4.75 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N501" t="inlineStr"/>
+          <t>Schöni Berner Kabissalat Kümmel 500G 2.40 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N501" t="inlineStr">
+        <is>
+          <t>['chilled']</t>
+        </is>
+      </c>
       <c r="O501" t="inlineStr">
         <is>
-          <t>2022-12-02 14:40:59</t>
+          <t>2022-12-02 20:49:28</t>
         </is>
       </c>
     </row>
     <row r="502">
       <c r="A502" t="inlineStr">
         <is>
-          <t>6338190</t>
+          <t>7072654</t>
         </is>
       </c>
       <c r="B502" t="inlineStr">
         <is>
-          <t>Schöni Berner Kabissalat Kümmel 500G</t>
+          <t>Morga Bio Sojageschnetzeltes</t>
         </is>
       </c>
       <c r="C502" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/fruechte-gemuese/kohlgemuese/sauerkraut-rotkraut/schoeni-berner-kabissalat-kuemmel-500g/p/6338190</t>
-        </is>
-      </c>
-      <c r="D502" t="n">
-        <v>3</v>
-      </c>
+          <t>/de/lebensmittel/fruechte-gemuese/pflanzliche-alternativen-zu-fleisch/morga-bio-sojageschnetzeltes/p/7072654</t>
+        </is>
+      </c>
+      <c r="D502" t="inlineStr"/>
       <c r="E502" t="n">
-        <v>4.5</v>
+        <v>0</v>
       </c>
       <c r="F502" t="inlineStr">
         <is>
-          <t>Schöni</t>
+          <t>Morga</t>
         </is>
       </c>
       <c r="G502" t="inlineStr">
         <is>
-          <t>2.40</t>
-        </is>
-      </c>
-      <c r="H502" t="inlineStr"/>
-      <c r="I502" t="inlineStr"/>
-      <c r="J502" t="inlineStr"/>
-      <c r="K502" t="inlineStr"/>
+          <t>4.75</t>
+        </is>
+      </c>
+      <c r="H502" t="inlineStr">
+        <is>
+          <t>2.71/100g</t>
+        </is>
+      </c>
+      <c r="I502" t="inlineStr">
+        <is>
+          <t>Preis pro 100 Gramm</t>
+        </is>
+      </c>
+      <c r="J502" t="inlineStr">
+        <is>
+          <t>2.71</t>
+        </is>
+      </c>
+      <c r="K502" t="inlineStr">
+        <is>
+          <t>100g</t>
+        </is>
+      </c>
       <c r="L502" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'fruechte-gemuese', 'kohlgemuese', 'sauerkraut-rotkraut']</t>
+          <t>['lebensmittel', 'fruechte-gemuese', 'pflanzliche-alternativen-zu-fleisch']</t>
         </is>
       </c>
       <c r="M502" t="inlineStr">
         <is>
-          <t>Schöni Berner Kabissalat Kümmel 500G 2.40 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N502" t="inlineStr">
-        <is>
-          <t>['chilled']</t>
-        </is>
-      </c>
+          <t>Morga Bio Sojageschnetzeltes 4.75 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N502" t="inlineStr"/>
       <c r="O502" t="inlineStr">
         <is>
-          <t>2022-12-02 14:40:59</t>
+          <t>2022-12-02 20:49:28</t>
         </is>
       </c>
     </row>
     <row r="503">
       <c r="A503" t="inlineStr">
         <is>
-          <t>6987208</t>
+          <t>7091209</t>
         </is>
       </c>
       <c r="B503" t="inlineStr">
         <is>
-          <t>The Green Mountain Plantbased Pfefferfilet</t>
+          <t>Garden Gourmet Nuggets vegan</t>
         </is>
       </c>
       <c r="C503" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/fruechte-gemuese/pflanzliche-alternativen-zu-fleisch/the-green-mountain-plantbased-pfefferfilet/p/6987208</t>
-        </is>
-      </c>
-      <c r="D503" t="n">
-        <v>9</v>
-      </c>
+          <t>/de/lebensmittel/fruechte-gemuese/pflanzliche-alternativen-zu-fleisch/garden-gourmet-nuggets-vegan/p/7091209</t>
+        </is>
+      </c>
+      <c r="D503" t="inlineStr"/>
       <c r="E503" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="F503" t="inlineStr">
         <is>
-          <t>The GREEN MOUNTAIN</t>
+          <t>Garden Gourmet</t>
         </is>
       </c>
       <c r="G503" t="inlineStr">
         <is>
-          <t>8.95</t>
+          <t>13.95</t>
         </is>
       </c>
       <c r="H503" t="inlineStr">
         <is>
-          <t>4.48/100g</t>
+          <t>1.99/100g</t>
         </is>
       </c>
       <c r="I503" t="inlineStr">
@@ -35131,7 +35129,7 @@
       </c>
       <c r="J503" t="inlineStr">
         <is>
-          <t>4.48</t>
+          <t>1.99</t>
         </is>
       </c>
       <c r="K503" t="inlineStr">
@@ -35146,53 +35144,55 @@
       </c>
       <c r="M503" t="inlineStr">
         <is>
-          <t>The Green Mountain Plantbased Pfefferfilet 8.95 Schweizer Franken</t>
+          <t>Garden Gourmet Nuggets vegan 13.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="N503" t="inlineStr">
         <is>
-          <t>['chilled']</t>
+          <t>['frozen', 'vegan', 'vegetarian']</t>
         </is>
       </c>
       <c r="O503" t="inlineStr">
         <is>
-          <t>2022-12-02 14:40:59</t>
+          <t>2022-12-02 20:49:28</t>
         </is>
       </c>
     </row>
     <row r="504">
       <c r="A504" t="inlineStr">
         <is>
-          <t>7091209</t>
+          <t>6987208</t>
         </is>
       </c>
       <c r="B504" t="inlineStr">
         <is>
-          <t>Garden Gourmet Nuggets vegan</t>
+          <t>The Green Mountain Plantbased Pfefferfilet</t>
         </is>
       </c>
       <c r="C504" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/fruechte-gemuese/pflanzliche-alternativen-zu-fleisch/garden-gourmet-nuggets-vegan/p/7091209</t>
-        </is>
-      </c>
-      <c r="D504" t="inlineStr"/>
+          <t>/de/lebensmittel/fruechte-gemuese/pflanzliche-alternativen-zu-fleisch/the-green-mountain-plantbased-pfefferfilet/p/6987208</t>
+        </is>
+      </c>
+      <c r="D504" t="n">
+        <v>9</v>
+      </c>
       <c r="E504" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F504" t="inlineStr">
         <is>
-          <t>Garden Gourmet</t>
+          <t>The GREEN MOUNTAIN</t>
         </is>
       </c>
       <c r="G504" t="inlineStr">
         <is>
-          <t>13.95</t>
+          <t>8.95</t>
         </is>
       </c>
       <c r="H504" t="inlineStr">
         <is>
-          <t>1.99/100g</t>
+          <t>4.48/100g</t>
         </is>
       </c>
       <c r="I504" t="inlineStr">
@@ -35202,7 +35202,7 @@
       </c>
       <c r="J504" t="inlineStr">
         <is>
-          <t>1.99</t>
+          <t>4.48</t>
         </is>
       </c>
       <c r="K504" t="inlineStr">
@@ -35217,17 +35217,17 @@
       </c>
       <c r="M504" t="inlineStr">
         <is>
-          <t>Garden Gourmet Nuggets vegan 13.95 Schweizer Franken</t>
+          <t>The Green Mountain Plantbased Pfefferfilet 8.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="N504" t="inlineStr">
         <is>
-          <t>['frozen', 'vegan', 'vegetarian']</t>
+          <t>['chilled']</t>
         </is>
       </c>
       <c r="O504" t="inlineStr">
         <is>
-          <t>2022-12-02 14:40:59</t>
+          <t>2022-12-02 20:49:28</t>
         </is>
       </c>
     </row>
@@ -35300,183 +35300,183 @@
       </c>
       <c r="O505" t="inlineStr">
         <is>
-          <t>2022-12-02 14:40:59</t>
+          <t>2022-12-02 20:49:28</t>
         </is>
       </c>
     </row>
     <row r="506">
       <c r="A506" t="inlineStr">
         <is>
-          <t>3091258</t>
+          <t>6974165</t>
         </is>
       </c>
       <c r="B506" t="inlineStr">
         <is>
-          <t>Naturaplan Bio Batavia-Salat 1 Stück ca.</t>
+          <t>The Green Mountain Tranchen vegan</t>
         </is>
       </c>
       <c r="C506" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/fruechte-gemuese/salate/ganze-salate/naturaplan-bio-batavia-salat-1-stueck-ca/p/3091258</t>
+          <t>/de/lebensmittel/fruechte-gemuese/pflanzliche-alternativen-zu-fleisch/the-green-mountain-tranchen-vegan/p/6974165</t>
         </is>
       </c>
       <c r="D506" t="n">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="E506" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="F506" t="inlineStr">
         <is>
-          <t>Coop</t>
+          <t>The GREEN MOUNTAIN</t>
         </is>
       </c>
       <c r="G506" t="inlineStr">
         <is>
-          <t>2.95</t>
+          <t>4.95</t>
         </is>
       </c>
       <c r="H506" t="inlineStr">
         <is>
-          <t>2.95/1ST</t>
+          <t>2.48/100g</t>
         </is>
       </c>
       <c r="I506" t="inlineStr">
         <is>
-          <t>Preis pro 1 Stück</t>
+          <t>Preis pro 100 Gramm</t>
         </is>
       </c>
       <c r="J506" t="inlineStr">
         <is>
-          <t>2.95</t>
+          <t>2.48</t>
         </is>
       </c>
       <c r="K506" t="inlineStr">
         <is>
-          <t>1ST</t>
+          <t>100g</t>
         </is>
       </c>
       <c r="L506" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'fruechte-gemuese', 'salate', 'ganze-salate']</t>
+          <t>['lebensmittel', 'fruechte-gemuese', 'pflanzliche-alternativen-zu-fleisch']</t>
         </is>
       </c>
       <c r="M506" t="inlineStr">
         <is>
-          <t>Naturaplan Bio Batavia-Salat 1 Stück ca. 2.95 Schweizer Franken</t>
+          <t>The Green Mountain Tranchen vegan 4.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="N506" t="inlineStr"/>
       <c r="O506" t="inlineStr">
         <is>
-          <t>2022-12-02 14:40:59</t>
+          <t>2022-12-02 20:49:28</t>
         </is>
       </c>
     </row>
     <row r="507">
       <c r="A507" t="inlineStr">
         <is>
-          <t>6974165</t>
+          <t>3091258</t>
         </is>
       </c>
       <c r="B507" t="inlineStr">
         <is>
-          <t>The Green Mountain vegane Tranchen</t>
+          <t>Naturaplan Bio Batavia-Salat 1 Stück ca.</t>
         </is>
       </c>
       <c r="C507" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/fruechte-gemuese/pflanzliche-alternativen-zu-fleisch/the-green-mountain-vegane-tranchen/p/6974165</t>
+          <t>/de/lebensmittel/fruechte-gemuese/salate/ganze-salate/naturaplan-bio-batavia-salat-1-stueck-ca/p/3091258</t>
         </is>
       </c>
       <c r="D507" t="n">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="E507" t="n">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="F507" t="inlineStr">
         <is>
-          <t>The GREEN MOUNTAIN</t>
+          <t>Coop</t>
         </is>
       </c>
       <c r="G507" t="inlineStr">
         <is>
-          <t>4.95</t>
+          <t>2.95</t>
         </is>
       </c>
       <c r="H507" t="inlineStr">
         <is>
-          <t>2.48/100g</t>
+          <t>2.95/1ST</t>
         </is>
       </c>
       <c r="I507" t="inlineStr">
         <is>
-          <t>Preis pro 100 Gramm</t>
+          <t>Preis pro 1 Stück</t>
         </is>
       </c>
       <c r="J507" t="inlineStr">
         <is>
-          <t>2.48</t>
+          <t>2.95</t>
         </is>
       </c>
       <c r="K507" t="inlineStr">
         <is>
-          <t>100g</t>
+          <t>1ST</t>
         </is>
       </c>
       <c r="L507" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'fruechte-gemuese', 'pflanzliche-alternativen-zu-fleisch']</t>
+          <t>['lebensmittel', 'fruechte-gemuese', 'salate', 'ganze-salate']</t>
         </is>
       </c>
       <c r="M507" t="inlineStr">
         <is>
-          <t>The Green Mountain vegane Tranchen 4.95 Schweizer Franken</t>
+          <t>Naturaplan Bio Batavia-Salat 1 Stück ca. 2.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="N507" t="inlineStr"/>
       <c r="O507" t="inlineStr">
         <is>
-          <t>2022-12-02 14:40:59</t>
+          <t>2022-12-02 20:49:28</t>
         </is>
       </c>
     </row>
     <row r="508">
       <c r="A508" t="inlineStr">
         <is>
-          <t>6002381</t>
+          <t>6867027</t>
         </is>
       </c>
       <c r="B508" t="inlineStr">
         <is>
-          <t>Algues de Bretagne Meeressalat</t>
+          <t>Yolo Filet Herbs</t>
         </is>
       </c>
       <c r="C508" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/fertiggerichte/frische-fertiggerichte/fertige-salate/algues-de-bretagne-meeressalat/p/6002381</t>
+          <t>/de/lebensmittel/fruechte-gemuese/pflanzliche-alternativen-zu-fleisch/yolo-filet-herbs/p/6867027</t>
         </is>
       </c>
       <c r="D508" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E508" t="n">
-        <v>2.5</v>
+        <v>5</v>
       </c>
       <c r="F508" t="inlineStr">
         <is>
-          <t>Algues de Bretagne</t>
+          <t>Yolo</t>
         </is>
       </c>
       <c r="G508" t="inlineStr">
         <is>
-          <t>5.95</t>
+          <t>4.95</t>
         </is>
       </c>
       <c r="H508" t="inlineStr">
         <is>
-          <t>7.44/100g</t>
+          <t>3.09/100g</t>
         </is>
       </c>
       <c r="I508" t="inlineStr">
@@ -35486,7 +35486,7 @@
       </c>
       <c r="J508" t="inlineStr">
         <is>
-          <t>7.44</t>
+          <t>3.09</t>
         </is>
       </c>
       <c r="K508" t="inlineStr">
@@ -35496,60 +35496,60 @@
       </c>
       <c r="L508" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'fertiggerichte', 'frische-fertiggerichte', 'fertige-salate']</t>
+          <t>['lebensmittel', 'fruechte-gemuese', 'pflanzliche-alternativen-zu-fleisch']</t>
         </is>
       </c>
       <c r="M508" t="inlineStr">
         <is>
-          <t>Algues de Bretagne Meeressalat 5.95 Schweizer Franken</t>
+          <t>Yolo Filet Herbs 4.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="N508" t="inlineStr">
         <is>
-          <t>['chilled']</t>
+          <t>['vegan', 'vegetarian']</t>
         </is>
       </c>
       <c r="O508" t="inlineStr">
         <is>
-          <t>2022-12-02 14:40:59</t>
+          <t>2022-12-02 20:49:28</t>
         </is>
       </c>
     </row>
     <row r="509">
       <c r="A509" t="inlineStr">
         <is>
-          <t>6867027</t>
+          <t>6002381</t>
         </is>
       </c>
       <c r="B509" t="inlineStr">
         <is>
-          <t>Yolo Filet Herbs</t>
+          <t>Algues de Bretagne Meeressalat</t>
         </is>
       </c>
       <c r="C509" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/fruechte-gemuese/pflanzliche-alternativen-zu-fleisch/yolo-filet-herbs/p/6867027</t>
+          <t>/de/lebensmittel/fertiggerichte/frische-fertiggerichte/fertige-salate/algues-de-bretagne-meeressalat/p/6002381</t>
         </is>
       </c>
       <c r="D509" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="E509" t="n">
-        <v>5</v>
+        <v>2.5</v>
       </c>
       <c r="F509" t="inlineStr">
         <is>
-          <t>Yolo</t>
+          <t>Algues de Bretagne</t>
         </is>
       </c>
       <c r="G509" t="inlineStr">
         <is>
-          <t>4.95</t>
+          <t>5.95</t>
         </is>
       </c>
       <c r="H509" t="inlineStr">
         <is>
-          <t>3.09/100g</t>
+          <t>7.44/100g</t>
         </is>
       </c>
       <c r="I509" t="inlineStr">
@@ -35559,7 +35559,7 @@
       </c>
       <c r="J509" t="inlineStr">
         <is>
-          <t>3.09</t>
+          <t>7.44</t>
         </is>
       </c>
       <c r="K509" t="inlineStr">
@@ -35569,22 +35569,22 @@
       </c>
       <c r="L509" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'fruechte-gemuese', 'pflanzliche-alternativen-zu-fleisch']</t>
+          <t>['lebensmittel', 'fertiggerichte', 'frische-fertiggerichte', 'fertige-salate']</t>
         </is>
       </c>
       <c r="M509" t="inlineStr">
         <is>
-          <t>Yolo Filet Herbs 4.95 Schweizer Franken</t>
+          <t>Algues de Bretagne Meeressalat 5.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="N509" t="inlineStr">
         <is>
-          <t>['vegan', 'vegetarian']</t>
+          <t>['chilled']</t>
         </is>
       </c>
       <c r="O509" t="inlineStr">
         <is>
-          <t>2022-12-02 14:40:59</t>
+          <t>2022-12-02 20:49:28</t>
         </is>
       </c>
     </row>
@@ -35653,7 +35653,7 @@
       <c r="N510" t="inlineStr"/>
       <c r="O510" t="inlineStr">
         <is>
-          <t>2022-12-02 14:40:59</t>
+          <t>2022-12-02 20:49:28</t>
         </is>
       </c>
     </row>
@@ -35724,45 +35724,43 @@
       </c>
       <c r="O511" t="inlineStr">
         <is>
-          <t>2022-12-02 14:40:59</t>
+          <t>2022-12-02 20:49:28</t>
         </is>
       </c>
     </row>
     <row r="512">
       <c r="A512" t="inlineStr">
         <is>
-          <t>7019070</t>
+          <t>7027730</t>
         </is>
       </c>
       <c r="B512" t="inlineStr">
         <is>
-          <t>Vivera veganes Lachsfilet 2x100g</t>
+          <t>The Green Mountain Plant based Curry Geschnetzeltes</t>
         </is>
       </c>
       <c r="C512" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/fruechte-gemuese/pflanzliche-alternativen-zu-fleisch/vivera-veganes-lachsfilet-2x100g/p/7019070</t>
-        </is>
-      </c>
-      <c r="D512" t="n">
-        <v>3</v>
-      </c>
+          <t>/de/lebensmittel/fruechte-gemuese/pflanzliche-alternativen-zu-fleisch/the-green-mountain-plant-based-curry-geschnetzeltes/p/7027730</t>
+        </is>
+      </c>
+      <c r="D512" t="inlineStr"/>
       <c r="E512" t="n">
-        <v>3.5</v>
+        <v>0</v>
       </c>
       <c r="F512" t="inlineStr">
         <is>
-          <t>Vivera</t>
+          <t>The GREEN MOUNTAIN</t>
         </is>
       </c>
       <c r="G512" t="inlineStr">
         <is>
-          <t>5.95</t>
+          <t>7.95</t>
         </is>
       </c>
       <c r="H512" t="inlineStr">
         <is>
-          <t>2.98/100g</t>
+          <t>2.27/100g</t>
         </is>
       </c>
       <c r="I512" t="inlineStr">
@@ -35772,7 +35770,7 @@
       </c>
       <c r="J512" t="inlineStr">
         <is>
-          <t>2.98</t>
+          <t>2.27</t>
         </is>
       </c>
       <c r="K512" t="inlineStr">
@@ -35787,34 +35785,34 @@
       </c>
       <c r="M512" t="inlineStr">
         <is>
-          <t>Vivera veganes Lachsfilet 2x100g 5.95 Schweizer Franken</t>
+          <t>The Green Mountain Plant based Curry Geschnetzeltes 7.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="N512" t="inlineStr">
         <is>
-          <t>['chilled', 'vegan', 'vegetarian']</t>
+          <t>['chilled']</t>
         </is>
       </c>
       <c r="O512" t="inlineStr">
         <is>
-          <t>2022-12-02 14:40:59</t>
+          <t>2022-12-02 20:49:28</t>
         </is>
       </c>
     </row>
     <row r="513">
       <c r="A513" t="inlineStr">
         <is>
-          <t>3947304</t>
+          <t>7019070</t>
         </is>
       </c>
       <c r="B513" t="inlineStr">
         <is>
-          <t>Tamarinde</t>
+          <t>Vivera veganes Lachsfilet 2x100g</t>
         </is>
       </c>
       <c r="C513" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/fruechte-gemuese/fruechte/weitere-exotische-fruechte/tamarinde/p/3947304</t>
+          <t>/de/lebensmittel/fruechte-gemuese/pflanzliche-alternativen-zu-fleisch/vivera-veganes-lachsfilet-2x100g/p/7019070</t>
         </is>
       </c>
       <c r="D513" t="n">
@@ -35825,7 +35823,7 @@
       </c>
       <c r="F513" t="inlineStr">
         <is>
-          <t>Coop</t>
+          <t>Vivera</t>
         </is>
       </c>
       <c r="G513" t="inlineStr">
@@ -35835,7 +35833,7 @@
       </c>
       <c r="H513" t="inlineStr">
         <is>
-          <t>1.32/100g</t>
+          <t>2.98/100g</t>
         </is>
       </c>
       <c r="I513" t="inlineStr">
@@ -35845,7 +35843,7 @@
       </c>
       <c r="J513" t="inlineStr">
         <is>
-          <t>1.32</t>
+          <t>2.98</t>
         </is>
       </c>
       <c r="K513" t="inlineStr">
@@ -35855,54 +35853,60 @@
       </c>
       <c r="L513" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'fruechte-gemuese', 'fruechte', 'weitere-exotische-fruechte']</t>
+          <t>['lebensmittel', 'fruechte-gemuese', 'pflanzliche-alternativen-zu-fleisch']</t>
         </is>
       </c>
       <c r="M513" t="inlineStr">
         <is>
-          <t>Tamarinde 5.95 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N513" t="inlineStr"/>
+          <t>Vivera veganes Lachsfilet 2x100g 5.95 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N513" t="inlineStr">
+        <is>
+          <t>['chilled', 'vegan', 'vegetarian']</t>
+        </is>
+      </c>
       <c r="O513" t="inlineStr">
         <is>
-          <t>2022-12-02 14:40:59</t>
+          <t>2022-12-02 20:49:28</t>
         </is>
       </c>
     </row>
     <row r="514">
       <c r="A514" t="inlineStr">
         <is>
-          <t>7027730</t>
+          <t>3947304</t>
         </is>
       </c>
       <c r="B514" t="inlineStr">
         <is>
-          <t>The Green Mountain Plant based Curry Geschnetzeltes</t>
+          <t>Tamarinde</t>
         </is>
       </c>
       <c r="C514" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/fruechte-gemuese/pflanzliche-alternativen-zu-fleisch/the-green-mountain-plant-based-curry-geschnetzeltes/p/7027730</t>
-        </is>
-      </c>
-      <c r="D514" t="inlineStr"/>
+          <t>/de/lebensmittel/fruechte-gemuese/fruechte/weitere-exotische-fruechte/tamarinde/p/3947304</t>
+        </is>
+      </c>
+      <c r="D514" t="n">
+        <v>3</v>
+      </c>
       <c r="E514" t="n">
-        <v>0</v>
+        <v>3.5</v>
       </c>
       <c r="F514" t="inlineStr">
         <is>
-          <t>The GREEN MOUNTAIN</t>
+          <t>Coop</t>
         </is>
       </c>
       <c r="G514" t="inlineStr">
         <is>
-          <t>7.95</t>
+          <t>5.95</t>
         </is>
       </c>
       <c r="H514" t="inlineStr">
         <is>
-          <t>2.27/100g</t>
+          <t>1.32/100g</t>
         </is>
       </c>
       <c r="I514" t="inlineStr">
@@ -35912,7 +35916,7 @@
       </c>
       <c r="J514" t="inlineStr">
         <is>
-          <t>2.27</t>
+          <t>1.32</t>
         </is>
       </c>
       <c r="K514" t="inlineStr">
@@ -35922,22 +35926,18 @@
       </c>
       <c r="L514" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'fruechte-gemuese', 'pflanzliche-alternativen-zu-fleisch']</t>
+          <t>['lebensmittel', 'fruechte-gemuese', 'fruechte', 'weitere-exotische-fruechte']</t>
         </is>
       </c>
       <c r="M514" t="inlineStr">
         <is>
-          <t>The Green Mountain Plant based Curry Geschnetzeltes 7.95 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N514" t="inlineStr">
-        <is>
-          <t>['chilled']</t>
-        </is>
-      </c>
+          <t>Tamarinde 5.95 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N514" t="inlineStr"/>
       <c r="O514" t="inlineStr">
         <is>
-          <t>2022-12-02 14:40:59</t>
+          <t>2022-12-02 20:49:28</t>
         </is>
       </c>
     </row>
@@ -36010,7 +36010,7 @@
       </c>
       <c r="O515" t="inlineStr">
         <is>
-          <t>2022-12-02 14:40:59</t>
+          <t>2022-12-02 20:49:28</t>
         </is>
       </c>
     </row>
@@ -36083,7 +36083,7 @@
       </c>
       <c r="O516" t="inlineStr">
         <is>
-          <t>2022-12-02 14:40:59</t>
+          <t>2022-12-02 20:49:28</t>
         </is>
       </c>
     </row>
@@ -36156,7 +36156,7 @@
       </c>
       <c r="O517" t="inlineStr">
         <is>
-          <t>2022-12-02 14:40:59</t>
+          <t>2022-12-02 20:49:28</t>
         </is>
       </c>
     </row>
@@ -36221,7 +36221,7 @@
       <c r="N518" t="inlineStr"/>
       <c r="O518" t="inlineStr">
         <is>
-          <t>2022-12-02 14:40:59</t>
+          <t>2022-12-02 20:49:28</t>
         </is>
       </c>
     </row>
@@ -36290,7 +36290,7 @@
       <c r="N519" t="inlineStr"/>
       <c r="O519" t="inlineStr">
         <is>
-          <t>2022-12-02 14:40:59</t>
+          <t>2022-12-02 20:49:28</t>
         </is>
       </c>
     </row>
@@ -36361,7 +36361,7 @@
       </c>
       <c r="O520" t="inlineStr">
         <is>
-          <t>2022-12-02 14:40:59</t>
+          <t>2022-12-02 20:49:28</t>
         </is>
       </c>
     </row>
@@ -36426,31 +36426,29 @@
       <c r="N521" t="inlineStr"/>
       <c r="O521" t="inlineStr">
         <is>
-          <t>2022-12-02 14:40:59</t>
+          <t>2022-12-02 20:49:28</t>
         </is>
       </c>
     </row>
     <row r="522">
       <c r="A522" t="inlineStr">
         <is>
-          <t>6964537</t>
+          <t>7014561</t>
         </is>
       </c>
       <c r="B522" t="inlineStr">
         <is>
-          <t>Yolo Nuggets im Teig</t>
+          <t>Yolo Ocean Burger</t>
         </is>
       </c>
       <c r="C522" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/fruechte-gemuese/pflanzliche-alternativen-zu-fleisch/yolo-nuggets-im-teig/p/6964537</t>
-        </is>
-      </c>
-      <c r="D522" t="n">
-        <v>1</v>
-      </c>
+          <t>/de/lebensmittel/fruechte-gemuese/pflanzliche-alternativen-zu-fleisch/yolo-ocean-burger/p/7014561</t>
+        </is>
+      </c>
+      <c r="D522" t="inlineStr"/>
       <c r="E522" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="F522" t="inlineStr">
         <is>
@@ -36459,12 +36457,12 @@
       </c>
       <c r="G522" t="inlineStr">
         <is>
-          <t>3.95</t>
+          <t>4.95</t>
         </is>
       </c>
       <c r="H522" t="inlineStr">
         <is>
-          <t>1.32/100g</t>
+          <t>2.75/100g</t>
         </is>
       </c>
       <c r="I522" t="inlineStr">
@@ -36474,7 +36472,7 @@
       </c>
       <c r="J522" t="inlineStr">
         <is>
-          <t>1.32</t>
+          <t>2.75</t>
         </is>
       </c>
       <c r="K522" t="inlineStr">
@@ -36489,39 +36487,41 @@
       </c>
       <c r="M522" t="inlineStr">
         <is>
-          <t>Yolo Nuggets im Teig 3.95 Schweizer Franken</t>
+          <t>Yolo Ocean Burger 4.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="N522" t="inlineStr">
         <is>
-          <t>['frozen']</t>
+          <t>['chilled', 'vegan', 'vegetarian']</t>
         </is>
       </c>
       <c r="O522" t="inlineStr">
         <is>
-          <t>2022-12-02 14:40:59</t>
+          <t>2022-12-02 20:49:28</t>
         </is>
       </c>
     </row>
     <row r="523">
       <c r="A523" t="inlineStr">
         <is>
-          <t>7014561</t>
+          <t>6964537</t>
         </is>
       </c>
       <c r="B523" t="inlineStr">
         <is>
-          <t>Yolo Ocean Burger</t>
+          <t>Yolo Nuggets im Teig</t>
         </is>
       </c>
       <c r="C523" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/fruechte-gemuese/pflanzliche-alternativen-zu-fleisch/yolo-ocean-burger/p/7014561</t>
-        </is>
-      </c>
-      <c r="D523" t="inlineStr"/>
+          <t>/de/lebensmittel/fruechte-gemuese/pflanzliche-alternativen-zu-fleisch/yolo-nuggets-im-teig/p/6964537</t>
+        </is>
+      </c>
+      <c r="D523" t="n">
+        <v>1</v>
+      </c>
       <c r="E523" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F523" t="inlineStr">
         <is>
@@ -36530,12 +36530,12 @@
       </c>
       <c r="G523" t="inlineStr">
         <is>
-          <t>4.95</t>
+          <t>3.95</t>
         </is>
       </c>
       <c r="H523" t="inlineStr">
         <is>
-          <t>2.75/100g</t>
+          <t>1.32/100g</t>
         </is>
       </c>
       <c r="I523" t="inlineStr">
@@ -36545,7 +36545,7 @@
       </c>
       <c r="J523" t="inlineStr">
         <is>
-          <t>2.75</t>
+          <t>1.32</t>
         </is>
       </c>
       <c r="K523" t="inlineStr">
@@ -36560,55 +36560,55 @@
       </c>
       <c r="M523" t="inlineStr">
         <is>
-          <t>Yolo Ocean Burger 4.95 Schweizer Franken</t>
+          <t>Yolo Nuggets im Teig 3.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="N523" t="inlineStr">
         <is>
-          <t>['chilled', 'vegan', 'vegetarian']</t>
+          <t>['frozen']</t>
         </is>
       </c>
       <c r="O523" t="inlineStr">
         <is>
-          <t>2022-12-02 14:40:59</t>
+          <t>2022-12-02 20:49:28</t>
         </is>
       </c>
     </row>
     <row r="524">
       <c r="A524" t="inlineStr">
         <is>
-          <t>6962237</t>
+          <t>7032802</t>
         </is>
       </c>
       <c r="B524" t="inlineStr">
         <is>
-          <t>Délicorn Bio Chili Würstli</t>
+          <t>The Green Mountain Schnitzel</t>
         </is>
       </c>
       <c r="C524" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/fruechte-gemuese/pflanzliche-alternativen-zu-fleisch/delicorn-bio-chili-wuerstli/p/6962237</t>
+          <t>/de/lebensmittel/fruechte-gemuese/pflanzliche-alternativen-zu-fleisch/the-green-mountain-schnitzel/p/7032802</t>
         </is>
       </c>
       <c r="D524" t="n">
         <v>1</v>
       </c>
       <c r="E524" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F524" t="inlineStr">
         <is>
-          <t>Coop</t>
+          <t>The GREEN MOUNTAIN</t>
         </is>
       </c>
       <c r="G524" t="inlineStr">
         <is>
-          <t>5.95</t>
+          <t>6.95</t>
         </is>
       </c>
       <c r="H524" t="inlineStr">
         <is>
-          <t>2.98/100g</t>
+          <t>3.86/100g</t>
         </is>
       </c>
       <c r="I524" t="inlineStr">
@@ -36618,7 +36618,7 @@
       </c>
       <c r="J524" t="inlineStr">
         <is>
-          <t>2.98</t>
+          <t>3.86</t>
         </is>
       </c>
       <c r="K524" t="inlineStr">
@@ -36633,55 +36633,55 @@
       </c>
       <c r="M524" t="inlineStr">
         <is>
-          <t>Délicorn Bio Chili Würstli 20% ab 2 Aktion 5.95 Schweizer Franken</t>
+          <t>The Green Mountain Schnitzel 6.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="N524" t="inlineStr">
         <is>
-          <t>['chilled', 'vegan', 'vegetarian']</t>
+          <t>['chilled']</t>
         </is>
       </c>
       <c r="O524" t="inlineStr">
         <is>
-          <t>2022-12-02 14:40:59</t>
+          <t>2022-12-02 20:49:28</t>
         </is>
       </c>
     </row>
     <row r="525">
       <c r="A525" t="inlineStr">
         <is>
-          <t>6820928</t>
+          <t>6962237</t>
         </is>
       </c>
       <c r="B525" t="inlineStr">
         <is>
-          <t>Findus Green Cuisine Burger</t>
+          <t>Délicorn Bio Chili Würstli</t>
         </is>
       </c>
       <c r="C525" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/fruechte-gemuese/pflanzliche-alternativen-zu-fleisch/findus-green-cuisine-burger/p/6820928</t>
+          <t>/de/lebensmittel/fruechte-gemuese/pflanzliche-alternativen-zu-fleisch/delicorn-bio-chili-wuerstli/p/6962237</t>
         </is>
       </c>
       <c r="D525" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E525" t="n">
-        <v>4.5</v>
+        <v>1</v>
       </c>
       <c r="F525" t="inlineStr">
         <is>
-          <t>Findus</t>
+          <t>Coop</t>
         </is>
       </c>
       <c r="G525" t="inlineStr">
         <is>
-          <t>4.75</t>
+          <t>5.95</t>
         </is>
       </c>
       <c r="H525" t="inlineStr">
         <is>
-          <t>2.38/100g</t>
+          <t>2.98/100g</t>
         </is>
       </c>
       <c r="I525" t="inlineStr">
@@ -36691,7 +36691,7 @@
       </c>
       <c r="J525" t="inlineStr">
         <is>
-          <t>2.38</t>
+          <t>2.98</t>
         </is>
       </c>
       <c r="K525" t="inlineStr">
@@ -36706,55 +36706,55 @@
       </c>
       <c r="M525" t="inlineStr">
         <is>
-          <t>Findus Green Cuisine Burger 20% Aktion 4.75 Schweizer Franken statt 5.95 Schweizer Franken</t>
+          <t>Délicorn Bio Chili Würstli 20% ab 2 Aktion 5.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="N525" t="inlineStr">
         <is>
-          <t>['frozen']</t>
+          <t>['chilled', 'vegan', 'vegetarian']</t>
         </is>
       </c>
       <c r="O525" t="inlineStr">
         <is>
-          <t>2022-12-02 14:40:59</t>
+          <t>2022-12-02 20:49:28</t>
         </is>
       </c>
     </row>
     <row r="526">
       <c r="A526" t="inlineStr">
         <is>
-          <t>7032802</t>
+          <t>6820928</t>
         </is>
       </c>
       <c r="B526" t="inlineStr">
         <is>
-          <t>The Green Mountain Schnitzel</t>
+          <t>Findus Green Cuisine Burger</t>
         </is>
       </c>
       <c r="C526" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/fruechte-gemuese/pflanzliche-alternativen-zu-fleisch/the-green-mountain-schnitzel/p/7032802</t>
+          <t>/de/lebensmittel/fruechte-gemuese/pflanzliche-alternativen-zu-fleisch/findus-green-cuisine-burger/p/6820928</t>
         </is>
       </c>
       <c r="D526" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E526" t="n">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="F526" t="inlineStr">
         <is>
-          <t>The GREEN MOUNTAIN</t>
+          <t>Findus</t>
         </is>
       </c>
       <c r="G526" t="inlineStr">
         <is>
-          <t>6.95</t>
+          <t>4.75</t>
         </is>
       </c>
       <c r="H526" t="inlineStr">
         <is>
-          <t>3.86/100g</t>
+          <t>2.38/100g</t>
         </is>
       </c>
       <c r="I526" t="inlineStr">
@@ -36764,7 +36764,7 @@
       </c>
       <c r="J526" t="inlineStr">
         <is>
-          <t>3.86</t>
+          <t>2.38</t>
         </is>
       </c>
       <c r="K526" t="inlineStr">
@@ -36779,17 +36779,17 @@
       </c>
       <c r="M526" t="inlineStr">
         <is>
-          <t>The Green Mountain Schnitzel 6.95 Schweizer Franken</t>
+          <t>Findus Green Cuisine Burger 20% Aktion 4.75 Schweizer Franken statt 5.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="N526" t="inlineStr">
         <is>
-          <t>['chilled']</t>
+          <t>['frozen']</t>
         </is>
       </c>
       <c r="O526" t="inlineStr">
         <is>
-          <t>2022-12-02 14:40:59</t>
+          <t>2022-12-02 20:49:28</t>
         </is>
       </c>
     </row>
@@ -36862,7 +36862,7 @@
       </c>
       <c r="O527" t="inlineStr">
         <is>
-          <t>2022-12-02 14:40:59</t>
+          <t>2022-12-02 20:49:28</t>
         </is>
       </c>
     </row>
@@ -36935,7 +36935,7 @@
       </c>
       <c r="O528" t="inlineStr">
         <is>
-          <t>2022-12-02 14:40:59</t>
+          <t>2022-12-02 20:49:28</t>
         </is>
       </c>
     </row>
@@ -37004,7 +37004,7 @@
       <c r="N529" t="inlineStr"/>
       <c r="O529" t="inlineStr">
         <is>
-          <t>2022-12-02 14:40:59</t>
+          <t>2022-12-02 20:49:28</t>
         </is>
       </c>
     </row>
@@ -37073,7 +37073,7 @@
       <c r="N530" t="inlineStr"/>
       <c r="O530" t="inlineStr">
         <is>
-          <t>2022-12-02 14:40:59</t>
+          <t>2022-12-02 20:49:28</t>
         </is>
       </c>
     </row>
@@ -37140,7 +37140,7 @@
       <c r="N531" t="inlineStr"/>
       <c r="O531" t="inlineStr">
         <is>
-          <t>2022-12-02 14:40:59</t>
+          <t>2022-12-02 20:49:28</t>
         </is>
       </c>
     </row>
@@ -37207,7 +37207,7 @@
       <c r="N532" t="inlineStr"/>
       <c r="O532" t="inlineStr">
         <is>
-          <t>2022-12-02 14:40:59</t>
+          <t>2022-12-02 20:49:28</t>
         </is>
       </c>
     </row>
@@ -37280,7 +37280,7 @@
       </c>
       <c r="O533" t="inlineStr">
         <is>
-          <t>2022-12-02 14:40:59</t>
+          <t>2022-12-02 20:49:28</t>
         </is>
       </c>
     </row>
@@ -37353,7 +37353,7 @@
       </c>
       <c r="O534" t="inlineStr">
         <is>
-          <t>2022-12-02 14:40:59</t>
+          <t>2022-12-02 20:49:28</t>
         </is>
       </c>
     </row>
@@ -37420,7 +37420,7 @@
       <c r="N535" t="inlineStr"/>
       <c r="O535" t="inlineStr">
         <is>
-          <t>2022-12-02 14:40:59</t>
+          <t>2022-12-02 20:49:28</t>
         </is>
       </c>
     </row>
@@ -37491,7 +37491,7 @@
       </c>
       <c r="O536" t="inlineStr">
         <is>
-          <t>2022-12-02 14:40:59</t>
+          <t>2022-12-02 20:49:28</t>
         </is>
       </c>
     </row>
@@ -37564,7 +37564,7 @@
       </c>
       <c r="O537" t="inlineStr">
         <is>
-          <t>2022-12-02 14:40:59</t>
+          <t>2022-12-02 20:49:28</t>
         </is>
       </c>
     </row>
@@ -37637,7 +37637,7 @@
       </c>
       <c r="O538" t="inlineStr">
         <is>
-          <t>2022-12-02 14:40:59</t>
+          <t>2022-12-02 20:49:28</t>
         </is>
       </c>
     </row>
@@ -37710,7 +37710,7 @@
       </c>
       <c r="O539" t="inlineStr">
         <is>
-          <t>2022-12-02 14:40:59</t>
+          <t>2022-12-02 20:49:28</t>
         </is>
       </c>
     </row>
@@ -37783,7 +37783,7 @@
       </c>
       <c r="O540" t="inlineStr">
         <is>
-          <t>2022-12-02 14:40:59</t>
+          <t>2022-12-02 20:49:28</t>
         </is>
       </c>
     </row>
@@ -37850,7 +37850,7 @@
       <c r="N541" t="inlineStr"/>
       <c r="O541" t="inlineStr">
         <is>
-          <t>2022-12-02 14:40:59</t>
+          <t>2022-12-02 20:49:28</t>
         </is>
       </c>
     </row>
@@ -37915,7 +37915,7 @@
       <c r="N542" t="inlineStr"/>
       <c r="O542" t="inlineStr">
         <is>
-          <t>2022-12-02 14:40:59</t>
+          <t>2022-12-02 20:49:28</t>
         </is>
       </c>
     </row>
@@ -37978,7 +37978,7 @@
       </c>
       <c r="M543" t="inlineStr">
         <is>
-          <t>Yolo Filets 5.95 Schweizer Franken</t>
+          <t>Yolo Filets - Online kein Bestand 5.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="N543" t="inlineStr">
@@ -37988,7 +37988,7 @@
       </c>
       <c r="O543" t="inlineStr">
         <is>
-          <t>2022-12-02 14:40:59</t>
+          <t>2022-12-02 20:49:28</t>
         </is>
       </c>
     </row>
@@ -38055,7 +38055,7 @@
       <c r="N544" t="inlineStr"/>
       <c r="O544" t="inlineStr">
         <is>
-          <t>2022-12-02 14:40:59</t>
+          <t>2022-12-02 20:49:28</t>
         </is>
       </c>
     </row>
@@ -38126,45 +38126,45 @@
       </c>
       <c r="O545" t="inlineStr">
         <is>
-          <t>2022-12-02 14:40:59</t>
+          <t>2022-12-02 20:49:28</t>
         </is>
       </c>
     </row>
     <row r="546">
       <c r="A546" t="inlineStr">
         <is>
-          <t>6050562</t>
+          <t>7051692</t>
         </is>
       </c>
       <c r="B546" t="inlineStr">
         <is>
-          <t>Délicorn Tischgrillplatte</t>
+          <t>Outlawz Food Geschnetzeltes Jäger*innen Art</t>
         </is>
       </c>
       <c r="C546" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/fruechte-gemuese/pflanzliche-alternativen-zu-fleisch/delicorn-tischgrillplatte/p/6050562</t>
+          <t>/de/lebensmittel/fruechte-gemuese/pflanzliche-alternativen-zu-fleisch/outlawz-food-geschnetzeltes-jaegerinnen-art/p/7051692</t>
         </is>
       </c>
       <c r="D546" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E546" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="F546" t="inlineStr">
         <is>
-          <t>Coop</t>
+          <t>OUTLAWZ Food</t>
         </is>
       </c>
       <c r="G546" t="inlineStr">
         <is>
-          <t>6.50</t>
+          <t>6.95</t>
         </is>
       </c>
       <c r="H546" t="inlineStr">
         <is>
-          <t>3.10/100g</t>
+          <t>3.76/100g</t>
         </is>
       </c>
       <c r="I546" t="inlineStr">
@@ -38174,7 +38174,7 @@
       </c>
       <c r="J546" t="inlineStr">
         <is>
-          <t>3.10</t>
+          <t>3.76</t>
         </is>
       </c>
       <c r="K546" t="inlineStr">
@@ -38189,7 +38189,7 @@
       </c>
       <c r="M546" t="inlineStr">
         <is>
-          <t>Délicorn Tischgrillplatte 6.50 Schweizer Franken</t>
+          <t>Outlawz Food Geschnetzeltes Jäger*innen Art 6.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="N546" t="inlineStr">
@@ -38199,45 +38199,45 @@
       </c>
       <c r="O546" t="inlineStr">
         <is>
-          <t>2022-12-02 14:40:59</t>
+          <t>2022-12-02 20:49:28</t>
         </is>
       </c>
     </row>
     <row r="547">
       <c r="A547" t="inlineStr">
         <is>
-          <t>7051692</t>
+          <t>6050562</t>
         </is>
       </c>
       <c r="B547" t="inlineStr">
         <is>
-          <t>OUTLAWZ Food Geschnetzeltes Jäger*innen Art</t>
+          <t>Délicorn Tischgrillplatte</t>
         </is>
       </c>
       <c r="C547" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/fruechte-gemuese/pflanzliche-alternativen-zu-fleisch/outlawz-food-geschnetzeltes-jaegerinnen-art/p/7051692</t>
+          <t>/de/lebensmittel/fruechte-gemuese/pflanzliche-alternativen-zu-fleisch/delicorn-tischgrillplatte/p/6050562</t>
         </is>
       </c>
       <c r="D547" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E547" t="n">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="F547" t="inlineStr">
         <is>
-          <t>OUTLAWZ Food</t>
+          <t>Coop</t>
         </is>
       </c>
       <c r="G547" t="inlineStr">
         <is>
-          <t>6.95</t>
+          <t>6.50</t>
         </is>
       </c>
       <c r="H547" t="inlineStr">
         <is>
-          <t>3.76/100g</t>
+          <t>3.10/100g</t>
         </is>
       </c>
       <c r="I547" t="inlineStr">
@@ -38247,7 +38247,7 @@
       </c>
       <c r="J547" t="inlineStr">
         <is>
-          <t>3.76</t>
+          <t>3.10</t>
         </is>
       </c>
       <c r="K547" t="inlineStr">
@@ -38262,7 +38262,7 @@
       </c>
       <c r="M547" t="inlineStr">
         <is>
-          <t>OUTLAWZ Food Geschnetzeltes Jäger*innen Art 6.95 Schweizer Franken</t>
+          <t>Délicorn Tischgrillplatte 6.50 Schweizer Franken</t>
         </is>
       </c>
       <c r="N547" t="inlineStr">
@@ -38272,7 +38272,7 @@
       </c>
       <c r="O547" t="inlineStr">
         <is>
-          <t>2022-12-02 14:40:59</t>
+          <t>2022-12-02 20:49:28</t>
         </is>
       </c>
     </row>
@@ -38341,7 +38341,7 @@
       <c r="N548" t="inlineStr"/>
       <c r="O548" t="inlineStr">
         <is>
-          <t>2022-12-02 14:40:59</t>
+          <t>2022-12-02 20:49:28</t>
         </is>
       </c>
     </row>
@@ -38412,7 +38412,7 @@
       </c>
       <c r="O549" t="inlineStr">
         <is>
-          <t>2022-12-02 14:40:59</t>
+          <t>2022-12-02 20:49:28</t>
         </is>
       </c>
     </row>
@@ -38481,7 +38481,7 @@
       <c r="N550" t="inlineStr"/>
       <c r="O550" t="inlineStr">
         <is>
-          <t>2022-12-02 14:40:59</t>
+          <t>2022-12-02 20:49:28</t>
         </is>
       </c>
     </row>
@@ -38546,7 +38546,7 @@
       <c r="N551" t="inlineStr"/>
       <c r="O551" t="inlineStr">
         <is>
-          <t>2022-12-02 14:40:59</t>
+          <t>2022-12-02 20:49:28</t>
         </is>
       </c>
     </row>
@@ -38617,7 +38617,7 @@
       </c>
       <c r="O552" t="inlineStr">
         <is>
-          <t>2022-12-02 14:40:59</t>
+          <t>2022-12-02 20:49:28</t>
         </is>
       </c>
     </row>
@@ -38690,7 +38690,7 @@
       </c>
       <c r="O553" t="inlineStr">
         <is>
-          <t>2022-12-02 14:40:59</t>
+          <t>2022-12-02 20:49:28</t>
         </is>
       </c>
     </row>
